--- a/generated_docs/WR_89830464_WeekEnding_080325.xlsx
+++ b/generated_docs/WR_89830464_WeekEnding_080325.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I184"/>
+  <dimension ref="A2:I187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 07/30/2025 01:48 PM</t>
+          <t>Report Generated On: 08/16/2025 12:48 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>30381.97</v>
+        <v>32318.87</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -635,7 +635,7 @@
       </c>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>07/30/2025 to 08/03/25</t>
+          <t>07/28/2025 to 08/03/25</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -2229,17 +2229,17 @@
       </c>
       <c r="B63" s="12" t="inlineStr">
         <is>
-          <t>CNC-HTA-10</t>
+          <t>SVC-2-TP-ALA-RS</t>
         </is>
       </c>
       <c r="C63" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Trans</t>
         </is>
       </c>
       <c r="D63" s="12" t="inlineStr">
         <is>
-          <t>Compression connector H-Tap Assembly 1/0</t>
+          <t>SVC,#2 AWG,Trip,Alum/Aly Neut,Res</t>
         </is>
       </c>
       <c r="E63" s="12" t="inlineStr">
@@ -2248,32 +2248,32 @@
         </is>
       </c>
       <c r="F63" s="13" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G63" s="13" t="inlineStr"/>
       <c r="H63" s="14" t="n">
-        <v>162.69</v>
+        <v>391.66</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="9" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B64" s="9" t="inlineStr">
         <is>
-          <t>CNC-HTA-10</t>
+          <t>SVC-10-TP-AAA-RS</t>
         </is>
       </c>
       <c r="C64" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Trans</t>
         </is>
       </c>
       <c r="D64" s="9" t="inlineStr">
         <is>
-          <t>Compression connector H-Tap Assembly 1/0</t>
+          <t>SVC,1/0,Trip,All Alum,Res</t>
         </is>
       </c>
       <c r="E64" s="9" t="inlineStr">
@@ -2282,17 +2282,17 @@
         </is>
       </c>
       <c r="F64" s="10" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G64" s="10" t="inlineStr"/>
       <c r="H64" s="11" t="n">
-        <v>172.26</v>
+        <v>195.83</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="12" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B65" s="12" t="inlineStr">
@@ -2316,32 +2316,32 @@
         </is>
       </c>
       <c r="F65" s="13" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G65" s="13" t="inlineStr"/>
       <c r="H65" s="14" t="n">
-        <v>28.71</v>
+        <v>162.69</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="9" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B66" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SVC-2-TP-AAA-RS</t>
         </is>
       </c>
       <c r="C66" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Trans</t>
         </is>
       </c>
       <c r="D66" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
         </is>
       </c>
       <c r="E66" s="9" t="inlineStr">
@@ -2350,32 +2350,32 @@
         </is>
       </c>
       <c r="F66" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G66" s="10" t="inlineStr"/>
       <c r="H66" s="11" t="n">
-        <v>94.17</v>
+        <v>587.49</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="12" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B67" s="12" t="inlineStr">
         <is>
-          <t>PLA-CUT</t>
+          <t>SVC-10-TP-AAA-RS</t>
         </is>
       </c>
       <c r="C67" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Trans</t>
         </is>
       </c>
       <c r="D67" s="12" t="inlineStr">
         <is>
-          <t>PLA,Cut Off Pole Top</t>
+          <t>SVC,1/0,Trip,All Alum,Res</t>
         </is>
       </c>
       <c r="E67" s="12" t="inlineStr">
@@ -2388,18 +2388,18 @@
       </c>
       <c r="G67" s="13" t="inlineStr"/>
       <c r="H67" s="14" t="n">
-        <v>216.17</v>
+        <v>195.83</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="9" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B68" s="9" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>CNC-HTA-10</t>
         </is>
       </c>
       <c r="C68" s="9" t="inlineStr">
@@ -2409,7 +2409,7 @@
       </c>
       <c r="D68" s="9" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>Compression connector H-Tap Assembly 1/0</t>
         </is>
       </c>
       <c r="E68" s="9" t="inlineStr">
@@ -2418,11 +2418,11 @@
         </is>
       </c>
       <c r="F68" s="10" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G68" s="10" t="inlineStr"/>
       <c r="H68" s="11" t="n">
-        <v>648.53</v>
+        <v>172.26</v>
       </c>
     </row>
     <row r="69">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="B69" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>CNC-HTA-10</t>
         </is>
       </c>
       <c r="C69" s="12" t="inlineStr">
@@ -2443,7 +2443,7 @@
       </c>
       <c r="D69" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>Compression connector H-Tap Assembly 1/0</t>
         </is>
       </c>
       <c r="E69" s="12" t="inlineStr">
@@ -2452,11 +2452,11 @@
         </is>
       </c>
       <c r="F69" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G69" s="13" t="inlineStr"/>
       <c r="H69" s="14" t="n">
-        <v>478.55</v>
+        <v>28.71</v>
       </c>
     </row>
     <row r="70">
@@ -2467,7 +2467,7 @@
       </c>
       <c r="B70" s="9" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C70" s="9" t="inlineStr">
@@ -2477,7 +2477,7 @@
       </c>
       <c r="D70" s="9" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E70" s="9" t="inlineStr">
@@ -2490,28 +2490,28 @@
       </c>
       <c r="G70" s="10" t="inlineStr"/>
       <c r="H70" s="11" t="n">
-        <v>648.53</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="12" t="inlineStr">
         <is>
-          <t>Point 04</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B71" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PLA-CUT</t>
         </is>
       </c>
       <c r="C71" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D71" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>PLA,Cut Off Pole Top</t>
         </is>
       </c>
       <c r="E71" s="12" t="inlineStr">
@@ -2524,28 +2524,28 @@
       </c>
       <c r="G71" s="13" t="inlineStr"/>
       <c r="H71" s="14" t="n">
-        <v>31.08</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="9" t="inlineStr">
         <is>
-          <t>Point 04</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B72" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C72" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D72" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E72" s="9" t="inlineStr">
@@ -2558,28 +2558,28 @@
       </c>
       <c r="G72" s="10" t="inlineStr"/>
       <c r="H72" s="11" t="n">
-        <v>31.08</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="12" t="inlineStr">
         <is>
-          <t>Point 04</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B73" s="12" t="inlineStr">
         <is>
-          <t>SAA-CL-336</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C73" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D73" s="12" t="inlineStr">
         <is>
-          <t>SAA,Susp Clamp Light Angle,336</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E73" s="12" t="inlineStr">
@@ -2592,28 +2592,28 @@
       </c>
       <c r="G73" s="13" t="inlineStr"/>
       <c r="H73" s="14" t="n">
-        <v>17.2</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="9" t="inlineStr">
         <is>
-          <t>Point 04</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B74" s="9" t="inlineStr">
         <is>
-          <t>SAA-DE-20</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C74" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D74" s="9" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E74" s="9" t="inlineStr">
@@ -2626,28 +2626,28 @@
       </c>
       <c r="G74" s="10" t="inlineStr"/>
       <c r="H74" s="11" t="n">
-        <v>17.2</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="12" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 04</t>
         </is>
       </c>
       <c r="B75" s="12" t="inlineStr">
         <is>
-          <t>DEG-2-SNA</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C75" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D75" s="12" t="inlineStr">
         <is>
-          <t>DEG,#2,Secondary Neutral Al</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E75" s="12" t="inlineStr">
@@ -2656,32 +2656,32 @@
         </is>
       </c>
       <c r="F75" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G75" s="13" t="inlineStr"/>
       <c r="H75" s="14" t="n">
-        <v>858.75</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 04</t>
         </is>
       </c>
       <c r="B76" s="9" t="inlineStr">
         <is>
-          <t>ALT-LED-DD-T5-5L-SF</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C76" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D76" s="9" t="inlineStr">
         <is>
-          <t>5200L LED, Type 5, Dusk to Dawn</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E76" s="9" t="inlineStr">
@@ -2694,28 +2694,28 @@
       </c>
       <c r="G76" s="10" t="inlineStr"/>
       <c r="H76" s="11" t="n">
-        <v>128.82</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="12" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 04</t>
         </is>
       </c>
       <c r="B77" s="12" t="inlineStr">
         <is>
-          <t>BKT-AC18-F</t>
+          <t>SAA-CL-336</t>
         </is>
       </c>
       <c r="C77" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D77" s="12" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+          <t>SAA,Susp Clamp Light Angle,336</t>
         </is>
       </c>
       <c r="E77" s="12" t="inlineStr">
@@ -2728,28 +2728,28 @@
       </c>
       <c r="G77" s="13" t="inlineStr"/>
       <c r="H77" s="14" t="n">
-        <v>31.72</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 04</t>
         </is>
       </c>
       <c r="B78" s="9" t="inlineStr">
         <is>
-          <t>CND-S2O</t>
+          <t>SAA-DE-20</t>
         </is>
       </c>
       <c r="C78" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D78" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2 Open</t>
+          <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
       <c r="E78" s="9" t="inlineStr">
@@ -2762,7 +2762,7 @@
       </c>
       <c r="G78" s="10" t="inlineStr"/>
       <c r="H78" s="11" t="n">
-        <v>27.6</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="79">
@@ -2773,7 +2773,7 @@
       </c>
       <c r="B79" s="12" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-20-S-X</t>
+          <t>DEG-2-SNA</t>
         </is>
       </c>
       <c r="C79" s="12" t="inlineStr">
@@ -2783,7 +2783,7 @@
       </c>
       <c r="D79" s="12" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,2/0,CU Str,Xfr</t>
+          <t>DEG,#2,Secondary Neutral Al</t>
         </is>
       </c>
       <c r="E79" s="12" t="inlineStr">
@@ -2792,11 +2792,11 @@
         </is>
       </c>
       <c r="F79" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G79" s="13" t="inlineStr"/>
       <c r="H79" s="14" t="n">
-        <v>223</v>
+        <v>858.75</v>
       </c>
     </row>
     <row r="80">
@@ -2807,17 +2807,17 @@
       </c>
       <c r="B80" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>ALT-LED-DD-T5-5L-SF</t>
         </is>
       </c>
       <c r="C80" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D80" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>5200L LED, Type 5, Dusk to Dawn</t>
         </is>
       </c>
       <c r="E80" s="9" t="inlineStr">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="G80" s="10" t="inlineStr"/>
       <c r="H80" s="11" t="n">
-        <v>110.74</v>
+        <v>128.82</v>
       </c>
     </row>
     <row r="81">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="B81" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>BKT-AC18-F</t>
         </is>
       </c>
       <c r="C81" s="12" t="inlineStr">
@@ -2851,7 +2851,7 @@
       </c>
       <c r="D81" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
         </is>
       </c>
       <c r="E81" s="12" t="inlineStr">
@@ -2864,7 +2864,7 @@
       </c>
       <c r="G81" s="13" t="inlineStr"/>
       <c r="H81" s="14" t="n">
-        <v>94.17</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="82">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="B82" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>CND-S2O</t>
         </is>
       </c>
       <c r="C82" s="9" t="inlineStr">
@@ -2885,7 +2885,7 @@
       </c>
       <c r="D82" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>CND,Stirrup #2 Open</t>
         </is>
       </c>
       <c r="E82" s="9" t="inlineStr">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="G82" s="10" t="inlineStr"/>
       <c r="H82" s="11" t="n">
-        <v>94.17</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="83">
@@ -2909,7 +2909,7 @@
       </c>
       <c r="B83" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>EQL-1-4-C-20-S-X</t>
         </is>
       </c>
       <c r="C83" s="12" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="D83" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>EQL,1 Ph,#4,CU Sol,2/0,CU Str,Xfr</t>
         </is>
       </c>
       <c r="E83" s="12" t="inlineStr">
@@ -2932,7 +2932,7 @@
       </c>
       <c r="G83" s="13" t="inlineStr"/>
       <c r="H83" s="14" t="n">
-        <v>478.55</v>
+        <v>223</v>
       </c>
     </row>
     <row r="84">
@@ -2943,7 +2943,7 @@
       </c>
       <c r="B84" s="9" t="inlineStr">
         <is>
-          <t>PLA-CUT</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C84" s="9" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="D84" s="9" t="inlineStr">
         <is>
-          <t>PLA,Cut Off Pole Top</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E84" s="9" t="inlineStr">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="G84" s="10" t="inlineStr"/>
       <c r="H84" s="11" t="n">
-        <v>216.17</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="85">
@@ -2977,7 +2977,7 @@
       </c>
       <c r="B85" s="12" t="inlineStr">
         <is>
-          <t>SAA-DE-20</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C85" s="12" t="inlineStr">
@@ -2987,7 +2987,7 @@
       </c>
       <c r="D85" s="12" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E85" s="12" t="inlineStr">
@@ -2996,11 +2996,11 @@
         </is>
       </c>
       <c r="F85" s="13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G85" s="13" t="inlineStr"/>
       <c r="H85" s="14" t="n">
-        <v>220.72</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="86">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="B86" s="9" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C86" s="9" t="inlineStr">
@@ -3021,7 +3021,7 @@
       </c>
       <c r="D86" s="9" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E86" s="9" t="inlineStr">
@@ -3034,7 +3034,7 @@
       </c>
       <c r="G86" s="10" t="inlineStr"/>
       <c r="H86" s="11" t="n">
-        <v>648.53</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="87">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="B87" s="12" t="inlineStr">
         <is>
-          <t>XCO-15-100-7</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C87" s="12" t="inlineStr">
@@ -3055,7 +3055,7 @@
       </c>
       <c r="D87" s="12" t="inlineStr">
         <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E87" s="12" t="inlineStr">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="G87" s="13" t="inlineStr"/>
       <c r="H87" s="14" t="n">
-        <v>62.42</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="88">
@@ -3079,17 +3079,17 @@
       </c>
       <c r="B88" s="9" t="inlineStr">
         <is>
-          <t>XFR-50-72-120-1B</t>
+          <t>PLA-CUT</t>
         </is>
       </c>
       <c r="C88" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D88" s="9" t="inlineStr">
         <is>
-          <t>XFR,50KVA,7.2/12.4kVY,120/240,1BG</t>
+          <t>PLA,Cut Off Pole Top</t>
         </is>
       </c>
       <c r="E88" s="9" t="inlineStr">
@@ -3102,28 +3102,28 @@
       </c>
       <c r="G88" s="10" t="inlineStr"/>
       <c r="H88" s="11" t="n">
-        <v>203</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="12" t="inlineStr">
         <is>
-          <t>Point 20</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B89" s="12" t="inlineStr">
         <is>
-          <t>BKT-AC18-F</t>
+          <t>SAA-DE-20</t>
         </is>
       </c>
       <c r="C89" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D89" s="12" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+          <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
       <c r="E89" s="12" t="inlineStr">
@@ -3132,32 +3132,32 @@
         </is>
       </c>
       <c r="F89" s="13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G89" s="13" t="inlineStr"/>
       <c r="H89" s="14" t="n">
-        <v>17.37</v>
+        <v>220.72</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="9" t="inlineStr">
         <is>
-          <t>Point 20</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B90" s="9" t="inlineStr">
         <is>
-          <t>CND-S2O</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C90" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D90" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2 Open</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E90" s="9" t="inlineStr">
@@ -3170,28 +3170,28 @@
       </c>
       <c r="G90" s="10" t="inlineStr"/>
       <c r="H90" s="11" t="n">
-        <v>6.17</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="12" t="inlineStr">
         <is>
-          <t>Point 20</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B91" s="12" t="inlineStr">
         <is>
-          <t>DEC-20AL</t>
+          <t>XCO-15-100-7</t>
         </is>
       </c>
       <c r="C91" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D91" s="12" t="inlineStr">
         <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS</t>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
         </is>
       </c>
       <c r="E91" s="12" t="inlineStr">
@@ -3200,32 +3200,32 @@
         </is>
       </c>
       <c r="F91" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G91" s="13" t="inlineStr"/>
       <c r="H91" s="14" t="n">
-        <v>190.3</v>
+        <v>62.42</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="9" t="inlineStr">
         <is>
-          <t>Point 20</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B92" s="9" t="inlineStr">
         <is>
-          <t>DEG-10-SNA</t>
+          <t>XFR-50-72-120-1B</t>
         </is>
       </c>
       <c r="C92" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D92" s="9" t="inlineStr">
         <is>
-          <t>DEG,1/0,Secondary Neutral Al</t>
+          <t>XFR,50KVA,7.2/12.4kVY,120/240,1BG</t>
         </is>
       </c>
       <c r="E92" s="9" t="inlineStr">
@@ -3234,11 +3234,11 @@
         </is>
       </c>
       <c r="F92" s="10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G92" s="10" t="inlineStr"/>
       <c r="H92" s="11" t="n">
-        <v>380.6</v>
+        <v>203</v>
       </c>
     </row>
     <row r="93">
@@ -3249,7 +3249,7 @@
       </c>
       <c r="B93" s="12" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X</t>
+          <t>BKT-AC18-F</t>
         </is>
       </c>
       <c r="C93" s="12" t="inlineStr">
@@ -3259,7 +3259,7 @@
       </c>
       <c r="D93" s="12" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
         </is>
       </c>
       <c r="E93" s="12" t="inlineStr">
@@ -3272,7 +3272,7 @@
       </c>
       <c r="G93" s="13" t="inlineStr"/>
       <c r="H93" s="14" t="n">
-        <v>116</v>
+        <v>17.37</v>
       </c>
     </row>
     <row r="94">
@@ -3283,7 +3283,7 @@
       </c>
       <c r="B94" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>CND-S2O</t>
         </is>
       </c>
       <c r="C94" s="9" t="inlineStr">
@@ -3293,7 +3293,7 @@
       </c>
       <c r="D94" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>CND,Stirrup #2 Open</t>
         </is>
       </c>
       <c r="E94" s="9" t="inlineStr">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="G94" s="10" t="inlineStr"/>
       <c r="H94" s="11" t="n">
-        <v>31.08</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="95">
@@ -3317,7 +3317,7 @@
       </c>
       <c r="B95" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>DEC-20AL</t>
         </is>
       </c>
       <c r="C95" s="12" t="inlineStr">
@@ -3327,7 +3327,7 @@
       </c>
       <c r="D95" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>DEC,#4 - #2/0 AA,AL,AS</t>
         </is>
       </c>
       <c r="E95" s="12" t="inlineStr">
@@ -3336,11 +3336,11 @@
         </is>
       </c>
       <c r="F95" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G95" s="13" t="inlineStr"/>
       <c r="H95" s="14" t="n">
-        <v>31.08</v>
+        <v>190.3</v>
       </c>
     </row>
     <row r="96">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="B96" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>DEG-10-SNA</t>
         </is>
       </c>
       <c r="C96" s="9" t="inlineStr">
@@ -3361,7 +3361,7 @@
       </c>
       <c r="D96" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>DEG,1/0,Secondary Neutral Al</t>
         </is>
       </c>
       <c r="E96" s="9" t="inlineStr">
@@ -3374,7 +3374,7 @@
       </c>
       <c r="G96" s="10" t="inlineStr"/>
       <c r="H96" s="11" t="n">
-        <v>68.8</v>
+        <v>380.6</v>
       </c>
     </row>
     <row r="97">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="B97" s="12" t="inlineStr">
         <is>
-          <t>XCO-15-100-7</t>
+          <t>EQL-1-4-C-2-S-X</t>
         </is>
       </c>
       <c r="C97" s="12" t="inlineStr">
@@ -3395,7 +3395,7 @@
       </c>
       <c r="D97" s="12" t="inlineStr">
         <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
         </is>
       </c>
       <c r="E97" s="12" t="inlineStr">
@@ -3408,28 +3408,28 @@
       </c>
       <c r="G97" s="13" t="inlineStr"/>
       <c r="H97" s="14" t="n">
-        <v>26.52</v>
+        <v>116</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="9" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 20</t>
         </is>
       </c>
       <c r="B98" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C98" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D98" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E98" s="9" t="inlineStr">
@@ -3442,28 +3442,28 @@
       </c>
       <c r="G98" s="10" t="inlineStr"/>
       <c r="H98" s="11" t="n">
-        <v>38.51</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="12" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 20</t>
         </is>
       </c>
       <c r="B99" s="12" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C99" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D99" s="12" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E99" s="12" t="inlineStr">
@@ -3476,28 +3476,28 @@
       </c>
       <c r="G99" s="13" t="inlineStr"/>
       <c r="H99" s="14" t="n">
-        <v>648.53</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="9" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 20</t>
         </is>
       </c>
       <c r="B100" s="9" t="inlineStr">
         <is>
-          <t>CND-S2O</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C100" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D100" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2 Open</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E100" s="9" t="inlineStr">
@@ -3506,32 +3506,32 @@
         </is>
       </c>
       <c r="F100" s="10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G100" s="10" t="inlineStr"/>
       <c r="H100" s="11" t="n">
-        <v>27.6</v>
+        <v>68.8</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="12" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 20</t>
         </is>
       </c>
       <c r="B101" s="12" t="inlineStr">
         <is>
-          <t>DEG-2-SNA</t>
+          <t>XCO-15-100-7</t>
         </is>
       </c>
       <c r="C101" s="12" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D101" s="12" t="inlineStr">
         <is>
-          <t>DEG,#2,Secondary Neutral Al</t>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
         </is>
       </c>
       <c r="E101" s="12" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="G101" s="13" t="inlineStr"/>
       <c r="H101" s="14" t="n">
-        <v>72.64</v>
+        <v>26.52</v>
       </c>
     </row>
     <row r="102">
@@ -3555,17 +3555,17 @@
       </c>
       <c r="B102" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>BKT-AC18-F</t>
         </is>
       </c>
       <c r="C102" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D102" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
         </is>
       </c>
       <c r="E102" s="9" t="inlineStr">
@@ -3578,7 +3578,7 @@
       </c>
       <c r="G102" s="10" t="inlineStr"/>
       <c r="H102" s="11" t="n">
-        <v>110.74</v>
+        <v>38.51</v>
       </c>
     </row>
     <row r="103">
@@ -3589,7 +3589,7 @@
       </c>
       <c r="B103" s="12" t="inlineStr">
         <is>
-          <t>PLA-CUT</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C103" s="12" t="inlineStr">
@@ -3599,7 +3599,7 @@
       </c>
       <c r="D103" s="12" t="inlineStr">
         <is>
-          <t>PLA,Cut Off Pole Top</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E103" s="12" t="inlineStr">
@@ -3612,7 +3612,7 @@
       </c>
       <c r="G103" s="13" t="inlineStr"/>
       <c r="H103" s="14" t="n">
-        <v>216.17</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="104">
@@ -3623,7 +3623,7 @@
       </c>
       <c r="B104" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>CND-S2O</t>
         </is>
       </c>
       <c r="C104" s="9" t="inlineStr">
@@ -3633,7 +3633,7 @@
       </c>
       <c r="D104" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>CND,Stirrup #2 Open</t>
         </is>
       </c>
       <c r="E104" s="9" t="inlineStr">
@@ -3646,7 +3646,7 @@
       </c>
       <c r="G104" s="10" t="inlineStr"/>
       <c r="H104" s="11" t="n">
-        <v>94.17</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="105">
@@ -3657,17 +3657,17 @@
       </c>
       <c r="B105" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>DEG-2-SNA</t>
         </is>
       </c>
       <c r="C105" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D105" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>DEG,#2,Secondary Neutral Al</t>
         </is>
       </c>
       <c r="E105" s="12" t="inlineStr">
@@ -3680,7 +3680,7 @@
       </c>
       <c r="G105" s="13" t="inlineStr"/>
       <c r="H105" s="14" t="n">
-        <v>94.17</v>
+        <v>72.64</v>
       </c>
     </row>
     <row r="106">
@@ -3691,7 +3691,7 @@
       </c>
       <c r="B106" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C106" s="9" t="inlineStr">
@@ -3701,7 +3701,7 @@
       </c>
       <c r="D106" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E106" s="9" t="inlineStr">
@@ -3714,7 +3714,7 @@
       </c>
       <c r="G106" s="10" t="inlineStr"/>
       <c r="H106" s="11" t="n">
-        <v>478.55</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="107">
@@ -3725,7 +3725,7 @@
       </c>
       <c r="B107" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>PLA-CUT</t>
         </is>
       </c>
       <c r="C107" s="12" t="inlineStr">
@@ -3735,7 +3735,7 @@
       </c>
       <c r="D107" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>PLA,Cut Off Pole Top</t>
         </is>
       </c>
       <c r="E107" s="12" t="inlineStr">
@@ -3744,11 +3744,11 @@
         </is>
       </c>
       <c r="F107" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G107" s="13" t="inlineStr"/>
       <c r="H107" s="14" t="n">
-        <v>110.36</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="108">
@@ -3759,7 +3759,7 @@
       </c>
       <c r="B108" s="9" t="inlineStr">
         <is>
-          <t>SAA-DE-20</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C108" s="9" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="D108" s="9" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E108" s="9" t="inlineStr">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="G108" s="10" t="inlineStr"/>
       <c r="H108" s="11" t="n">
-        <v>55.18</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="109">
@@ -3793,7 +3793,7 @@
       </c>
       <c r="B109" s="12" t="inlineStr">
         <is>
-          <t>SVD-3-CV-C</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C109" s="12" t="inlineStr">
@@ -3803,7 +3803,7 @@
       </c>
       <c r="D109" s="12" t="inlineStr">
         <is>
-          <t>SVD,3 inch,Clevis,Corr</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E109" s="12" t="inlineStr">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="G109" s="13" t="inlineStr"/>
       <c r="H109" s="14" t="n">
-        <v>55.18</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="110">
@@ -3827,7 +3827,7 @@
       </c>
       <c r="B110" s="9" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C110" s="9" t="inlineStr">
@@ -3837,7 +3837,7 @@
       </c>
       <c r="D110" s="9" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E110" s="9" t="inlineStr">
@@ -3846,11 +3846,11 @@
         </is>
       </c>
       <c r="F110" s="10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G110" s="10" t="inlineStr"/>
       <c r="H110" s="11" t="n">
-        <v>1145</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="111">
@@ -3861,7 +3861,7 @@
       </c>
       <c r="B111" s="12" t="inlineStr">
         <is>
-          <t>XCO-15-100-7</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C111" s="12" t="inlineStr">
@@ -3871,7 +3871,7 @@
       </c>
       <c r="D111" s="12" t="inlineStr">
         <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E111" s="12" t="inlineStr">
@@ -3880,11 +3880,11 @@
         </is>
       </c>
       <c r="F111" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G111" s="13" t="inlineStr"/>
       <c r="H111" s="14" t="n">
-        <v>62.42</v>
+        <v>110.36</v>
       </c>
     </row>
     <row r="112">
@@ -3895,17 +3895,17 @@
       </c>
       <c r="B112" s="9" t="inlineStr">
         <is>
-          <t>XFR-25-72-120-1B</t>
+          <t>SAA-DE-20</t>
         </is>
       </c>
       <c r="C112" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D112" s="9" t="inlineStr">
         <is>
-          <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG</t>
+          <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
       <c r="E112" s="9" t="inlineStr">
@@ -3918,28 +3918,28 @@
       </c>
       <c r="G112" s="10" t="inlineStr"/>
       <c r="H112" s="11" t="n">
-        <v>203</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="12" t="inlineStr">
         <is>
-          <t>Point 22</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B113" s="12" t="inlineStr">
         <is>
-          <t>BKT-AC18-F</t>
+          <t>SVD-3-CV-C</t>
         </is>
       </c>
       <c r="C113" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D113" s="12" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+          <t>SVD,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E113" s="12" t="inlineStr">
@@ -3952,28 +3952,28 @@
       </c>
       <c r="G113" s="13" t="inlineStr"/>
       <c r="H113" s="14" t="n">
-        <v>17.37</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="9" t="inlineStr">
         <is>
-          <t>Point 22</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B114" s="9" t="inlineStr">
         <is>
-          <t>CND-S2O</t>
+          <t>SVD-SG2</t>
         </is>
       </c>
       <c r="C114" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D114" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2 Open</t>
+          <t>SVD,Service Grip,#2</t>
         </is>
       </c>
       <c r="E114" s="9" t="inlineStr">
@@ -3982,32 +3982,32 @@
         </is>
       </c>
       <c r="F114" s="10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G114" s="10" t="inlineStr"/>
       <c r="H114" s="11" t="n">
-        <v>6.17</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="12" t="inlineStr">
         <is>
-          <t>Point 22</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B115" s="12" t="inlineStr">
         <is>
-          <t>DEG-10-SNA</t>
+          <t>XCO-15-100-7</t>
         </is>
       </c>
       <c r="C115" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D115" s="12" t="inlineStr">
         <is>
-          <t>DEG,1/0,Secondary Neutral Al</t>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
         </is>
       </c>
       <c r="E115" s="12" t="inlineStr">
@@ -4016,32 +4016,32 @@
         </is>
       </c>
       <c r="F115" s="13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G115" s="13" t="inlineStr"/>
       <c r="H115" s="14" t="n">
-        <v>380.6</v>
+        <v>62.42</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="9" t="inlineStr">
         <is>
-          <t>Point 22</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B116" s="9" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X</t>
+          <t>XFR-25-72-120-1B</t>
         </is>
       </c>
       <c r="C116" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D116" s="9" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
+          <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG</t>
         </is>
       </c>
       <c r="E116" s="9" t="inlineStr">
@@ -4054,7 +4054,7 @@
       </c>
       <c r="G116" s="10" t="inlineStr"/>
       <c r="H116" s="11" t="n">
-        <v>116</v>
+        <v>203</v>
       </c>
     </row>
     <row r="117">
@@ -4065,7 +4065,7 @@
       </c>
       <c r="B117" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>BKT-AC18-F</t>
         </is>
       </c>
       <c r="C117" s="12" t="inlineStr">
@@ -4075,7 +4075,7 @@
       </c>
       <c r="D117" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
         </is>
       </c>
       <c r="E117" s="12" t="inlineStr">
@@ -4088,7 +4088,7 @@
       </c>
       <c r="G117" s="13" t="inlineStr"/>
       <c r="H117" s="14" t="n">
-        <v>31.08</v>
+        <v>17.37</v>
       </c>
     </row>
     <row r="118">
@@ -4099,7 +4099,7 @@
       </c>
       <c r="B118" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>CND-S2O</t>
         </is>
       </c>
       <c r="C118" s="9" t="inlineStr">
@@ -4109,7 +4109,7 @@
       </c>
       <c r="D118" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>CND,Stirrup #2 Open</t>
         </is>
       </c>
       <c r="E118" s="9" t="inlineStr">
@@ -4122,7 +4122,7 @@
       </c>
       <c r="G118" s="10" t="inlineStr"/>
       <c r="H118" s="11" t="n">
-        <v>31.08</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="119">
@@ -4133,7 +4133,7 @@
       </c>
       <c r="B119" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>DEG-10-SNA</t>
         </is>
       </c>
       <c r="C119" s="12" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="D119" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>DEG,1/0,Secondary Neutral Al</t>
         </is>
       </c>
       <c r="E119" s="12" t="inlineStr">
@@ -4156,7 +4156,7 @@
       </c>
       <c r="G119" s="13" t="inlineStr"/>
       <c r="H119" s="14" t="n">
-        <v>68.8</v>
+        <v>380.6</v>
       </c>
     </row>
     <row r="120">
@@ -4167,7 +4167,7 @@
       </c>
       <c r="B120" s="9" t="inlineStr">
         <is>
-          <t>XCO-15-100-7</t>
+          <t>EQL-1-4-C-2-S-X</t>
         </is>
       </c>
       <c r="C120" s="9" t="inlineStr">
@@ -4177,7 +4177,7 @@
       </c>
       <c r="D120" s="9" t="inlineStr">
         <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
         </is>
       </c>
       <c r="E120" s="9" t="inlineStr">
@@ -4190,202 +4190,202 @@
       </c>
       <c r="G120" s="10" t="inlineStr"/>
       <c r="H120" s="11" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="12" t="inlineStr">
+        <is>
+          <t>Point 22</t>
+        </is>
+      </c>
+      <c r="B121" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C121" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D121" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E121" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F121" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G121" s="13" t="inlineStr"/>
+      <c r="H121" s="14" t="n">
+        <v>31.08</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="9" t="inlineStr">
+        <is>
+          <t>Point 22</t>
+        </is>
+      </c>
+      <c r="B122" s="9" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-K</t>
+        </is>
+      </c>
+      <c r="C122" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D122" s="9" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Contaminated</t>
+        </is>
+      </c>
+      <c r="E122" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F122" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G122" s="10" t="inlineStr"/>
+      <c r="H122" s="11" t="n">
+        <v>31.08</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="12" t="inlineStr">
+        <is>
+          <t>Point 22</t>
+        </is>
+      </c>
+      <c r="B123" s="12" t="inlineStr">
+        <is>
+          <t>SAA-3-CV</t>
+        </is>
+      </c>
+      <c r="C123" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D123" s="12" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis</t>
+        </is>
+      </c>
+      <c r="E123" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F123" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G123" s="13" t="inlineStr"/>
+      <c r="H123" s="14" t="n">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="9" t="inlineStr">
+        <is>
+          <t>Point 22</t>
+        </is>
+      </c>
+      <c r="B124" s="9" t="inlineStr">
+        <is>
+          <t>XCO-15-100-7</t>
+        </is>
+      </c>
+      <c r="C124" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D124" s="9" t="inlineStr">
+        <is>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+        </is>
+      </c>
+      <c r="E124" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F124" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G124" s="10" t="inlineStr"/>
+      <c r="H124" s="11" t="n">
         <v>26.52</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="15" t="inlineStr">
+    <row r="125">
+      <c r="A125" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H121" s="16" t="n">
-        <v>10957.47</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="7" t="inlineStr">
+      <c r="H125" s="16" t="n">
+        <v>12328.28</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="7" t="inlineStr">
         <is>
           <t>Wednesday (07/30/2025)</t>
         </is>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="8" t="inlineStr">
+    <row r="129">
+      <c r="A129" s="8" t="inlineStr">
         <is>
           <t>Point Number</t>
         </is>
       </c>
-      <c r="B125" s="8" t="inlineStr">
+      <c r="B129" s="8" t="inlineStr">
         <is>
           <t>Billable Unit Code</t>
         </is>
       </c>
-      <c r="C125" s="8" t="inlineStr">
+      <c r="C129" s="8" t="inlineStr">
         <is>
           <t>Work Type</t>
         </is>
       </c>
-      <c r="D125" s="8" t="inlineStr">
+      <c r="D129" s="8" t="inlineStr">
         <is>
           <t>Unit Description</t>
         </is>
       </c>
-      <c r="E125" s="8" t="inlineStr">
+      <c r="E129" s="8" t="inlineStr">
         <is>
           <t>Unit of Measure</t>
         </is>
       </c>
-      <c r="F125" s="8" t="inlineStr">
+      <c r="F129" s="8" t="inlineStr">
         <is>
           <t># Units</t>
         </is>
       </c>
-      <c r="G125" s="8" t="inlineStr">
+      <c r="G129" s="8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H125" s="8" t="inlineStr">
+      <c r="H129" s="8" t="inlineStr">
         <is>
           <t>Pricing</t>
         </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="9" t="inlineStr">
-        <is>
-          <t>Point 01</t>
-        </is>
-      </c>
-      <c r="B126" s="9" t="inlineStr">
-        <is>
-          <t>ALB-W-30-S-1-A</t>
-        </is>
-      </c>
-      <c r="C126" s="9" t="inlineStr">
-        <is>
-          <t>Tran</t>
-        </is>
-      </c>
-      <c r="D126" s="9" t="inlineStr">
-        <is>
-          <t>ALB,Wood,30in,Steel,1P,Area</t>
-        </is>
-      </c>
-      <c r="E126" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F126" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G126" s="10" t="inlineStr"/>
-      <c r="H126" s="11" t="n">
-        <v>118.38</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="12" t="inlineStr">
-        <is>
-          <t>Point 01</t>
-        </is>
-      </c>
-      <c r="B127" s="12" t="inlineStr">
-        <is>
-          <t>ALT-150-SOP</t>
-        </is>
-      </c>
-      <c r="C127" s="12" t="inlineStr">
-        <is>
-          <t>Tran</t>
-        </is>
-      </c>
-      <c r="D127" s="12" t="inlineStr">
-        <is>
-          <t>ALT,100,Sodium,Open,120,SlipFit, pkg</t>
-        </is>
-      </c>
-      <c r="E127" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F127" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G127" s="13" t="inlineStr"/>
-      <c r="H127" s="14" t="n">
-        <v>128.82</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="9" t="inlineStr">
-        <is>
-          <t>Point 01</t>
-        </is>
-      </c>
-      <c r="B128" s="9" t="inlineStr">
-        <is>
-          <t>ANC-DHM-10-84-D1</t>
-        </is>
-      </c>
-      <c r="C128" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D128" s="9" t="inlineStr">
-        <is>
-          <t>ANC,Dbl Hlx Mach,10in,84in,Db Eye 1in</t>
-        </is>
-      </c>
-      <c r="E128" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F128" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G128" s="10" t="inlineStr"/>
-      <c r="H128" s="11" t="n">
-        <v>217.53</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="12" t="inlineStr">
-        <is>
-          <t>Point 01</t>
-        </is>
-      </c>
-      <c r="B129" s="12" t="inlineStr">
-        <is>
-          <t>CNC-SNB-40</t>
-        </is>
-      </c>
-      <c r="C129" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D129" s="12" t="inlineStr">
-        <is>
-          <t>CNC,Splice Non-Tension Bare,#1/0-#4/0</t>
-        </is>
-      </c>
-      <c r="E129" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F129" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G129" s="13" t="inlineStr"/>
-      <c r="H129" s="14" t="n">
-        <v>40.58</v>
       </c>
     </row>
     <row r="130">
@@ -4396,17 +4396,17 @@
       </c>
       <c r="B130" s="9" t="inlineStr">
         <is>
-          <t>DEC-20AL</t>
+          <t>SVC-2-TP-ALA-RS</t>
         </is>
       </c>
       <c r="C130" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Trans</t>
         </is>
       </c>
       <c r="D130" s="9" t="inlineStr">
         <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS</t>
+          <t>SVC,#2 AWG,Trip,Alum/Aly Neut,Res</t>
         </is>
       </c>
       <c r="E130" s="9" t="inlineStr">
@@ -4419,7 +4419,7 @@
       </c>
       <c r="G130" s="10" t="inlineStr"/>
       <c r="H130" s="11" t="n">
-        <v>286.25</v>
+        <v>195.83</v>
       </c>
     </row>
     <row r="131">
@@ -4430,17 +4430,17 @@
       </c>
       <c r="B131" s="12" t="inlineStr">
         <is>
-          <t>DEG-10-SPA</t>
+          <t>ALB-W-30-S-1-A</t>
         </is>
       </c>
       <c r="C131" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D131" s="12" t="inlineStr">
         <is>
-          <t>DEG,1/0,Slack Span Alum</t>
+          <t>ALB,Wood,30in,Steel,1P,Area</t>
         </is>
       </c>
       <c r="E131" s="12" t="inlineStr">
@@ -4453,7 +4453,7 @@
       </c>
       <c r="G131" s="13" t="inlineStr"/>
       <c r="H131" s="14" t="n">
-        <v>286.25</v>
+        <v>118.38</v>
       </c>
     </row>
     <row r="132">
@@ -4464,17 +4464,17 @@
       </c>
       <c r="B132" s="9" t="inlineStr">
         <is>
-          <t>DEG-10-SPAJ</t>
+          <t>ALT-150-SOP</t>
         </is>
       </c>
       <c r="C132" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D132" s="9" t="inlineStr">
         <is>
-          <t>DEG, 1/0,Slack Span Alum for J-Neck Ins</t>
+          <t>ALT,100,Sodium,Open,120,SlipFit, pkg</t>
         </is>
       </c>
       <c r="E132" s="9" t="inlineStr">
@@ -4487,7 +4487,7 @@
       </c>
       <c r="G132" s="10" t="inlineStr"/>
       <c r="H132" s="11" t="n">
-        <v>286.25</v>
+        <v>128.82</v>
       </c>
     </row>
     <row r="133">
@@ -4498,7 +4498,7 @@
       </c>
       <c r="B133" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>ANC-DHM-10-84-D1</t>
         </is>
       </c>
       <c r="C133" s="12" t="inlineStr">
@@ -4508,7 +4508,7 @@
       </c>
       <c r="D133" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>ANC,Dbl Hlx Mach,10in,84in,Db Eye 1in</t>
         </is>
       </c>
       <c r="E133" s="12" t="inlineStr">
@@ -4521,7 +4521,7 @@
       </c>
       <c r="G133" s="13" t="inlineStr"/>
       <c r="H133" s="14" t="n">
-        <v>110.74</v>
+        <v>217.53</v>
       </c>
     </row>
     <row r="134">
@@ -4532,7 +4532,7 @@
       </c>
       <c r="B134" s="9" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP</t>
+          <t>CNC-SNB-40</t>
         </is>
       </c>
       <c r="C134" s="9" t="inlineStr">
@@ -4542,7 +4542,7 @@
       </c>
       <c r="D134" s="9" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
+          <t>CNC,Splice Non-Tension Bare,#1/0-#4/0</t>
         </is>
       </c>
       <c r="E134" s="9" t="inlineStr">
@@ -4551,11 +4551,11 @@
         </is>
       </c>
       <c r="F134" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G134" s="10" t="inlineStr"/>
       <c r="H134" s="11" t="n">
-        <v>79.34999999999999</v>
+        <v>40.58</v>
       </c>
     </row>
     <row r="135">
@@ -4566,7 +4566,7 @@
       </c>
       <c r="B135" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>DEC-20AL</t>
         </is>
       </c>
       <c r="C135" s="12" t="inlineStr">
@@ -4576,7 +4576,7 @@
       </c>
       <c r="D135" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>DEC,#4 - #2/0 AA,AL,AS</t>
         </is>
       </c>
       <c r="E135" s="12" t="inlineStr">
@@ -4589,7 +4589,7 @@
       </c>
       <c r="G135" s="13" t="inlineStr"/>
       <c r="H135" s="14" t="n">
-        <v>94.17</v>
+        <v>286.25</v>
       </c>
     </row>
     <row r="136">
@@ -4600,17 +4600,17 @@
       </c>
       <c r="B136" s="9" t="inlineStr">
         <is>
-          <t>PLA-CUT</t>
+          <t>DEG-10-SPA</t>
         </is>
       </c>
       <c r="C136" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D136" s="9" t="inlineStr">
         <is>
-          <t>PLA,Cut Off Pole Top</t>
+          <t>DEG,1/0,Slack Span Alum</t>
         </is>
       </c>
       <c r="E136" s="9" t="inlineStr">
@@ -4619,11 +4619,11 @@
         </is>
       </c>
       <c r="F136" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G136" s="10" t="inlineStr"/>
       <c r="H136" s="11" t="n">
-        <v>216.17</v>
+        <v>572.5</v>
       </c>
     </row>
     <row r="137">
@@ -4634,7 +4634,7 @@
       </c>
       <c r="B137" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>DEG-10-SPAJ</t>
         </is>
       </c>
       <c r="C137" s="12" t="inlineStr">
@@ -4644,7 +4644,7 @@
       </c>
       <c r="D137" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>DEG, 1/0,Slack Span Alum for J-Neck Ins</t>
         </is>
       </c>
       <c r="E137" s="12" t="inlineStr">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="G137" s="13" t="inlineStr"/>
       <c r="H137" s="14" t="n">
-        <v>478.55</v>
+        <v>286.25</v>
       </c>
     </row>
     <row r="138">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="B138" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C138" s="9" t="inlineStr">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="D138" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E138" s="9" t="inlineStr">
@@ -4691,7 +4691,7 @@
       </c>
       <c r="G138" s="10" t="inlineStr"/>
       <c r="H138" s="11" t="n">
-        <v>55.18</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="139">
@@ -4702,7 +4702,7 @@
       </c>
       <c r="B139" s="12" t="inlineStr">
         <is>
-          <t>SAA-DE-20</t>
+          <t>GYF-38-D-78P-EP</t>
         </is>
       </c>
       <c r="C139" s="12" t="inlineStr">
@@ -4712,7 +4712,7 @@
       </c>
       <c r="D139" s="12" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0</t>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
         </is>
       </c>
       <c r="E139" s="12" t="inlineStr">
@@ -4725,62 +4725,62 @@
       </c>
       <c r="G139" s="13" t="inlineStr"/>
       <c r="H139" s="14" t="n">
-        <v>110.36</v>
+        <v>158.7</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="9" t="inlineStr">
         <is>
-          <t>Point 02</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B140" s="9" t="inlineStr">
         <is>
-          <t>CON-2-AAA-1-B-REEL</t>
+          <t>CNC-HTA-10</t>
         </is>
       </c>
       <c r="C140" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D140" s="9" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+          <t>Compression connector H-Tap Assembly 1/0</t>
         </is>
       </c>
       <c r="E140" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F140" s="10" t="n">
-        <v>442</v>
+        <v>5</v>
       </c>
       <c r="G140" s="10" t="inlineStr"/>
       <c r="H140" s="11" t="n">
-        <v>411.06</v>
+        <v>47.85</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="12" t="inlineStr">
         <is>
-          <t>Point 02</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B141" s="12" t="inlineStr">
         <is>
-          <t>DEG-4-SPA</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C141" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D141" s="12" t="inlineStr">
         <is>
-          <t>DEG,#4,Slack Span Alum</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E141" s="12" t="inlineStr">
@@ -4793,18 +4793,18 @@
       </c>
       <c r="G141" s="13" t="inlineStr"/>
       <c r="H141" s="14" t="n">
-        <v>95.15000000000001</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="9" t="inlineStr">
         <is>
-          <t>Point 02</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B142" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PLA-CUT</t>
         </is>
       </c>
       <c r="C142" s="9" t="inlineStr">
@@ -4814,7 +4814,7 @@
       </c>
       <c r="D142" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>PLA,Cut Off Pole Top</t>
         </is>
       </c>
       <c r="E142" s="9" t="inlineStr">
@@ -4827,28 +4827,28 @@
       </c>
       <c r="G142" s="10" t="inlineStr"/>
       <c r="H142" s="11" t="n">
-        <v>31.08</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="12" t="inlineStr">
         <is>
-          <t>Point 02</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B143" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C143" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D143" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E143" s="12" t="inlineStr">
@@ -4861,28 +4861,28 @@
       </c>
       <c r="G143" s="13" t="inlineStr"/>
       <c r="H143" s="14" t="n">
-        <v>31.08</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="9" t="inlineStr">
         <is>
-          <t>Point 02</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B144" s="9" t="inlineStr">
         <is>
-          <t>POL-40-5</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C144" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D144" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 5</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E144" s="9" t="inlineStr">
@@ -4895,28 +4895,28 @@
       </c>
       <c r="G144" s="10" t="inlineStr"/>
       <c r="H144" s="11" t="n">
-        <v>198.88</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="12" t="inlineStr">
         <is>
-          <t>Point 02</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B145" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>SAA-DE-20</t>
         </is>
       </c>
       <c r="C145" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D145" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
       <c r="E145" s="12" t="inlineStr">
@@ -4925,11 +4925,11 @@
         </is>
       </c>
       <c r="F145" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G145" s="13" t="inlineStr"/>
       <c r="H145" s="14" t="n">
-        <v>17.2</v>
+        <v>110.36</v>
       </c>
     </row>
     <row r="146">
@@ -4940,7 +4940,7 @@
       </c>
       <c r="B146" s="9" t="inlineStr">
         <is>
-          <t>SAA-DE-20</t>
+          <t>DEG-4-SPA</t>
         </is>
       </c>
       <c r="C146" s="9" t="inlineStr">
@@ -4950,7 +4950,7 @@
       </c>
       <c r="D146" s="9" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0</t>
+          <t>DEG,#4,Slack Span Alum</t>
         </is>
       </c>
       <c r="E146" s="9" t="inlineStr">
@@ -4959,32 +4959,32 @@
         </is>
       </c>
       <c r="F146" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G146" s="10" t="inlineStr"/>
       <c r="H146" s="11" t="n">
-        <v>34.4</v>
+        <v>95.15000000000001</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="12" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B147" s="12" t="inlineStr">
         <is>
-          <t>ALB-W-30-S-1-A</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C147" s="12" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D147" s="12" t="inlineStr">
         <is>
-          <t>ALB,Wood,30in,Steel,1P,Area</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E147" s="12" t="inlineStr">
@@ -4997,28 +4997,28 @@
       </c>
       <c r="G147" s="13" t="inlineStr"/>
       <c r="H147" s="14" t="n">
-        <v>118.38</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="9" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B148" s="9" t="inlineStr">
         <is>
-          <t>ALT-LED-DD-T5-5L-SF</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C148" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D148" s="9" t="inlineStr">
         <is>
-          <t>5200L LED, Type 5, Dusk to Dawn</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E148" s="9" t="inlineStr">
@@ -5031,28 +5031,28 @@
       </c>
       <c r="G148" s="10" t="inlineStr"/>
       <c r="H148" s="11" t="n">
-        <v>128.82</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="12" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B149" s="12" t="inlineStr">
         <is>
-          <t>ANC-DHM-10-84-D1</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C149" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D149" s="12" t="inlineStr">
         <is>
-          <t>ANC,Dbl Hlx Mach,10in,84in,Db Eye 1in</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E149" s="12" t="inlineStr">
@@ -5065,28 +5065,28 @@
       </c>
       <c r="G149" s="13" t="inlineStr"/>
       <c r="H149" s="14" t="n">
-        <v>217.53</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="9" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B150" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F</t>
+          <t>SAA-DE-20</t>
         </is>
       </c>
       <c r="C150" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D150" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+          <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
       <c r="E150" s="9" t="inlineStr">
@@ -5095,11 +5095,11 @@
         </is>
       </c>
       <c r="F150" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G150" s="10" t="inlineStr"/>
       <c r="H150" s="11" t="n">
-        <v>31.72</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="151">
@@ -5110,17 +5110,17 @@
       </c>
       <c r="B151" s="12" t="inlineStr">
         <is>
-          <t>CNC-SNB-40</t>
+          <t>ALB-W-30-S-1-A</t>
         </is>
       </c>
       <c r="C151" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D151" s="12" t="inlineStr">
         <is>
-          <t>CNC,Splice Non-Tension Bare,#1/0-#4/0</t>
+          <t>ALB,Wood,30in,Steel,1P,Area</t>
         </is>
       </c>
       <c r="E151" s="12" t="inlineStr">
@@ -5129,11 +5129,11 @@
         </is>
       </c>
       <c r="F151" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G151" s="13" t="inlineStr"/>
       <c r="H151" s="14" t="n">
-        <v>40.58</v>
+        <v>118.38</v>
       </c>
     </row>
     <row r="152">
@@ -5144,17 +5144,17 @@
       </c>
       <c r="B152" s="9" t="inlineStr">
         <is>
-          <t>CND-S2O</t>
+          <t>ALT-LED-DD-T5-5L-SF</t>
         </is>
       </c>
       <c r="C152" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D152" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2 Open</t>
+          <t>5200L LED, Type 5, Dusk to Dawn</t>
         </is>
       </c>
       <c r="E152" s="9" t="inlineStr">
@@ -5167,7 +5167,7 @@
       </c>
       <c r="G152" s="10" t="inlineStr"/>
       <c r="H152" s="11" t="n">
-        <v>27.6</v>
+        <v>128.82</v>
       </c>
     </row>
     <row r="153">
@@ -5178,7 +5178,7 @@
       </c>
       <c r="B153" s="12" t="inlineStr">
         <is>
-          <t>DEC-20AL</t>
+          <t>CNC-HTA-10</t>
         </is>
       </c>
       <c r="C153" s="12" t="inlineStr">
@@ -5188,7 +5188,7 @@
       </c>
       <c r="D153" s="12" t="inlineStr">
         <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS</t>
+          <t>Compression connector H-Tap Assembly 1/0</t>
         </is>
       </c>
       <c r="E153" s="12" t="inlineStr">
@@ -5197,11 +5197,11 @@
         </is>
       </c>
       <c r="F153" s="13" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G153" s="13" t="inlineStr"/>
       <c r="H153" s="14" t="n">
-        <v>286.25</v>
+        <v>124.41</v>
       </c>
     </row>
     <row r="154">
@@ -5212,7 +5212,7 @@
       </c>
       <c r="B154" s="9" t="inlineStr">
         <is>
-          <t>DEG-10-SPA</t>
+          <t>BKT-AC18-F</t>
         </is>
       </c>
       <c r="C154" s="9" t="inlineStr">
@@ -5222,7 +5222,7 @@
       </c>
       <c r="D154" s="9" t="inlineStr">
         <is>
-          <t>DEG,1/0,Slack Span Alum</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
         </is>
       </c>
       <c r="E154" s="9" t="inlineStr">
@@ -5235,7 +5235,7 @@
       </c>
       <c r="G154" s="10" t="inlineStr"/>
       <c r="H154" s="11" t="n">
-        <v>286.25</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="155">
@@ -5246,7 +5246,7 @@
       </c>
       <c r="B155" s="12" t="inlineStr">
         <is>
-          <t>DEG-10-SPAJ</t>
+          <t>CNC-SNB-40</t>
         </is>
       </c>
       <c r="C155" s="12" t="inlineStr">
@@ -5256,7 +5256,7 @@
       </c>
       <c r="D155" s="12" t="inlineStr">
         <is>
-          <t>DEG, 1/0,Slack Span Alum for J-Neck Ins</t>
+          <t>CNC,Splice Non-Tension Bare,#1/0-#4/0</t>
         </is>
       </c>
       <c r="E155" s="12" t="inlineStr">
@@ -5265,11 +5265,11 @@
         </is>
       </c>
       <c r="F155" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G155" s="13" t="inlineStr"/>
       <c r="H155" s="14" t="n">
-        <v>286.25</v>
+        <v>40.58</v>
       </c>
     </row>
     <row r="156">
@@ -5280,7 +5280,7 @@
       </c>
       <c r="B156" s="9" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X</t>
+          <t>CND-S2O</t>
         </is>
       </c>
       <c r="C156" s="9" t="inlineStr">
@@ -5290,7 +5290,7 @@
       </c>
       <c r="D156" s="9" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
+          <t>CND,Stirrup #2 Open</t>
         </is>
       </c>
       <c r="E156" s="9" t="inlineStr">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="G156" s="10" t="inlineStr"/>
       <c r="H156" s="11" t="n">
-        <v>223</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="157">
@@ -5314,7 +5314,7 @@
       </c>
       <c r="B157" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>DEC-20AL</t>
         </is>
       </c>
       <c r="C157" s="12" t="inlineStr">
@@ -5324,7 +5324,7 @@
       </c>
       <c r="D157" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>DEC,#4 - #2/0 AA,AL,AS</t>
         </is>
       </c>
       <c r="E157" s="12" t="inlineStr">
@@ -5337,7 +5337,7 @@
       </c>
       <c r="G157" s="13" t="inlineStr"/>
       <c r="H157" s="14" t="n">
-        <v>110.74</v>
+        <v>286.25</v>
       </c>
     </row>
     <row r="158">
@@ -5348,7 +5348,7 @@
       </c>
       <c r="B158" s="9" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP</t>
+          <t>DEG-10-SPA</t>
         </is>
       </c>
       <c r="C158" s="9" t="inlineStr">
@@ -5358,7 +5358,7 @@
       </c>
       <c r="D158" s="9" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
+          <t>DEG,1/0,Slack Span Alum</t>
         </is>
       </c>
       <c r="E158" s="9" t="inlineStr">
@@ -5371,7 +5371,7 @@
       </c>
       <c r="G158" s="10" t="inlineStr"/>
       <c r="H158" s="11" t="n">
-        <v>79.34999999999999</v>
+        <v>286.25</v>
       </c>
     </row>
     <row r="159">
@@ -5382,7 +5382,7 @@
       </c>
       <c r="B159" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>DEG-10-SPAJ</t>
         </is>
       </c>
       <c r="C159" s="12" t="inlineStr">
@@ -5392,7 +5392,7 @@
       </c>
       <c r="D159" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>DEG, 1/0,Slack Span Alum for J-Neck Ins</t>
         </is>
       </c>
       <c r="E159" s="12" t="inlineStr">
@@ -5401,11 +5401,11 @@
         </is>
       </c>
       <c r="F159" s="13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G159" s="13" t="inlineStr"/>
       <c r="H159" s="14" t="n">
-        <v>94.17</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="160">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B160" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>EQL-1-4-C-2-S-X</t>
         </is>
       </c>
       <c r="C160" s="9" t="inlineStr">
@@ -5426,7 +5426,7 @@
       </c>
       <c r="D160" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
         </is>
       </c>
       <c r="E160" s="9" t="inlineStr">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="G160" s="10" t="inlineStr"/>
       <c r="H160" s="11" t="n">
-        <v>94.17</v>
+        <v>223</v>
       </c>
     </row>
     <row r="161">
@@ -5450,7 +5450,7 @@
       </c>
       <c r="B161" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C161" s="12" t="inlineStr">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="D161" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E161" s="12" t="inlineStr">
@@ -5473,7 +5473,7 @@
       </c>
       <c r="G161" s="13" t="inlineStr"/>
       <c r="H161" s="14" t="n">
-        <v>478.55</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="162">
@@ -5484,7 +5484,7 @@
       </c>
       <c r="B162" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>GYF-38-D-78P-EP</t>
         </is>
       </c>
       <c r="C162" s="9" t="inlineStr">
@@ -5494,7 +5494,7 @@
       </c>
       <c r="D162" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
         </is>
       </c>
       <c r="E162" s="9" t="inlineStr">
@@ -5507,7 +5507,7 @@
       </c>
       <c r="G162" s="10" t="inlineStr"/>
       <c r="H162" s="11" t="n">
-        <v>55.18</v>
+        <v>79.34999999999999</v>
       </c>
     </row>
     <row r="163">
@@ -5518,7 +5518,7 @@
       </c>
       <c r="B163" s="12" t="inlineStr">
         <is>
-          <t>SAA-DE-20</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C163" s="12" t="inlineStr">
@@ -5528,7 +5528,7 @@
       </c>
       <c r="D163" s="12" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E163" s="12" t="inlineStr">
@@ -5537,11 +5537,11 @@
         </is>
       </c>
       <c r="F163" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G163" s="13" t="inlineStr"/>
       <c r="H163" s="14" t="n">
-        <v>110.36</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="164">
@@ -5552,17 +5552,17 @@
       </c>
       <c r="B164" s="9" t="inlineStr">
         <is>
-          <t>SVC-2-TP-ALA-RS</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C164" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D164" s="9" t="inlineStr">
         <is>
-          <t>SVC,#2 AWG,Trip,Alum/Aly Neut,Res</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E164" s="9" t="inlineStr">
@@ -5571,11 +5571,11 @@
         </is>
       </c>
       <c r="F164" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G164" s="10" t="inlineStr"/>
       <c r="H164" s="11" t="n">
-        <v>391.66</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="165">
@@ -5586,7 +5586,7 @@
       </c>
       <c r="B165" s="12" t="inlineStr">
         <is>
-          <t>PLA-CUT</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C165" s="12" t="inlineStr">
@@ -5596,7 +5596,7 @@
       </c>
       <c r="D165" s="12" t="inlineStr">
         <is>
-          <t>PLA,Cut Off Pole Top</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E165" s="12" t="inlineStr">
@@ -5609,7 +5609,7 @@
       </c>
       <c r="G165" s="13" t="inlineStr"/>
       <c r="H165" s="14" t="n">
-        <v>216.17</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="166">
@@ -5620,7 +5620,7 @@
       </c>
       <c r="B166" s="9" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C166" s="9" t="inlineStr">
@@ -5630,7 +5630,7 @@
       </c>
       <c r="D166" s="9" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E166" s="9" t="inlineStr">
@@ -5639,11 +5639,11 @@
         </is>
       </c>
       <c r="F166" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G166" s="10" t="inlineStr"/>
       <c r="H166" s="11" t="n">
-        <v>1297.06</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="167">
@@ -5654,7 +5654,7 @@
       </c>
       <c r="B167" s="12" t="inlineStr">
         <is>
-          <t>XCO-15-100-7</t>
+          <t>SAA-DE-20</t>
         </is>
       </c>
       <c r="C167" s="12" t="inlineStr">
@@ -5664,7 +5664,7 @@
       </c>
       <c r="D167" s="12" t="inlineStr">
         <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+          <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
       <c r="E167" s="12" t="inlineStr">
@@ -5673,11 +5673,11 @@
         </is>
       </c>
       <c r="F167" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G167" s="13" t="inlineStr"/>
       <c r="H167" s="14" t="n">
-        <v>62.42</v>
+        <v>110.36</v>
       </c>
     </row>
     <row r="168">
@@ -5688,7 +5688,7 @@
       </c>
       <c r="B168" s="9" t="inlineStr">
         <is>
-          <t>XFR-25-72-120-1B</t>
+          <t>SVC-2-TP-ALA-RS</t>
         </is>
       </c>
       <c r="C168" s="9" t="inlineStr">
@@ -5698,7 +5698,7 @@
       </c>
       <c r="D168" s="9" t="inlineStr">
         <is>
-          <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG</t>
+          <t>SVC,#2 AWG,Trip,Alum/Aly Neut,Res</t>
         </is>
       </c>
       <c r="E168" s="9" t="inlineStr">
@@ -5707,32 +5707,32 @@
         </is>
       </c>
       <c r="F168" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G168" s="10" t="inlineStr"/>
       <c r="H168" s="11" t="n">
-        <v>203</v>
+        <v>391.66</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="12" t="inlineStr">
         <is>
-          <t>Point 06</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B169" s="12" t="inlineStr">
         <is>
-          <t>ANC-DHM-10-84-D1</t>
+          <t>PLA-CUT</t>
         </is>
       </c>
       <c r="C169" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D169" s="12" t="inlineStr">
         <is>
-          <t>ANC,Dbl Hlx Mach,10in,84in,Db Eye 1in</t>
+          <t>PLA,Cut Off Pole Top</t>
         </is>
       </c>
       <c r="E169" s="12" t="inlineStr">
@@ -5745,28 +5745,28 @@
       </c>
       <c r="G169" s="13" t="inlineStr"/>
       <c r="H169" s="14" t="n">
-        <v>28.6</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="9" t="inlineStr">
         <is>
-          <t>Point 06</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B170" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C170" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D170" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E170" s="9" t="inlineStr">
@@ -5775,32 +5775,32 @@
         </is>
       </c>
       <c r="F170" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G170" s="10" t="inlineStr"/>
       <c r="H170" s="11" t="n">
-        <v>17.37</v>
+        <v>1297.06</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="12" t="inlineStr">
         <is>
-          <t>Point 06</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B171" s="12" t="inlineStr">
         <is>
-          <t>CND-S2O</t>
+          <t>XCO-15-100-7</t>
         </is>
       </c>
       <c r="C171" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D171" s="12" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2 Open</t>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
         </is>
       </c>
       <c r="E171" s="12" t="inlineStr">
@@ -5813,41 +5813,41 @@
       </c>
       <c r="G171" s="13" t="inlineStr"/>
       <c r="H171" s="14" t="n">
-        <v>6.17</v>
+        <v>62.42</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="9" t="inlineStr">
         <is>
-          <t>Point 06</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B172" s="9" t="inlineStr">
         <is>
-          <t>CON-2-AAA-1-B-REEL</t>
+          <t>XFR-25-72-120-1B</t>
         </is>
       </c>
       <c r="C172" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D172" s="9" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+          <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG</t>
         </is>
       </c>
       <c r="E172" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F172" s="10" t="n">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="G172" s="10" t="inlineStr"/>
       <c r="H172" s="11" t="n">
-        <v>66.95999999999999</v>
+        <v>203</v>
       </c>
     </row>
     <row r="173">
@@ -5858,7 +5858,7 @@
       </c>
       <c r="B173" s="12" t="inlineStr">
         <is>
-          <t>DEC-20AL</t>
+          <t>ANC-DHM-10-84-D1</t>
         </is>
       </c>
       <c r="C173" s="12" t="inlineStr">
@@ -5868,7 +5868,7 @@
       </c>
       <c r="D173" s="12" t="inlineStr">
         <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS</t>
+          <t>ANC,Dbl Hlx Mach,10in,84in,Db Eye 1in</t>
         </is>
       </c>
       <c r="E173" s="12" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="G173" s="13" t="inlineStr"/>
       <c r="H173" s="14" t="n">
-        <v>95.15000000000001</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="174">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="B174" s="9" t="inlineStr">
         <is>
-          <t>DEG-2-SPAJ</t>
+          <t>BKT-AC18-F</t>
         </is>
       </c>
       <c r="C174" s="9" t="inlineStr">
@@ -5902,7 +5902,7 @@
       </c>
       <c r="D174" s="9" t="inlineStr">
         <is>
-          <t>DEG,#2,Slack span Alum for J-neck</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
         </is>
       </c>
       <c r="E174" s="9" t="inlineStr">
@@ -5915,7 +5915,7 @@
       </c>
       <c r="G174" s="10" t="inlineStr"/>
       <c r="H174" s="11" t="n">
-        <v>95.15000000000001</v>
+        <v>17.37</v>
       </c>
     </row>
     <row r="175">
@@ -5926,7 +5926,7 @@
       </c>
       <c r="B175" s="12" t="inlineStr">
         <is>
-          <t>DEG-4-SPA</t>
+          <t>CND-S2O</t>
         </is>
       </c>
       <c r="C175" s="12" t="inlineStr">
@@ -5936,7 +5936,7 @@
       </c>
       <c r="D175" s="12" t="inlineStr">
         <is>
-          <t>DEG,#4,Slack Span Alum</t>
+          <t>CND,Stirrup #2 Open</t>
         </is>
       </c>
       <c r="E175" s="12" t="inlineStr">
@@ -5949,7 +5949,7 @@
       </c>
       <c r="G175" s="13" t="inlineStr"/>
       <c r="H175" s="14" t="n">
-        <v>95.15000000000001</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="176">
@@ -5960,7 +5960,7 @@
       </c>
       <c r="B176" s="9" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X</t>
+          <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C176" s="9" t="inlineStr">
@@ -5970,20 +5970,20 @@
       </c>
       <c r="D176" s="9" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
       <c r="E176" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F176" s="10" t="n">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="G176" s="10" t="inlineStr"/>
       <c r="H176" s="11" t="n">
-        <v>116</v>
+        <v>66.95999999999999</v>
       </c>
     </row>
     <row r="177">
@@ -5994,7 +5994,7 @@
       </c>
       <c r="B177" s="12" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP</t>
+          <t>DEC-20AL</t>
         </is>
       </c>
       <c r="C177" s="12" t="inlineStr">
@@ -6004,7 +6004,7 @@
       </c>
       <c r="D177" s="12" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
+          <t>DEC,#4 - #2/0 AA,AL,AS</t>
         </is>
       </c>
       <c r="E177" s="12" t="inlineStr">
@@ -6017,7 +6017,7 @@
       </c>
       <c r="G177" s="13" t="inlineStr"/>
       <c r="H177" s="14" t="n">
-        <v>35.58</v>
+        <v>95.15000000000001</v>
       </c>
     </row>
     <row r="178">
@@ -6028,7 +6028,7 @@
       </c>
       <c r="B178" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>DEG-2-SPAJ</t>
         </is>
       </c>
       <c r="C178" s="9" t="inlineStr">
@@ -6038,7 +6038,7 @@
       </c>
       <c r="D178" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>DEG,#2,Slack span Alum for J-neck</t>
         </is>
       </c>
       <c r="E178" s="9" t="inlineStr">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="G178" s="10" t="inlineStr"/>
       <c r="H178" s="11" t="n">
-        <v>31.08</v>
+        <v>95.15000000000001</v>
       </c>
     </row>
     <row r="179">
@@ -6062,7 +6062,7 @@
       </c>
       <c r="B179" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>DEG-4-SPA</t>
         </is>
       </c>
       <c r="C179" s="12" t="inlineStr">
@@ -6072,7 +6072,7 @@
       </c>
       <c r="D179" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>DEG,#4,Slack Span Alum</t>
         </is>
       </c>
       <c r="E179" s="12" t="inlineStr">
@@ -6085,7 +6085,7 @@
       </c>
       <c r="G179" s="13" t="inlineStr"/>
       <c r="H179" s="14" t="n">
-        <v>31.08</v>
+        <v>95.15000000000001</v>
       </c>
     </row>
     <row r="180">
@@ -6096,7 +6096,7 @@
       </c>
       <c r="B180" s="9" t="inlineStr">
         <is>
-          <t>POL-40-5</t>
+          <t>EQL-1-4-C-2-S-X</t>
         </is>
       </c>
       <c r="C180" s="9" t="inlineStr">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="D180" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 5</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
         </is>
       </c>
       <c r="E180" s="9" t="inlineStr">
@@ -6119,7 +6119,7 @@
       </c>
       <c r="G180" s="10" t="inlineStr"/>
       <c r="H180" s="11" t="n">
-        <v>198.88</v>
+        <v>116</v>
       </c>
     </row>
     <row r="181">
@@ -6130,7 +6130,7 @@
       </c>
       <c r="B181" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>GYF-38-D-78P-EP</t>
         </is>
       </c>
       <c r="C181" s="12" t="inlineStr">
@@ -6140,7 +6140,7 @@
       </c>
       <c r="D181" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
         </is>
       </c>
       <c r="E181" s="12" t="inlineStr">
@@ -6153,7 +6153,7 @@
       </c>
       <c r="G181" s="13" t="inlineStr"/>
       <c r="H181" s="14" t="n">
-        <v>17.2</v>
+        <v>35.58</v>
       </c>
     </row>
     <row r="182">
@@ -6164,7 +6164,7 @@
       </c>
       <c r="B182" s="9" t="inlineStr">
         <is>
-          <t>SAA-DE-20</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C182" s="9" t="inlineStr">
@@ -6174,7 +6174,7 @@
       </c>
       <c r="D182" s="9" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E182" s="9" t="inlineStr">
@@ -6187,7 +6187,7 @@
       </c>
       <c r="G182" s="10" t="inlineStr"/>
       <c r="H182" s="11" t="n">
-        <v>17.2</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="183">
@@ -6198,7 +6198,7 @@
       </c>
       <c r="B183" s="12" t="inlineStr">
         <is>
-          <t>XCO-15-100-7</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C183" s="12" t="inlineStr">
@@ -6208,7 +6208,7 @@
       </c>
       <c r="D183" s="12" t="inlineStr">
         <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E183" s="12" t="inlineStr">
@@ -6221,36 +6221,138 @@
       </c>
       <c r="G183" s="13" t="inlineStr"/>
       <c r="H183" s="14" t="n">
+        <v>31.08</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="9" t="inlineStr">
+        <is>
+          <t>Point 06</t>
+        </is>
+      </c>
+      <c r="B184" s="9" t="inlineStr">
+        <is>
+          <t>SAA-3-CV</t>
+        </is>
+      </c>
+      <c r="C184" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D184" s="9" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis</t>
+        </is>
+      </c>
+      <c r="E184" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F184" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G184" s="10" t="inlineStr"/>
+      <c r="H184" s="11" t="n">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="12" t="inlineStr">
+        <is>
+          <t>Point 06</t>
+        </is>
+      </c>
+      <c r="B185" s="12" t="inlineStr">
+        <is>
+          <t>SAA-DE-20</t>
+        </is>
+      </c>
+      <c r="C185" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D185" s="12" t="inlineStr">
+        <is>
+          <t>SAA,DE Clamp #4-2/0</t>
+        </is>
+      </c>
+      <c r="E185" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F185" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G185" s="13" t="inlineStr"/>
+      <c r="H185" s="14" t="n">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="9" t="inlineStr">
+        <is>
+          <t>Point 06</t>
+        </is>
+      </c>
+      <c r="B186" s="9" t="inlineStr">
+        <is>
+          <t>XCO-15-100-7</t>
+        </is>
+      </c>
+      <c r="C186" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D186" s="9" t="inlineStr">
+        <is>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+        </is>
+      </c>
+      <c r="E186" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F186" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G186" s="10" t="inlineStr"/>
+      <c r="H186" s="11" t="n">
         <v>26.52</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="15" t="inlineStr">
+    <row r="187">
+      <c r="A187" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H184" s="16" t="n">
-        <v>9044.73</v>
+      <c r="H187" s="16" t="n">
+        <v>9610.820000000002</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A124:H124"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A184:G184"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="A60:H60"/>
     <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A125:G125"/>
     <mergeCell ref="G12:I12"/>
+    <mergeCell ref="A128:H128"/>
     <mergeCell ref="A57:G57"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A121:G121"/>
+    <mergeCell ref="A187:G187"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>

--- a/generated_docs/WR_89830464_WeekEnding_080325.xlsx
+++ b/generated_docs/WR_89830464_WeekEnding_080325.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I187"/>
+  <dimension ref="A2:I244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:48 AM</t>
+          <t>Report Generated On: 08/18/2025 09:48 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>32318.87</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>161</v>
+        <v>218</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>124.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +799,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>181.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +833,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>20.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -867,7 +867,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -878,7 +878,7 @@
       </c>
       <c r="B20" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>GND-MD</t>
         </is>
       </c>
       <c r="C20" s="9" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="D20" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>GND,Wire Mldg Only</t>
         </is>
       </c>
       <c r="E20" s="9" t="inlineStr">
@@ -897,11 +897,11 @@
         </is>
       </c>
       <c r="F20" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -912,7 +912,7 @@
       </c>
       <c r="B21" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C21" s="12" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
       <c r="D21" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E21" s="12" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -946,7 +946,7 @@
       </c>
       <c r="B22" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C22" s="9" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="D22" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E22" s="9" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -980,7 +980,7 @@
       </c>
       <c r="B23" s="12" t="inlineStr">
         <is>
-          <t>SAA-DE-20</t>
+          <t>PLD-EYE</t>
         </is>
       </c>
       <c r="C23" s="12" t="inlineStr">
@@ -990,7 +990,7 @@
       </c>
       <c r="D23" s="12" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0</t>
+          <t>PLD,Eyebolt Deadend</t>
         </is>
       </c>
       <c r="E23" s="12" t="inlineStr">
@@ -999,11 +999,11 @@
         </is>
       </c>
       <c r="F23" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>165.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1014,17 +1014,17 @@
       </c>
       <c r="B24" s="9" t="inlineStr">
         <is>
-          <t>SVC-2-TP-ALA-RS</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C24" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D24" s="9" t="inlineStr">
         <is>
-          <t>SVC,#2 AWG,Trip,Alum/Aly Neut,Res</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E24" s="9" t="inlineStr">
@@ -1033,11 +1033,11 @@
         </is>
       </c>
       <c r="F24" s="10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>1174.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B25" s="12" t="inlineStr">
         <is>
-          <t>SVD-3-CV-C</t>
+          <t>SAA-DE-20</t>
         </is>
       </c>
       <c r="C25" s="12" t="inlineStr">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="D25" s="12" t="inlineStr">
         <is>
-          <t>SVD,3 inch,Clevis,Corr</t>
+          <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
       <c r="E25" s="12" t="inlineStr">
@@ -1067,11 +1067,11 @@
         </is>
       </c>
       <c r="F25" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1082,17 +1082,17 @@
       </c>
       <c r="B26" s="9" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>SVC-2-TP-ALA-RS</t>
         </is>
       </c>
       <c r="C26" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D26" s="9" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>SVC,#2 AWG,Trip,Alum/Aly Neut,Res</t>
         </is>
       </c>
       <c r="E26" s="9" t="inlineStr">
@@ -1101,11 +1101,11 @@
         </is>
       </c>
       <c r="F26" s="10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>2290</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B27" s="12" t="inlineStr">
         <is>
-          <t>PLA-CUT</t>
+          <t>SVC-VA</t>
         </is>
       </c>
       <c r="C27" s="12" t="inlineStr">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="D27" s="12" t="inlineStr">
         <is>
-          <t>PLA,Cut Off Pole Top</t>
+          <t>SVC-Virtual Asset Capitalization</t>
         </is>
       </c>
       <c r="E27" s="12" t="inlineStr">
@@ -1135,32 +1135,32 @@
         </is>
       </c>
       <c r="F27" s="13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="9" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B28" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SVD-3-CV-C</t>
         </is>
       </c>
       <c r="C28" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D28" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SVD,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E28" s="9" t="inlineStr">
@@ -1173,28 +1173,28 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="12" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B29" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>SVD-SG2</t>
         </is>
       </c>
       <c r="C29" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>SVD,Service Grip,#2</t>
         </is>
       </c>
       <c r="E29" s="12" t="inlineStr">
@@ -1203,32 +1203,32 @@
         </is>
       </c>
       <c r="F29" s="13" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>PLA-CUT</t>
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D30" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>PLA,Cut Off Pole Top</t>
         </is>
       </c>
       <c r="E30" s="9" t="inlineStr">
@@ -1237,11 +1237,11 @@
         </is>
       </c>
       <c r="F30" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>51.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="B31" s="12" t="inlineStr">
         <is>
-          <t>SAA-DE-20</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C31" s="12" t="inlineStr">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E31" s="12" t="inlineStr">
@@ -1275,28 +1275,28 @@
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>ALB-W-18-A-1-F</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D32" s="9" t="inlineStr">
         <is>
-          <t>ALB,Wood mnt,18 in ,Alum,1Pos, Flood</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E32" s="9" t="inlineStr">
@@ -1309,28 +1309,28 @@
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>118.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B33" s="12" t="inlineStr">
         <is>
-          <t>ALT-400-HFMSGL</t>
+          <t>PLD-EYE</t>
         </is>
       </c>
       <c r="C33" s="12" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>400W MultiVolt MH Fldlt,Slipfit,Grey,Pul</t>
+          <t>PLD,Eyebolt Deadend</t>
         </is>
       </c>
       <c r="E33" s="12" t="inlineStr">
@@ -1343,28 +1343,28 @@
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>128.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F</t>
+          <t>POL-40-5</t>
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D34" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+          <t>Pole,40ft,Class 5</t>
         </is>
       </c>
       <c r="E34" s="9" t="inlineStr">
@@ -1373,32 +1373,32 @@
         </is>
       </c>
       <c r="F34" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>31.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B35" s="12" t="inlineStr">
         <is>
-          <t>CND-S2O</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C35" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D35" s="12" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2 Open</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E35" s="12" t="inlineStr">
@@ -1407,32 +1407,32 @@
         </is>
       </c>
       <c r="F35" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G35" s="13" t="inlineStr"/>
       <c r="H35" s="14" t="n">
-        <v>27.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B36" s="9" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X</t>
+          <t>SAA-DE-20</t>
         </is>
       </c>
       <c r="C36" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D36" s="9" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
+          <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
       <c r="E36" s="9" t="inlineStr">
@@ -1445,28 +1445,28 @@
       </c>
       <c r="G36" s="10" t="inlineStr"/>
       <c r="H36" s="11" t="n">
-        <v>223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B37" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C37" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D37" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E37" s="12" t="inlineStr">
@@ -1475,11 +1475,11 @@
         </is>
       </c>
       <c r="F37" s="13" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G37" s="13" t="inlineStr"/>
       <c r="H37" s="14" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1490,17 +1490,17 @@
       </c>
       <c r="B38" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>ALB-W-18-A-1-F</t>
         </is>
       </c>
       <c r="C38" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D38" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>ALB,Wood mnt,18 in ,Alum,1Pos, Flood</t>
         </is>
       </c>
       <c r="E38" s="9" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="G38" s="10" t="inlineStr"/>
       <c r="H38" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1524,17 +1524,17 @@
       </c>
       <c r="B39" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>ALT-400-HFMSGL</t>
         </is>
       </c>
       <c r="C39" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D39" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>400W MultiVolt MH Fldlt,Slipfit,Grey,Pul</t>
         </is>
       </c>
       <c r="E39" s="12" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="G39" s="13" t="inlineStr"/>
       <c r="H39" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1558,7 +1558,7 @@
       </c>
       <c r="B40" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>BKT-AC18-F</t>
         </is>
       </c>
       <c r="C40" s="9" t="inlineStr">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="D40" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
         </is>
       </c>
       <c r="E40" s="9" t="inlineStr">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="G40" s="10" t="inlineStr"/>
       <c r="H40" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1592,7 +1592,7 @@
       </c>
       <c r="B41" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>CND-HLC2</t>
         </is>
       </c>
       <c r="C41" s="12" t="inlineStr">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="D41" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>CND,Hot Line clamp #6-#2</t>
         </is>
       </c>
       <c r="E41" s="12" t="inlineStr">
@@ -1611,11 +1611,11 @@
         </is>
       </c>
       <c r="F41" s="13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G41" s="13" t="inlineStr"/>
       <c r="H41" s="14" t="n">
-        <v>220.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1626,17 +1626,17 @@
       </c>
       <c r="B42" s="9" t="inlineStr">
         <is>
-          <t>SVC-2-TP-ALA-RS</t>
+          <t>CND-S2O</t>
         </is>
       </c>
       <c r="C42" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D42" s="9" t="inlineStr">
         <is>
-          <t>SVC,#2 AWG,Trip,Alum/Aly Neut,Res</t>
+          <t>CND,Stirrup #2 Open</t>
         </is>
       </c>
       <c r="E42" s="9" t="inlineStr">
@@ -1645,11 +1645,11 @@
         </is>
       </c>
       <c r="F42" s="10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G42" s="10" t="inlineStr"/>
       <c r="H42" s="11" t="n">
-        <v>783.3200000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1660,7 +1660,7 @@
       </c>
       <c r="B43" s="12" t="inlineStr">
         <is>
-          <t>SVD-3-CV-C</t>
+          <t>EQL-1-4-C-2-S-X</t>
         </is>
       </c>
       <c r="C43" s="12" t="inlineStr">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="D43" s="12" t="inlineStr">
         <is>
-          <t>SVD,3 inch,Clevis,Corr</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
         </is>
       </c>
       <c r="E43" s="12" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="G43" s="13" t="inlineStr"/>
       <c r="H43" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1694,7 +1694,7 @@
       </c>
       <c r="B44" s="9" t="inlineStr">
         <is>
-          <t>PLA-CUT</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C44" s="9" t="inlineStr">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="D44" s="9" t="inlineStr">
         <is>
-          <t>PLA,Cut Off Pole Top</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E44" s="9" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="G44" s="10" t="inlineStr"/>
       <c r="H44" s="11" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1728,7 +1728,7 @@
       </c>
       <c r="B45" s="12" t="inlineStr">
         <is>
-          <t>DEG-2-SNA</t>
+          <t>GND-MD</t>
         </is>
       </c>
       <c r="C45" s="12" t="inlineStr">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="D45" s="12" t="inlineStr">
         <is>
-          <t>DEG,#2,Secondary Neutral Al</t>
+          <t>GND,Wire Mldg Only</t>
         </is>
       </c>
       <c r="E45" s="12" t="inlineStr">
@@ -1747,11 +1747,11 @@
         </is>
       </c>
       <c r="F45" s="13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G45" s="13" t="inlineStr"/>
       <c r="H45" s="14" t="n">
-        <v>1717.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1762,7 +1762,7 @@
       </c>
       <c r="B46" s="9" t="inlineStr">
         <is>
-          <t>XCO-15-100-7</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C46" s="9" t="inlineStr">
@@ -1772,7 +1772,7 @@
       </c>
       <c r="D46" s="9" t="inlineStr">
         <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E46" s="9" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="G46" s="10" t="inlineStr"/>
       <c r="H46" s="11" t="n">
-        <v>62.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="B47" s="12" t="inlineStr">
         <is>
-          <t>XFR-25-72-120-1B</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C47" s="12" t="inlineStr">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="D47" s="12" t="inlineStr">
         <is>
-          <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E47" s="12" t="inlineStr">
@@ -1819,28 +1819,28 @@
       </c>
       <c r="G47" s="13" t="inlineStr"/>
       <c r="H47" s="14" t="n">
-        <v>234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="9" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B48" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C48" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D48" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E48" s="9" t="inlineStr">
@@ -1853,28 +1853,28 @@
       </c>
       <c r="G48" s="10" t="inlineStr"/>
       <c r="H48" s="11" t="n">
-        <v>17.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="12" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B49" s="12" t="inlineStr">
         <is>
-          <t>CND-S2O</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C49" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D49" s="12" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2 Open</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E49" s="12" t="inlineStr">
@@ -1883,32 +1883,32 @@
         </is>
       </c>
       <c r="F49" s="13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G49" s="13" t="inlineStr"/>
       <c r="H49" s="14" t="n">
-        <v>6.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="9" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B50" s="9" t="inlineStr">
         <is>
-          <t>DEC-20AL</t>
+          <t>SVC-2-TP-ALA-RS</t>
         </is>
       </c>
       <c r="C50" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D50" s="9" t="inlineStr">
         <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS</t>
+          <t>SVC,#2 AWG,Trip,Alum/Aly Neut,Res</t>
         </is>
       </c>
       <c r="E50" s="9" t="inlineStr">
@@ -1917,32 +1917,32 @@
         </is>
       </c>
       <c r="F50" s="10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G50" s="10" t="inlineStr"/>
       <c r="H50" s="11" t="n">
-        <v>190.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="12" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B51" s="12" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X</t>
+          <t>SVC-VA</t>
         </is>
       </c>
       <c r="C51" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D51" s="12" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
+          <t>SVC-Virtual Asset Capitalization</t>
         </is>
       </c>
       <c r="E51" s="12" t="inlineStr">
@@ -1951,32 +1951,32 @@
         </is>
       </c>
       <c r="F51" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G51" s="13" t="inlineStr"/>
       <c r="H51" s="14" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="9" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B52" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SVD-3-CV-C</t>
         </is>
       </c>
       <c r="C52" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D52" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SVD,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E52" s="9" t="inlineStr">
@@ -1989,28 +1989,28 @@
       </c>
       <c r="G52" s="10" t="inlineStr"/>
       <c r="H52" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="12" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B53" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>PLA-CUT</t>
         </is>
       </c>
       <c r="C53" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D53" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>PLA,Cut Off Pole Top</t>
         </is>
       </c>
       <c r="E53" s="12" t="inlineStr">
@@ -2023,28 +2023,28 @@
       </c>
       <c r="G53" s="13" t="inlineStr"/>
       <c r="H53" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="9" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B54" s="9" t="inlineStr">
         <is>
-          <t>SAA-DE-20</t>
+          <t>DEG-2-SNA</t>
         </is>
       </c>
       <c r="C54" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D54" s="9" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0</t>
+          <t>DEG,#2,Secondary Neutral Al</t>
         </is>
       </c>
       <c r="E54" s="9" t="inlineStr">
@@ -2053,17 +2053,17 @@
         </is>
       </c>
       <c r="F54" s="10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G54" s="10" t="inlineStr"/>
       <c r="H54" s="11" t="n">
-        <v>68.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="12" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B55" s="12" t="inlineStr">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="C55" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D55" s="12" t="inlineStr">
@@ -2091,13 +2091,13 @@
       </c>
       <c r="G55" s="13" t="inlineStr"/>
       <c r="H55" s="14" t="n">
-        <v>26.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="9" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B56" s="9" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="C56" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D56" s="9" t="inlineStr">
@@ -2125,87 +2125,198 @@
       </c>
       <c r="G56" s="10" t="inlineStr"/>
       <c r="H56" s="11" t="n">
-        <v>159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H57" s="16" t="n">
-        <v>10379.77</v>
+      <c r="A57" s="12" t="inlineStr">
+        <is>
+          <t>Point 12</t>
+        </is>
+      </c>
+      <c r="B57" s="12" t="inlineStr">
+        <is>
+          <t>BKT-AC18-F</t>
+        </is>
+      </c>
+      <c r="C57" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D57" s="12" t="inlineStr">
+        <is>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+        </is>
+      </c>
+      <c r="E57" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F57" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" s="13" t="inlineStr"/>
+      <c r="H57" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="9" t="inlineStr">
+        <is>
+          <t>Point 12</t>
+        </is>
+      </c>
+      <c r="B58" s="9" t="inlineStr">
+        <is>
+          <t>CND-HLC2</t>
+        </is>
+      </c>
+      <c r="C58" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D58" s="9" t="inlineStr">
+        <is>
+          <t>CND,Hot Line clamp #6-#2</t>
+        </is>
+      </c>
+      <c r="E58" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F58" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" s="10" t="inlineStr"/>
+      <c r="H58" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="12" t="inlineStr">
+        <is>
+          <t>Point 12</t>
+        </is>
+      </c>
+      <c r="B59" s="12" t="inlineStr">
+        <is>
+          <t>CND-S2O</t>
+        </is>
+      </c>
+      <c r="C59" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D59" s="12" t="inlineStr">
+        <is>
+          <t>CND,Stirrup #2 Open</t>
+        </is>
+      </c>
+      <c r="E59" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F59" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" s="13" t="inlineStr"/>
+      <c r="H59" s="14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="7" t="inlineStr">
-        <is>
-          <t>Tuesday (07/29/2025)</t>
-        </is>
+      <c r="A60" s="9" t="inlineStr">
+        <is>
+          <t>Point 12</t>
+        </is>
+      </c>
+      <c r="B60" s="9" t="inlineStr">
+        <is>
+          <t>DEC-20AL</t>
+        </is>
+      </c>
+      <c r="C60" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D60" s="9" t="inlineStr">
+        <is>
+          <t>DEC,#4 - #2/0 AA,AL,AS</t>
+        </is>
+      </c>
+      <c r="E60" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F60" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G60" s="10" t="inlineStr"/>
+      <c r="H60" s="11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B61" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C61" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D61" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E61" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F61" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G61" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H61" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
+      <c r="A61" s="12" t="inlineStr">
+        <is>
+          <t>Point 12</t>
+        </is>
+      </c>
+      <c r="B61" s="12" t="inlineStr">
+        <is>
+          <t>EQL-1-4-C-2-S-X</t>
+        </is>
+      </c>
+      <c r="C61" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D61" s="12" t="inlineStr">
+        <is>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
+        </is>
+      </c>
+      <c r="E61" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F61" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" s="13" t="inlineStr"/>
+      <c r="H61" s="14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="9" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B62" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>INS-15-D-S-C</t>
         </is>
       </c>
       <c r="C62" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D62" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
         </is>
       </c>
       <c r="E62" s="9" t="inlineStr">
@@ -2214,32 +2325,32 @@
         </is>
       </c>
       <c r="F62" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G62" s="10" t="inlineStr"/>
       <c r="H62" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="12" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B63" s="12" t="inlineStr">
         <is>
-          <t>SVC-2-TP-ALA-RS</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C63" s="12" t="inlineStr">
         <is>
-          <t>Trans</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D63" s="12" t="inlineStr">
         <is>
-          <t>SVC,#2 AWG,Trip,Alum/Aly Neut,Res</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E63" s="12" t="inlineStr">
@@ -2248,32 +2359,32 @@
         </is>
       </c>
       <c r="F63" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G63" s="13" t="inlineStr"/>
       <c r="H63" s="14" t="n">
-        <v>391.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B64" s="9" t="inlineStr">
         <is>
-          <t>SVC-10-TP-AAA-RS</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C64" s="9" t="inlineStr">
         <is>
-          <t>Trans</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D64" s="9" t="inlineStr">
         <is>
-          <t>SVC,1/0,Trip,All Alum,Res</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E64" s="9" t="inlineStr">
@@ -2286,28 +2397,28 @@
       </c>
       <c r="G64" s="10" t="inlineStr"/>
       <c r="H64" s="11" t="n">
-        <v>195.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="12" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B65" s="12" t="inlineStr">
         <is>
-          <t>CNC-HTA-10</t>
+          <t>PLD-EYE</t>
         </is>
       </c>
       <c r="C65" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D65" s="12" t="inlineStr">
         <is>
-          <t>Compression connector H-Tap Assembly 1/0</t>
+          <t>PLD,Eyebolt Deadend</t>
         </is>
       </c>
       <c r="E65" s="12" t="inlineStr">
@@ -2316,32 +2427,32 @@
         </is>
       </c>
       <c r="F65" s="13" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G65" s="13" t="inlineStr"/>
       <c r="H65" s="14" t="n">
-        <v>162.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="9" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B66" s="9" t="inlineStr">
         <is>
-          <t>SVC-2-TP-AAA-RS</t>
+          <t>POL-40-5</t>
         </is>
       </c>
       <c r="C66" s="9" t="inlineStr">
         <is>
-          <t>Trans</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D66" s="9" t="inlineStr">
         <is>
-          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
+          <t>Pole,40ft,Class 5</t>
         </is>
       </c>
       <c r="E66" s="9" t="inlineStr">
@@ -2350,32 +2461,32 @@
         </is>
       </c>
       <c r="F66" s="10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G66" s="10" t="inlineStr"/>
       <c r="H66" s="11" t="n">
-        <v>587.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="12" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B67" s="12" t="inlineStr">
         <is>
-          <t>SVC-10-TP-AAA-RS</t>
+          <t>SAA-DE-20</t>
         </is>
       </c>
       <c r="C67" s="12" t="inlineStr">
         <is>
-          <t>Trans</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D67" s="12" t="inlineStr">
         <is>
-          <t>SVC,1/0,Trip,All Alum,Res</t>
+          <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
       <c r="E67" s="12" t="inlineStr">
@@ -2384,32 +2495,32 @@
         </is>
       </c>
       <c r="F67" s="13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G67" s="13" t="inlineStr"/>
       <c r="H67" s="14" t="n">
-        <v>195.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="9" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B68" s="9" t="inlineStr">
         <is>
-          <t>CNC-HTA-10</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C68" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D68" s="9" t="inlineStr">
         <is>
-          <t>Compression connector H-Tap Assembly 1/0</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E68" s="9" t="inlineStr">
@@ -2418,32 +2529,32 @@
         </is>
       </c>
       <c r="F68" s="10" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G68" s="10" t="inlineStr"/>
       <c r="H68" s="11" t="n">
-        <v>172.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="12" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B69" s="12" t="inlineStr">
         <is>
-          <t>CNC-HTA-10</t>
+          <t>XCO-15-100-7</t>
         </is>
       </c>
       <c r="C69" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D69" s="12" t="inlineStr">
         <is>
-          <t>Compression connector H-Tap Assembly 1/0</t>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
         </is>
       </c>
       <c r="E69" s="12" t="inlineStr">
@@ -2452,32 +2563,32 @@
         </is>
       </c>
       <c r="F69" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G69" s="13" t="inlineStr"/>
       <c r="H69" s="14" t="n">
-        <v>28.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="9" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B70" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>XFR-25-72-120-1B</t>
         </is>
       </c>
       <c r="C70" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D70" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG</t>
         </is>
       </c>
       <c r="E70" s="9" t="inlineStr">
@@ -2490,198 +2601,87 @@
       </c>
       <c r="G70" s="10" t="inlineStr"/>
       <c r="H70" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="12" t="inlineStr">
-        <is>
-          <t>Point 03</t>
-        </is>
-      </c>
-      <c r="B71" s="12" t="inlineStr">
-        <is>
-          <t>PLA-CUT</t>
-        </is>
-      </c>
-      <c r="C71" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D71" s="12" t="inlineStr">
-        <is>
-          <t>PLA,Cut Off Pole Top</t>
-        </is>
-      </c>
-      <c r="E71" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F71" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G71" s="13" t="inlineStr"/>
-      <c r="H71" s="14" t="n">
-        <v>216.17</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="9" t="inlineStr">
-        <is>
-          <t>Point 03</t>
-        </is>
-      </c>
-      <c r="B72" s="9" t="inlineStr">
-        <is>
-          <t>PLA-HDIG</t>
-        </is>
-      </c>
-      <c r="C72" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D72" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
-        </is>
-      </c>
-      <c r="E72" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F72" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G72" s="10" t="inlineStr"/>
-      <c r="H72" s="11" t="n">
-        <v>648.53</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="12" t="inlineStr">
-        <is>
-          <t>Point 03</t>
-        </is>
-      </c>
-      <c r="B73" s="12" t="inlineStr">
-        <is>
-          <t>POL-40-2</t>
-        </is>
-      </c>
-      <c r="C73" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D73" s="12" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 2</t>
-        </is>
-      </c>
-      <c r="E73" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F73" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G73" s="13" t="inlineStr"/>
-      <c r="H73" s="14" t="n">
-        <v>478.55</v>
+      <c r="A71" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H71" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="9" t="inlineStr">
-        <is>
-          <t>Point 03</t>
-        </is>
-      </c>
-      <c r="B74" s="9" t="inlineStr">
-        <is>
-          <t>PLA-HDIG</t>
-        </is>
-      </c>
-      <c r="C74" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D74" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
-        </is>
-      </c>
-      <c r="E74" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F74" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G74" s="10" t="inlineStr"/>
-      <c r="H74" s="11" t="n">
-        <v>648.53</v>
+      <c r="A74" s="7" t="inlineStr">
+        <is>
+          <t>Tuesday (07/29/2025)</t>
+        </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="12" t="inlineStr">
-        <is>
-          <t>Point 04</t>
-        </is>
-      </c>
-      <c r="B75" s="12" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C75" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D75" s="12" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E75" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F75" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G75" s="13" t="inlineStr"/>
-      <c r="H75" s="14" t="n">
-        <v>31.08</v>
+      <c r="A75" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B75" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C75" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D75" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E75" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F75" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G75" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H75" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="9" t="inlineStr">
         <is>
-          <t>Point 04</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B76" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C76" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D76" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E76" s="9" t="inlineStr">
@@ -2694,28 +2694,28 @@
       </c>
       <c r="G76" s="10" t="inlineStr"/>
       <c r="H76" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="12" t="inlineStr">
         <is>
-          <t>Point 04</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B77" s="12" t="inlineStr">
         <is>
-          <t>SAA-CL-336</t>
+          <t>SVC-2-TP-ALA-RS</t>
         </is>
       </c>
       <c r="C77" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Trans</t>
         </is>
       </c>
       <c r="D77" s="12" t="inlineStr">
         <is>
-          <t>SAA,Susp Clamp Light Angle,336</t>
+          <t>SVC,#2 AWG,Trip,Alum/Aly Neut,Res</t>
         </is>
       </c>
       <c r="E77" s="12" t="inlineStr">
@@ -2724,32 +2724,32 @@
         </is>
       </c>
       <c r="F77" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G77" s="13" t="inlineStr"/>
       <c r="H77" s="14" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="9" t="inlineStr">
         <is>
-          <t>Point 04</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B78" s="9" t="inlineStr">
         <is>
-          <t>SAA-DE-20</t>
+          <t>SVC-10-TP-AAA-RS</t>
         </is>
       </c>
       <c r="C78" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Trans</t>
         </is>
       </c>
       <c r="D78" s="9" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0</t>
+          <t>SVC,1/0,Trip,All Alum,Res</t>
         </is>
       </c>
       <c r="E78" s="9" t="inlineStr">
@@ -2762,7 +2762,7 @@
       </c>
       <c r="G78" s="10" t="inlineStr"/>
       <c r="H78" s="11" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -2773,7 +2773,7 @@
       </c>
       <c r="B79" s="12" t="inlineStr">
         <is>
-          <t>DEG-2-SNA</t>
+          <t>CNC-HTA-10</t>
         </is>
       </c>
       <c r="C79" s="12" t="inlineStr">
@@ -2783,7 +2783,7 @@
       </c>
       <c r="D79" s="12" t="inlineStr">
         <is>
-          <t>DEG,#2,Secondary Neutral Al</t>
+          <t>Compression connector H-Tap Assembly 1/0</t>
         </is>
       </c>
       <c r="E79" s="12" t="inlineStr">
@@ -2792,32 +2792,32 @@
         </is>
       </c>
       <c r="F79" s="13" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G79" s="13" t="inlineStr"/>
       <c r="H79" s="14" t="n">
-        <v>858.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B80" s="9" t="inlineStr">
         <is>
-          <t>ALT-LED-DD-T5-5L-SF</t>
+          <t>SVC-2-TP-AAA-RS</t>
         </is>
       </c>
       <c r="C80" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Trans</t>
         </is>
       </c>
       <c r="D80" s="9" t="inlineStr">
         <is>
-          <t>5200L LED, Type 5, Dusk to Dawn</t>
+          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
         </is>
       </c>
       <c r="E80" s="9" t="inlineStr">
@@ -2826,32 +2826,32 @@
         </is>
       </c>
       <c r="F80" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G80" s="10" t="inlineStr"/>
       <c r="H80" s="11" t="n">
-        <v>128.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="12" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B81" s="12" t="inlineStr">
         <is>
-          <t>BKT-AC18-F</t>
+          <t>SVC-10-TP-AAA-RS</t>
         </is>
       </c>
       <c r="C81" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Trans</t>
         </is>
       </c>
       <c r="D81" s="12" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+          <t>SVC,1/0,Trip,All Alum,Res</t>
         </is>
       </c>
       <c r="E81" s="12" t="inlineStr">
@@ -2864,18 +2864,18 @@
       </c>
       <c r="G81" s="13" t="inlineStr"/>
       <c r="H81" s="14" t="n">
-        <v>31.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B82" s="9" t="inlineStr">
         <is>
-          <t>CND-S2O</t>
+          <t>CNC-HTA-10</t>
         </is>
       </c>
       <c r="C82" s="9" t="inlineStr">
@@ -2885,7 +2885,7 @@
       </c>
       <c r="D82" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2 Open</t>
+          <t>Compression connector H-Tap Assembly 1/0</t>
         </is>
       </c>
       <c r="E82" s="9" t="inlineStr">
@@ -2894,22 +2894,22 @@
         </is>
       </c>
       <c r="F82" s="10" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G82" s="10" t="inlineStr"/>
       <c r="H82" s="11" t="n">
-        <v>27.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="12" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B83" s="12" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-20-S-X</t>
+          <t>CNC-HTA-10</t>
         </is>
       </c>
       <c r="C83" s="12" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="D83" s="12" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,2/0,CU Str,Xfr</t>
+          <t>Compression connector H-Tap Assembly 1/0</t>
         </is>
       </c>
       <c r="E83" s="12" t="inlineStr">
@@ -2928,22 +2928,22 @@
         </is>
       </c>
       <c r="F83" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G83" s="13" t="inlineStr"/>
       <c r="H83" s="14" t="n">
-        <v>223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B84" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>GND-MD</t>
         </is>
       </c>
       <c r="C84" s="9" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="D84" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>GND,Wire Mldg Only</t>
         </is>
       </c>
       <c r="E84" s="9" t="inlineStr">
@@ -2962,17 +2962,17 @@
         </is>
       </c>
       <c r="F84" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G84" s="10" t="inlineStr"/>
       <c r="H84" s="11" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="12" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B85" s="12" t="inlineStr">
@@ -3000,18 +3000,18 @@
       </c>
       <c r="G85" s="13" t="inlineStr"/>
       <c r="H85" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B86" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>PLA-CUT</t>
         </is>
       </c>
       <c r="C86" s="9" t="inlineStr">
@@ -3021,7 +3021,7 @@
       </c>
       <c r="D86" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>PLA,Cut Off Pole Top</t>
         </is>
       </c>
       <c r="E86" s="9" t="inlineStr">
@@ -3034,18 +3034,18 @@
       </c>
       <c r="G86" s="10" t="inlineStr"/>
       <c r="H86" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="12" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B87" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C87" s="12" t="inlineStr">
@@ -3055,7 +3055,7 @@
       </c>
       <c r="D87" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E87" s="12" t="inlineStr">
@@ -3068,18 +3068,18 @@
       </c>
       <c r="G87" s="13" t="inlineStr"/>
       <c r="H87" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B88" s="9" t="inlineStr">
         <is>
-          <t>PLA-CUT</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C88" s="9" t="inlineStr">
@@ -3089,7 +3089,7 @@
       </c>
       <c r="D88" s="9" t="inlineStr">
         <is>
-          <t>PLA,Cut Off Pole Top</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E88" s="9" t="inlineStr">
@@ -3102,18 +3102,18 @@
       </c>
       <c r="G88" s="10" t="inlineStr"/>
       <c r="H88" s="11" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="12" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B89" s="12" t="inlineStr">
         <is>
-          <t>SAA-DE-20</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C89" s="12" t="inlineStr">
@@ -3123,7 +3123,7 @@
       </c>
       <c r="D89" s="12" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E89" s="12" t="inlineStr">
@@ -3132,22 +3132,22 @@
         </is>
       </c>
       <c r="F89" s="13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G89" s="13" t="inlineStr"/>
       <c r="H89" s="14" t="n">
-        <v>220.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B90" s="9" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C90" s="9" t="inlineStr">
@@ -3157,7 +3157,7 @@
       </c>
       <c r="D90" s="9" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E90" s="9" t="inlineStr">
@@ -3166,32 +3166,32 @@
         </is>
       </c>
       <c r="F90" s="10" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G90" s="10" t="inlineStr"/>
       <c r="H90" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="12" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 04</t>
         </is>
       </c>
       <c r="B91" s="12" t="inlineStr">
         <is>
-          <t>XCO-15-100-7</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C91" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D91" s="12" t="inlineStr">
         <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E91" s="12" t="inlineStr">
@@ -3204,28 +3204,28 @@
       </c>
       <c r="G91" s="13" t="inlineStr"/>
       <c r="H91" s="14" t="n">
-        <v>62.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 04</t>
         </is>
       </c>
       <c r="B92" s="9" t="inlineStr">
         <is>
-          <t>XFR-50-72-120-1B</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C92" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D92" s="9" t="inlineStr">
         <is>
-          <t>XFR,50KVA,7.2/12.4kVY,120/240,1BG</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E92" s="9" t="inlineStr">
@@ -3238,18 +3238,18 @@
       </c>
       <c r="G92" s="10" t="inlineStr"/>
       <c r="H92" s="11" t="n">
-        <v>203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="12" t="inlineStr">
         <is>
-          <t>Point 20</t>
+          <t>Point 04</t>
         </is>
       </c>
       <c r="B93" s="12" t="inlineStr">
         <is>
-          <t>BKT-AC18-F</t>
+          <t>PLD-EYE</t>
         </is>
       </c>
       <c r="C93" s="12" t="inlineStr">
@@ -3259,7 +3259,7 @@
       </c>
       <c r="D93" s="12" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+          <t>PLD,Eyebolt Deadend</t>
         </is>
       </c>
       <c r="E93" s="12" t="inlineStr">
@@ -3268,22 +3268,22 @@
         </is>
       </c>
       <c r="F93" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G93" s="13" t="inlineStr"/>
       <c r="H93" s="14" t="n">
-        <v>17.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="9" t="inlineStr">
         <is>
-          <t>Point 20</t>
+          <t>Point 04</t>
         </is>
       </c>
       <c r="B94" s="9" t="inlineStr">
         <is>
-          <t>CND-S2O</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C94" s="9" t="inlineStr">
@@ -3293,7 +3293,7 @@
       </c>
       <c r="D94" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2 Open</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E94" s="9" t="inlineStr">
@@ -3302,22 +3302,22 @@
         </is>
       </c>
       <c r="F94" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94" s="10" t="inlineStr"/>
       <c r="H94" s="11" t="n">
-        <v>6.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="12" t="inlineStr">
         <is>
-          <t>Point 20</t>
+          <t>Point 04</t>
         </is>
       </c>
       <c r="B95" s="12" t="inlineStr">
         <is>
-          <t>DEC-20AL</t>
+          <t>SAA-CL-336</t>
         </is>
       </c>
       <c r="C95" s="12" t="inlineStr">
@@ -3327,7 +3327,7 @@
       </c>
       <c r="D95" s="12" t="inlineStr">
         <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS</t>
+          <t>SAA,Susp Clamp Light Angle,336</t>
         </is>
       </c>
       <c r="E95" s="12" t="inlineStr">
@@ -3336,22 +3336,22 @@
         </is>
       </c>
       <c r="F95" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G95" s="13" t="inlineStr"/>
       <c r="H95" s="14" t="n">
-        <v>190.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="9" t="inlineStr">
         <is>
-          <t>Point 20</t>
+          <t>Point 04</t>
         </is>
       </c>
       <c r="B96" s="9" t="inlineStr">
         <is>
-          <t>DEG-10-SNA</t>
+          <t>SAA-DE-20</t>
         </is>
       </c>
       <c r="C96" s="9" t="inlineStr">
@@ -3361,7 +3361,7 @@
       </c>
       <c r="D96" s="9" t="inlineStr">
         <is>
-          <t>DEG,1/0,Secondary Neutral Al</t>
+          <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
       <c r="E96" s="9" t="inlineStr">
@@ -3370,22 +3370,22 @@
         </is>
       </c>
       <c r="F96" s="10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G96" s="10" t="inlineStr"/>
       <c r="H96" s="11" t="n">
-        <v>380.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="12" t="inlineStr">
         <is>
-          <t>Point 20</t>
+          <t>Point 04</t>
         </is>
       </c>
       <c r="B97" s="12" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C97" s="12" t="inlineStr">
@@ -3395,7 +3395,7 @@
       </c>
       <c r="D97" s="12" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E97" s="12" t="inlineStr">
@@ -3404,32 +3404,32 @@
         </is>
       </c>
       <c r="F97" s="13" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G97" s="13" t="inlineStr"/>
       <c r="H97" s="14" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="9" t="inlineStr">
         <is>
-          <t>Point 20</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B98" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>DEG-2-SNA</t>
         </is>
       </c>
       <c r="C98" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D98" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>DEG,#2,Secondary Neutral Al</t>
         </is>
       </c>
       <c r="E98" s="9" t="inlineStr">
@@ -3438,32 +3438,32 @@
         </is>
       </c>
       <c r="F98" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G98" s="10" t="inlineStr"/>
       <c r="H98" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="12" t="inlineStr">
         <is>
-          <t>Point 20</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B99" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>ALT-LED-DD-T5-5L-SF</t>
         </is>
       </c>
       <c r="C99" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D99" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>5200L LED, Type 5, Dusk to Dawn</t>
         </is>
       </c>
       <c r="E99" s="12" t="inlineStr">
@@ -3476,28 +3476,28 @@
       </c>
       <c r="G99" s="13" t="inlineStr"/>
       <c r="H99" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="9" t="inlineStr">
         <is>
-          <t>Point 20</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B100" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>BKT-AC18-F</t>
         </is>
       </c>
       <c r="C100" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D100" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
         </is>
       </c>
       <c r="E100" s="9" t="inlineStr">
@@ -3506,32 +3506,32 @@
         </is>
       </c>
       <c r="F100" s="10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G100" s="10" t="inlineStr"/>
       <c r="H100" s="11" t="n">
-        <v>68.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="12" t="inlineStr">
         <is>
-          <t>Point 20</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B101" s="12" t="inlineStr">
         <is>
-          <t>XCO-15-100-7</t>
+          <t>CND-HLC2</t>
         </is>
       </c>
       <c r="C101" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D101" s="12" t="inlineStr">
         <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+          <t>CND,Hot Line clamp #6-#2</t>
         </is>
       </c>
       <c r="E101" s="12" t="inlineStr">
@@ -3544,28 +3544,28 @@
       </c>
       <c r="G101" s="13" t="inlineStr"/>
       <c r="H101" s="14" t="n">
-        <v>26.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="9" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B102" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F</t>
+          <t>CND-S2O</t>
         </is>
       </c>
       <c r="C102" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D102" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+          <t>CND,Stirrup #2 Open</t>
         </is>
       </c>
       <c r="E102" s="9" t="inlineStr">
@@ -3578,18 +3578,18 @@
       </c>
       <c r="G102" s="10" t="inlineStr"/>
       <c r="H102" s="11" t="n">
-        <v>38.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="12" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B103" s="12" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>EQL-1-4-C-20-S-X</t>
         </is>
       </c>
       <c r="C103" s="12" t="inlineStr">
@@ -3599,7 +3599,7 @@
       </c>
       <c r="D103" s="12" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>EQL,1 Ph,#4,CU Sol,2/0,CU Str,Xfr</t>
         </is>
       </c>
       <c r="E103" s="12" t="inlineStr">
@@ -3612,18 +3612,18 @@
       </c>
       <c r="G103" s="13" t="inlineStr"/>
       <c r="H103" s="14" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="9" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B104" s="9" t="inlineStr">
         <is>
-          <t>CND-S2O</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C104" s="9" t="inlineStr">
@@ -3633,7 +3633,7 @@
       </c>
       <c r="D104" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2 Open</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E104" s="9" t="inlineStr">
@@ -3646,28 +3646,28 @@
       </c>
       <c r="G104" s="10" t="inlineStr"/>
       <c r="H104" s="11" t="n">
-        <v>27.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="12" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B105" s="12" t="inlineStr">
         <is>
-          <t>DEG-2-SNA</t>
+          <t>GND-LG-AL</t>
         </is>
       </c>
       <c r="C105" s="12" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D105" s="12" t="inlineStr">
         <is>
-          <t>DEG,#2,Secondary Neutral Al</t>
+          <t>GND,Lug,Area Lt</t>
         </is>
       </c>
       <c r="E105" s="12" t="inlineStr">
@@ -3680,18 +3680,18 @@
       </c>
       <c r="G105" s="13" t="inlineStr"/>
       <c r="H105" s="14" t="n">
-        <v>72.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="9" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B106" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>GND-MD</t>
         </is>
       </c>
       <c r="C106" s="9" t="inlineStr">
@@ -3701,7 +3701,7 @@
       </c>
       <c r="D106" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>GND,Wire Mldg Only</t>
         </is>
       </c>
       <c r="E106" s="9" t="inlineStr">
@@ -3710,22 +3710,22 @@
         </is>
       </c>
       <c r="F106" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G106" s="10" t="inlineStr"/>
       <c r="H106" s="11" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="12" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B107" s="12" t="inlineStr">
         <is>
-          <t>PLA-CUT</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C107" s="12" t="inlineStr">
@@ -3735,7 +3735,7 @@
       </c>
       <c r="D107" s="12" t="inlineStr">
         <is>
-          <t>PLA,Cut Off Pole Top</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E107" s="12" t="inlineStr">
@@ -3748,18 +3748,18 @@
       </c>
       <c r="G107" s="13" t="inlineStr"/>
       <c r="H107" s="14" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="9" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B108" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C108" s="9" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="D108" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E108" s="9" t="inlineStr">
@@ -3782,18 +3782,18 @@
       </c>
       <c r="G108" s="10" t="inlineStr"/>
       <c r="H108" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="12" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B109" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>PLD-EYE</t>
         </is>
       </c>
       <c r="C109" s="12" t="inlineStr">
@@ -3803,7 +3803,7 @@
       </c>
       <c r="D109" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>PLD,Eyebolt Deadend</t>
         </is>
       </c>
       <c r="E109" s="12" t="inlineStr">
@@ -3816,13 +3816,13 @@
       </c>
       <c r="G109" s="13" t="inlineStr"/>
       <c r="H109" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="9" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B110" s="9" t="inlineStr">
@@ -3850,18 +3850,18 @@
       </c>
       <c r="G110" s="10" t="inlineStr"/>
       <c r="H110" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="12" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B111" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>PLA-CUT</t>
         </is>
       </c>
       <c r="C111" s="12" t="inlineStr">
@@ -3871,7 +3871,7 @@
       </c>
       <c r="D111" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>PLA,Cut Off Pole Top</t>
         </is>
       </c>
       <c r="E111" s="12" t="inlineStr">
@@ -3880,17 +3880,17 @@
         </is>
       </c>
       <c r="F111" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G111" s="13" t="inlineStr"/>
       <c r="H111" s="14" t="n">
-        <v>110.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="9" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B112" s="9" t="inlineStr">
@@ -3914,22 +3914,22 @@
         </is>
       </c>
       <c r="F112" s="10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G112" s="10" t="inlineStr"/>
       <c r="H112" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="12" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B113" s="12" t="inlineStr">
         <is>
-          <t>SVD-3-CV-C</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C113" s="12" t="inlineStr">
@@ -3939,7 +3939,7 @@
       </c>
       <c r="D113" s="12" t="inlineStr">
         <is>
-          <t>SVD,3 inch,Clevis,Corr</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E113" s="12" t="inlineStr">
@@ -3952,18 +3952,18 @@
       </c>
       <c r="G113" s="13" t="inlineStr"/>
       <c r="H113" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="9" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B114" s="9" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C114" s="9" t="inlineStr">
@@ -3973,7 +3973,7 @@
       </c>
       <c r="D114" s="9" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E114" s="9" t="inlineStr">
@@ -3982,17 +3982,17 @@
         </is>
       </c>
       <c r="F114" s="10" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G114" s="10" t="inlineStr"/>
       <c r="H114" s="11" t="n">
-        <v>1145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="12" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B115" s="12" t="inlineStr">
@@ -4020,18 +4020,18 @@
       </c>
       <c r="G115" s="13" t="inlineStr"/>
       <c r="H115" s="14" t="n">
-        <v>62.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="9" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B116" s="9" t="inlineStr">
         <is>
-          <t>XFR-25-72-120-1B</t>
+          <t>XFR-50-72-120-1B</t>
         </is>
       </c>
       <c r="C116" s="9" t="inlineStr">
@@ -4041,7 +4041,7 @@
       </c>
       <c r="D116" s="9" t="inlineStr">
         <is>
-          <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG</t>
+          <t>XFR,50KVA,7.2/12.4kVY,120/240,1BG</t>
         </is>
       </c>
       <c r="E116" s="9" t="inlineStr">
@@ -4054,13 +4054,13 @@
       </c>
       <c r="G116" s="10" t="inlineStr"/>
       <c r="H116" s="11" t="n">
-        <v>203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="12" t="inlineStr">
         <is>
-          <t>Point 22</t>
+          <t>Point 20</t>
         </is>
       </c>
       <c r="B117" s="12" t="inlineStr">
@@ -4088,18 +4088,18 @@
       </c>
       <c r="G117" s="13" t="inlineStr"/>
       <c r="H117" s="14" t="n">
-        <v>17.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="9" t="inlineStr">
         <is>
-          <t>Point 22</t>
+          <t>Point 20</t>
         </is>
       </c>
       <c r="B118" s="9" t="inlineStr">
         <is>
-          <t>CND-S2O</t>
+          <t>CND-HLC2</t>
         </is>
       </c>
       <c r="C118" s="9" t="inlineStr">
@@ -4109,7 +4109,7 @@
       </c>
       <c r="D118" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2 Open</t>
+          <t>CND,Hot Line clamp #6-#2</t>
         </is>
       </c>
       <c r="E118" s="9" t="inlineStr">
@@ -4122,18 +4122,18 @@
       </c>
       <c r="G118" s="10" t="inlineStr"/>
       <c r="H118" s="11" t="n">
-        <v>6.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="12" t="inlineStr">
         <is>
-          <t>Point 22</t>
+          <t>Point 20</t>
         </is>
       </c>
       <c r="B119" s="12" t="inlineStr">
         <is>
-          <t>DEG-10-SNA</t>
+          <t>CND-S2O</t>
         </is>
       </c>
       <c r="C119" s="12" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="D119" s="12" t="inlineStr">
         <is>
-          <t>DEG,1/0,Secondary Neutral Al</t>
+          <t>CND,Stirrup #2 Open</t>
         </is>
       </c>
       <c r="E119" s="12" t="inlineStr">
@@ -4152,22 +4152,22 @@
         </is>
       </c>
       <c r="F119" s="13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G119" s="13" t="inlineStr"/>
       <c r="H119" s="14" t="n">
-        <v>380.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="9" t="inlineStr">
         <is>
-          <t>Point 22</t>
+          <t>Point 20</t>
         </is>
       </c>
       <c r="B120" s="9" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X</t>
+          <t>DEC-20AL</t>
         </is>
       </c>
       <c r="C120" s="9" t="inlineStr">
@@ -4177,7 +4177,7 @@
       </c>
       <c r="D120" s="9" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
+          <t>DEC,#4 - #2/0 AA,AL,AS</t>
         </is>
       </c>
       <c r="E120" s="9" t="inlineStr">
@@ -4186,22 +4186,22 @@
         </is>
       </c>
       <c r="F120" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G120" s="10" t="inlineStr"/>
       <c r="H120" s="11" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="12" t="inlineStr">
         <is>
-          <t>Point 22</t>
+          <t>Point 20</t>
         </is>
       </c>
       <c r="B121" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>DEG-10-SNA</t>
         </is>
       </c>
       <c r="C121" s="12" t="inlineStr">
@@ -4211,7 +4211,7 @@
       </c>
       <c r="D121" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>DEG,1/0,Secondary Neutral Al</t>
         </is>
       </c>
       <c r="E121" s="12" t="inlineStr">
@@ -4220,22 +4220,22 @@
         </is>
       </c>
       <c r="F121" s="13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G121" s="13" t="inlineStr"/>
       <c r="H121" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="9" t="inlineStr">
         <is>
-          <t>Point 22</t>
+          <t>Point 20</t>
         </is>
       </c>
       <c r="B122" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>EQL-1-4-C-2-S-X</t>
         </is>
       </c>
       <c r="C122" s="9" t="inlineStr">
@@ -4245,7 +4245,7 @@
       </c>
       <c r="D122" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
         </is>
       </c>
       <c r="E122" s="9" t="inlineStr">
@@ -4258,18 +4258,18 @@
       </c>
       <c r="G122" s="10" t="inlineStr"/>
       <c r="H122" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="12" t="inlineStr">
         <is>
-          <t>Point 22</t>
+          <t>Point 20</t>
         </is>
       </c>
       <c r="B123" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>INS-15-D-S-C</t>
         </is>
       </c>
       <c r="C123" s="12" t="inlineStr">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="D123" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
         </is>
       </c>
       <c r="E123" s="12" t="inlineStr">
@@ -4288,22 +4288,22 @@
         </is>
       </c>
       <c r="F123" s="13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G123" s="13" t="inlineStr"/>
       <c r="H123" s="14" t="n">
-        <v>68.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="9" t="inlineStr">
         <is>
-          <t>Point 22</t>
+          <t>Point 20</t>
         </is>
       </c>
       <c r="B124" s="9" t="inlineStr">
         <is>
-          <t>XCO-15-100-7</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C124" s="9" t="inlineStr">
@@ -4313,7 +4313,7 @@
       </c>
       <c r="D124" s="9" t="inlineStr">
         <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E124" s="9" t="inlineStr">
@@ -4326,87 +4326,198 @@
       </c>
       <c r="G124" s="10" t="inlineStr"/>
       <c r="H124" s="11" t="n">
-        <v>26.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H125" s="16" t="n">
-        <v>12328.28</v>
+      <c r="A125" s="12" t="inlineStr">
+        <is>
+          <t>Point 20</t>
+        </is>
+      </c>
+      <c r="B125" s="12" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-K</t>
+        </is>
+      </c>
+      <c r="C125" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D125" s="12" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Contaminated</t>
+        </is>
+      </c>
+      <c r="E125" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F125" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G125" s="13" t="inlineStr"/>
+      <c r="H125" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="9" t="inlineStr">
+        <is>
+          <t>Point 20</t>
+        </is>
+      </c>
+      <c r="B126" s="9" t="inlineStr">
+        <is>
+          <t>PLD-EYE</t>
+        </is>
+      </c>
+      <c r="C126" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D126" s="9" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend</t>
+        </is>
+      </c>
+      <c r="E126" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F126" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G126" s="10" t="inlineStr"/>
+      <c r="H126" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="12" t="inlineStr">
+        <is>
+          <t>Point 20</t>
+        </is>
+      </c>
+      <c r="B127" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-5</t>
+        </is>
+      </c>
+      <c r="C127" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D127" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 5</t>
+        </is>
+      </c>
+      <c r="E127" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F127" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" s="13" t="inlineStr"/>
+      <c r="H127" s="14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="7" t="inlineStr">
-        <is>
-          <t>Wednesday (07/30/2025)</t>
-        </is>
+      <c r="A128" s="9" t="inlineStr">
+        <is>
+          <t>Point 20</t>
+        </is>
+      </c>
+      <c r="B128" s="9" t="inlineStr">
+        <is>
+          <t>SAA-3-CV</t>
+        </is>
+      </c>
+      <c r="C128" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D128" s="9" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis</t>
+        </is>
+      </c>
+      <c r="E128" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F128" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G128" s="10" t="inlineStr"/>
+      <c r="H128" s="11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B129" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C129" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D129" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E129" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F129" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G129" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H129" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
+      <c r="A129" s="12" t="inlineStr">
+        <is>
+          <t>Point 20</t>
+        </is>
+      </c>
+      <c r="B129" s="12" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C129" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D129" s="12" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E129" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F129" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="G129" s="13" t="inlineStr"/>
+      <c r="H129" s="14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="9" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 20</t>
         </is>
       </c>
       <c r="B130" s="9" t="inlineStr">
         <is>
-          <t>SVC-2-TP-ALA-RS</t>
+          <t>XCO-15-100-7</t>
         </is>
       </c>
       <c r="C130" s="9" t="inlineStr">
         <is>
-          <t>Trans</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D130" s="9" t="inlineStr">
         <is>
-          <t>SVC,#2 AWG,Trip,Alum/Aly Neut,Res</t>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
         </is>
       </c>
       <c r="E130" s="9" t="inlineStr">
@@ -4419,18 +4530,18 @@
       </c>
       <c r="G130" s="10" t="inlineStr"/>
       <c r="H130" s="11" t="n">
-        <v>195.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="12" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B131" s="12" t="inlineStr">
         <is>
-          <t>ALB-W-30-S-1-A</t>
+          <t>BKT-AC18-F</t>
         </is>
       </c>
       <c r="C131" s="12" t="inlineStr">
@@ -4440,7 +4551,7 @@
       </c>
       <c r="D131" s="12" t="inlineStr">
         <is>
-          <t>ALB,Wood,30in,Steel,1P,Area</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
         </is>
       </c>
       <c r="E131" s="12" t="inlineStr">
@@ -4453,28 +4564,28 @@
       </c>
       <c r="G131" s="13" t="inlineStr"/>
       <c r="H131" s="14" t="n">
-        <v>118.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="9" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B132" s="9" t="inlineStr">
         <is>
-          <t>ALT-150-SOP</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C132" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D132" s="9" t="inlineStr">
         <is>
-          <t>ALT,100,Sodium,Open,120,SlipFit, pkg</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E132" s="9" t="inlineStr">
@@ -4487,18 +4598,18 @@
       </c>
       <c r="G132" s="10" t="inlineStr"/>
       <c r="H132" s="11" t="n">
-        <v>128.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="12" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B133" s="12" t="inlineStr">
         <is>
-          <t>ANC-DHM-10-84-D1</t>
+          <t>CND-S2O</t>
         </is>
       </c>
       <c r="C133" s="12" t="inlineStr">
@@ -4508,7 +4619,7 @@
       </c>
       <c r="D133" s="12" t="inlineStr">
         <is>
-          <t>ANC,Dbl Hlx Mach,10in,84in,Db Eye 1in</t>
+          <t>CND,Stirrup #2 Open</t>
         </is>
       </c>
       <c r="E133" s="12" t="inlineStr">
@@ -4521,28 +4632,28 @@
       </c>
       <c r="G133" s="13" t="inlineStr"/>
       <c r="H133" s="14" t="n">
-        <v>217.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="9" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B134" s="9" t="inlineStr">
         <is>
-          <t>CNC-SNB-40</t>
+          <t>DEG-2-SNA</t>
         </is>
       </c>
       <c r="C134" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D134" s="9" t="inlineStr">
         <is>
-          <t>CNC,Splice Non-Tension Bare,#1/0-#4/0</t>
+          <t>DEG,#2,Secondary Neutral Al</t>
         </is>
       </c>
       <c r="E134" s="9" t="inlineStr">
@@ -4551,22 +4662,22 @@
         </is>
       </c>
       <c r="F134" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G134" s="10" t="inlineStr"/>
       <c r="H134" s="11" t="n">
-        <v>40.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="12" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B135" s="12" t="inlineStr">
         <is>
-          <t>DEC-20AL</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C135" s="12" t="inlineStr">
@@ -4576,7 +4687,7 @@
       </c>
       <c r="D135" s="12" t="inlineStr">
         <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E135" s="12" t="inlineStr">
@@ -4589,18 +4700,18 @@
       </c>
       <c r="G135" s="13" t="inlineStr"/>
       <c r="H135" s="14" t="n">
-        <v>286.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="9" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B136" s="9" t="inlineStr">
         <is>
-          <t>DEG-10-SPA</t>
+          <t>PLA-CUT</t>
         </is>
       </c>
       <c r="C136" s="9" t="inlineStr">
@@ -4610,7 +4721,7 @@
       </c>
       <c r="D136" s="9" t="inlineStr">
         <is>
-          <t>DEG,1/0,Slack Span Alum</t>
+          <t>PLA,Cut Off Pole Top</t>
         </is>
       </c>
       <c r="E136" s="9" t="inlineStr">
@@ -4619,22 +4730,22 @@
         </is>
       </c>
       <c r="F136" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G136" s="10" t="inlineStr"/>
       <c r="H136" s="11" t="n">
-        <v>572.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="12" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B137" s="12" t="inlineStr">
         <is>
-          <t>DEG-10-SPAJ</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C137" s="12" t="inlineStr">
@@ -4644,7 +4755,7 @@
       </c>
       <c r="D137" s="12" t="inlineStr">
         <is>
-          <t>DEG, 1/0,Slack Span Alum for J-Neck Ins</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E137" s="12" t="inlineStr">
@@ -4657,18 +4768,18 @@
       </c>
       <c r="G137" s="13" t="inlineStr"/>
       <c r="H137" s="14" t="n">
-        <v>286.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="9" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B138" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C138" s="9" t="inlineStr">
@@ -4678,7 +4789,7 @@
       </c>
       <c r="D138" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E138" s="9" t="inlineStr">
@@ -4691,18 +4802,18 @@
       </c>
       <c r="G138" s="10" t="inlineStr"/>
       <c r="H138" s="11" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="12" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B139" s="12" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP</t>
+          <t>PLD-EYE</t>
         </is>
       </c>
       <c r="C139" s="12" t="inlineStr">
@@ -4712,7 +4823,7 @@
       </c>
       <c r="D139" s="12" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
+          <t>PLD,Eyebolt Deadend</t>
         </is>
       </c>
       <c r="E139" s="12" t="inlineStr">
@@ -4721,22 +4832,22 @@
         </is>
       </c>
       <c r="F139" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G139" s="13" t="inlineStr"/>
       <c r="H139" s="14" t="n">
-        <v>158.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="9" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B140" s="9" t="inlineStr">
         <is>
-          <t>CNC-HTA-10</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C140" s="9" t="inlineStr">
@@ -4746,7 +4857,7 @@
       </c>
       <c r="D140" s="9" t="inlineStr">
         <is>
-          <t>Compression connector H-Tap Assembly 1/0</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E140" s="9" t="inlineStr">
@@ -4755,22 +4866,22 @@
         </is>
       </c>
       <c r="F140" s="10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G140" s="10" t="inlineStr"/>
       <c r="H140" s="11" t="n">
-        <v>47.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="12" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B141" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C141" s="12" t="inlineStr">
@@ -4780,7 +4891,7 @@
       </c>
       <c r="D141" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E141" s="12" t="inlineStr">
@@ -4789,32 +4900,32 @@
         </is>
       </c>
       <c r="F141" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G141" s="13" t="inlineStr"/>
       <c r="H141" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="9" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B142" s="9" t="inlineStr">
         <is>
-          <t>PLA-CUT</t>
+          <t>SAA-DE-20</t>
         </is>
       </c>
       <c r="C142" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D142" s="9" t="inlineStr">
         <is>
-          <t>PLA,Cut Off Pole Top</t>
+          <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
       <c r="E142" s="9" t="inlineStr">
@@ -4827,18 +4938,18 @@
       </c>
       <c r="G142" s="10" t="inlineStr"/>
       <c r="H142" s="11" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="12" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B143" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>SVC-VA</t>
         </is>
       </c>
       <c r="C143" s="12" t="inlineStr">
@@ -4848,7 +4959,7 @@
       </c>
       <c r="D143" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>SVC-Virtual Asset Capitalization</t>
         </is>
       </c>
       <c r="E143" s="12" t="inlineStr">
@@ -4861,18 +4972,18 @@
       </c>
       <c r="G143" s="13" t="inlineStr"/>
       <c r="H143" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="9" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B144" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>SVD-3-CV-C</t>
         </is>
       </c>
       <c r="C144" s="9" t="inlineStr">
@@ -4882,7 +4993,7 @@
       </c>
       <c r="D144" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>SVD,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E144" s="9" t="inlineStr">
@@ -4895,18 +5006,18 @@
       </c>
       <c r="G144" s="10" t="inlineStr"/>
       <c r="H144" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="12" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B145" s="12" t="inlineStr">
         <is>
-          <t>SAA-DE-20</t>
+          <t>SVD-SG2</t>
         </is>
       </c>
       <c r="C145" s="12" t="inlineStr">
@@ -4916,7 +5027,7 @@
       </c>
       <c r="D145" s="12" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0</t>
+          <t>SVD,Service Grip,#2</t>
         </is>
       </c>
       <c r="E145" s="12" t="inlineStr">
@@ -4925,32 +5036,32 @@
         </is>
       </c>
       <c r="F145" s="13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G145" s="13" t="inlineStr"/>
       <c r="H145" s="14" t="n">
-        <v>110.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="9" t="inlineStr">
         <is>
-          <t>Point 02</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B146" s="9" t="inlineStr">
         <is>
-          <t>DEG-4-SPA</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C146" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D146" s="9" t="inlineStr">
         <is>
-          <t>DEG,#4,Slack Span Alum</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E146" s="9" t="inlineStr">
@@ -4959,32 +5070,32 @@
         </is>
       </c>
       <c r="F146" s="10" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G146" s="10" t="inlineStr"/>
       <c r="H146" s="11" t="n">
-        <v>95.15000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="12" t="inlineStr">
         <is>
-          <t>Point 02</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B147" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>XCO-15-100-7</t>
         </is>
       </c>
       <c r="C147" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D147" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
         </is>
       </c>
       <c r="E147" s="12" t="inlineStr">
@@ -4997,28 +5108,28 @@
       </c>
       <c r="G147" s="13" t="inlineStr"/>
       <c r="H147" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="9" t="inlineStr">
         <is>
-          <t>Point 02</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B148" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>XFR-25-72-120-1B</t>
         </is>
       </c>
       <c r="C148" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D148" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG</t>
         </is>
       </c>
       <c r="E148" s="9" t="inlineStr">
@@ -5031,18 +5142,18 @@
       </c>
       <c r="G148" s="10" t="inlineStr"/>
       <c r="H148" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="12" t="inlineStr">
         <is>
-          <t>Point 02</t>
+          <t>Point 22</t>
         </is>
       </c>
       <c r="B149" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>BKT-AC18-F</t>
         </is>
       </c>
       <c r="C149" s="12" t="inlineStr">
@@ -5052,7 +5163,7 @@
       </c>
       <c r="D149" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
         </is>
       </c>
       <c r="E149" s="12" t="inlineStr">
@@ -5065,18 +5176,18 @@
       </c>
       <c r="G149" s="13" t="inlineStr"/>
       <c r="H149" s="14" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="9" t="inlineStr">
         <is>
-          <t>Point 02</t>
+          <t>Point 22</t>
         </is>
       </c>
       <c r="B150" s="9" t="inlineStr">
         <is>
-          <t>SAA-DE-20</t>
+          <t>CND-HLC2</t>
         </is>
       </c>
       <c r="C150" s="9" t="inlineStr">
@@ -5086,7 +5197,7 @@
       </c>
       <c r="D150" s="9" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0</t>
+          <t>CND,Hot Line clamp #6-#2</t>
         </is>
       </c>
       <c r="E150" s="9" t="inlineStr">
@@ -5095,32 +5206,32 @@
         </is>
       </c>
       <c r="F150" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G150" s="10" t="inlineStr"/>
       <c r="H150" s="11" t="n">
-        <v>34.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="12" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 22</t>
         </is>
       </c>
       <c r="B151" s="12" t="inlineStr">
         <is>
-          <t>ALB-W-30-S-1-A</t>
+          <t>CND-S2O</t>
         </is>
       </c>
       <c r="C151" s="12" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D151" s="12" t="inlineStr">
         <is>
-          <t>ALB,Wood,30in,Steel,1P,Area</t>
+          <t>CND,Stirrup #2 Open</t>
         </is>
       </c>
       <c r="E151" s="12" t="inlineStr">
@@ -5133,28 +5244,28 @@
       </c>
       <c r="G151" s="13" t="inlineStr"/>
       <c r="H151" s="14" t="n">
-        <v>118.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="9" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 22</t>
         </is>
       </c>
       <c r="B152" s="9" t="inlineStr">
         <is>
-          <t>ALT-LED-DD-T5-5L-SF</t>
+          <t>DEG-10-SNA</t>
         </is>
       </c>
       <c r="C152" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D152" s="9" t="inlineStr">
         <is>
-          <t>5200L LED, Type 5, Dusk to Dawn</t>
+          <t>DEG,1/0,Secondary Neutral Al</t>
         </is>
       </c>
       <c r="E152" s="9" t="inlineStr">
@@ -5163,32 +5274,32 @@
         </is>
       </c>
       <c r="F152" s="10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G152" s="10" t="inlineStr"/>
       <c r="H152" s="11" t="n">
-        <v>128.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="12" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 22</t>
         </is>
       </c>
       <c r="B153" s="12" t="inlineStr">
         <is>
-          <t>CNC-HTA-10</t>
+          <t>EQL-1-4-C-2-S-X</t>
         </is>
       </c>
       <c r="C153" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D153" s="12" t="inlineStr">
         <is>
-          <t>Compression connector H-Tap Assembly 1/0</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
         </is>
       </c>
       <c r="E153" s="12" t="inlineStr">
@@ -5197,32 +5308,32 @@
         </is>
       </c>
       <c r="F153" s="13" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G153" s="13" t="inlineStr"/>
       <c r="H153" s="14" t="n">
-        <v>124.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="9" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 22</t>
         </is>
       </c>
       <c r="B154" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C154" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D154" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E154" s="9" t="inlineStr">
@@ -5235,28 +5346,28 @@
       </c>
       <c r="G154" s="10" t="inlineStr"/>
       <c r="H154" s="11" t="n">
-        <v>31.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="12" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 22</t>
         </is>
       </c>
       <c r="B155" s="12" t="inlineStr">
         <is>
-          <t>CNC-SNB-40</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C155" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D155" s="12" t="inlineStr">
         <is>
-          <t>CNC,Splice Non-Tension Bare,#1/0-#4/0</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E155" s="12" t="inlineStr">
@@ -5265,32 +5376,32 @@
         </is>
       </c>
       <c r="F155" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G155" s="13" t="inlineStr"/>
       <c r="H155" s="14" t="n">
-        <v>40.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="9" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 22</t>
         </is>
       </c>
       <c r="B156" s="9" t="inlineStr">
         <is>
-          <t>CND-S2O</t>
+          <t>POL-40-3</t>
         </is>
       </c>
       <c r="C156" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D156" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2 Open</t>
+          <t>Pole,40ft,Class 3</t>
         </is>
       </c>
       <c r="E156" s="9" t="inlineStr">
@@ -5299,32 +5410,32 @@
         </is>
       </c>
       <c r="F156" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G156" s="10" t="inlineStr"/>
       <c r="H156" s="11" t="n">
-        <v>27.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="12" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 22</t>
         </is>
       </c>
       <c r="B157" s="12" t="inlineStr">
         <is>
-          <t>DEC-20AL</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C157" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D157" s="12" t="inlineStr">
         <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E157" s="12" t="inlineStr">
@@ -5333,32 +5444,32 @@
         </is>
       </c>
       <c r="F157" s="13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G157" s="13" t="inlineStr"/>
       <c r="H157" s="14" t="n">
-        <v>286.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="9" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 22</t>
         </is>
       </c>
       <c r="B158" s="9" t="inlineStr">
         <is>
-          <t>DEG-10-SPA</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C158" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D158" s="9" t="inlineStr">
         <is>
-          <t>DEG,1/0,Slack Span Alum</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E158" s="9" t="inlineStr">
@@ -5367,32 +5478,32 @@
         </is>
       </c>
       <c r="F158" s="10" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G158" s="10" t="inlineStr"/>
       <c r="H158" s="11" t="n">
-        <v>286.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="12" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 22</t>
         </is>
       </c>
       <c r="B159" s="12" t="inlineStr">
         <is>
-          <t>DEG-10-SPAJ</t>
+          <t>XCO-15-100-7</t>
         </is>
       </c>
       <c r="C159" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D159" s="12" t="inlineStr">
         <is>
-          <t>DEG, 1/0,Slack Span Alum for J-Neck Ins</t>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
         </is>
       </c>
       <c r="E159" s="12" t="inlineStr">
@@ -5401,958 +5512,2781 @@
         </is>
       </c>
       <c r="F159" s="13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G159" s="13" t="inlineStr"/>
       <c r="H159" s="14" t="n">
-        <v>1145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="9" t="inlineStr">
+      <c r="A160" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H160" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="7" t="inlineStr">
+        <is>
+          <t>Wednesday (07/30/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B164" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C164" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D164" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E164" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F164" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G164" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H164" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="9" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B165" s="9" t="inlineStr">
+        <is>
+          <t>SVC-2-TP-ALA-RS</t>
+        </is>
+      </c>
+      <c r="C165" s="9" t="inlineStr">
+        <is>
+          <t>Trans</t>
+        </is>
+      </c>
+      <c r="D165" s="9" t="inlineStr">
+        <is>
+          <t>SVC,#2 AWG,Trip,Alum/Aly Neut,Res</t>
+        </is>
+      </c>
+      <c r="E165" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F165" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G165" s="10" t="inlineStr"/>
+      <c r="H165" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="12" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B166" s="12" t="inlineStr">
+        <is>
+          <t>ALB-W-30-S-1-A</t>
+        </is>
+      </c>
+      <c r="C166" s="12" t="inlineStr">
+        <is>
+          <t>Tran</t>
+        </is>
+      </c>
+      <c r="D166" s="12" t="inlineStr">
+        <is>
+          <t>ALB,Wood,30in,Steel,1P,Area</t>
+        </is>
+      </c>
+      <c r="E166" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F166" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G166" s="13" t="inlineStr"/>
+      <c r="H166" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="9" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B167" s="9" t="inlineStr">
+        <is>
+          <t>ALT-150-SOP</t>
+        </is>
+      </c>
+      <c r="C167" s="9" t="inlineStr">
+        <is>
+          <t>Tran</t>
+        </is>
+      </c>
+      <c r="D167" s="9" t="inlineStr">
+        <is>
+          <t>ALT,100,Sodium,Open,120,SlipFit, pkg</t>
+        </is>
+      </c>
+      <c r="E167" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F167" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G167" s="10" t="inlineStr"/>
+      <c r="H167" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="12" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B168" s="12" t="inlineStr">
+        <is>
+          <t>ANC-DHM-10-84-D1</t>
+        </is>
+      </c>
+      <c r="C168" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D168" s="12" t="inlineStr">
+        <is>
+          <t>ANC,Dbl Hlx Mach,10in,84in,Db Eye 1in</t>
+        </is>
+      </c>
+      <c r="E168" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F168" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G168" s="13" t="inlineStr"/>
+      <c r="H168" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="9" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B169" s="9" t="inlineStr">
+        <is>
+          <t>CNC-SNB-40</t>
+        </is>
+      </c>
+      <c r="C169" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D169" s="9" t="inlineStr">
+        <is>
+          <t>CNC,Splice Non-Tension Bare,#1/0-#4/0</t>
+        </is>
+      </c>
+      <c r="E169" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F169" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G169" s="10" t="inlineStr"/>
+      <c r="H169" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="12" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B170" s="12" t="inlineStr">
+        <is>
+          <t>DEC-20AL</t>
+        </is>
+      </c>
+      <c r="C170" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D170" s="12" t="inlineStr">
+        <is>
+          <t>DEC,#4 - #2/0 AA,AL,AS</t>
+        </is>
+      </c>
+      <c r="E170" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F170" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G170" s="13" t="inlineStr"/>
+      <c r="H170" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="9" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B171" s="9" t="inlineStr">
+        <is>
+          <t>DEG-10-SPA</t>
+        </is>
+      </c>
+      <c r="C171" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D171" s="9" t="inlineStr">
+        <is>
+          <t>DEG,1/0,Slack Span Alum</t>
+        </is>
+      </c>
+      <c r="E171" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F171" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G171" s="10" t="inlineStr"/>
+      <c r="H171" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="12" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B172" s="12" t="inlineStr">
+        <is>
+          <t>DEG-10-SPAJ</t>
+        </is>
+      </c>
+      <c r="C172" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D172" s="12" t="inlineStr">
+        <is>
+          <t>DEG, 1/0,Slack Span Alum for J-Neck Ins</t>
+        </is>
+      </c>
+      <c r="E172" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F172" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G172" s="13" t="inlineStr"/>
+      <c r="H172" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="9" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B173" s="9" t="inlineStr">
+        <is>
+          <t>GND-CR-4</t>
+        </is>
+      </c>
+      <c r="C173" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D173" s="9" t="inlineStr">
+        <is>
+          <t>GND,Cu Clad Rod,#4</t>
+        </is>
+      </c>
+      <c r="E173" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F173" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G173" s="10" t="inlineStr"/>
+      <c r="H173" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="12" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B174" s="12" t="inlineStr">
+        <is>
+          <t>GND-LG-AL</t>
+        </is>
+      </c>
+      <c r="C174" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D174" s="12" t="inlineStr">
+        <is>
+          <t>GND,Lug,Area Lt</t>
+        </is>
+      </c>
+      <c r="E174" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F174" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G174" s="13" t="inlineStr"/>
+      <c r="H174" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="9" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B175" s="9" t="inlineStr">
+        <is>
+          <t>GND-MD</t>
+        </is>
+      </c>
+      <c r="C175" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D175" s="9" t="inlineStr">
+        <is>
+          <t>GND,Wire Mldg Only</t>
+        </is>
+      </c>
+      <c r="E175" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F175" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G175" s="10" t="inlineStr"/>
+      <c r="H175" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="12" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B176" s="12" t="inlineStr">
+        <is>
+          <t>GYD-MPY</t>
+        </is>
+      </c>
+      <c r="C176" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D176" s="12" t="inlineStr">
+        <is>
+          <t>GYD,Marker-Plastic-Yellow</t>
+        </is>
+      </c>
+      <c r="E176" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F176" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G176" s="13" t="inlineStr"/>
+      <c r="H176" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="9" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B177" s="9" t="inlineStr">
+        <is>
+          <t>GYF-38-D-78P-EP</t>
+        </is>
+      </c>
+      <c r="C177" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D177" s="9" t="inlineStr">
+        <is>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
+        </is>
+      </c>
+      <c r="E177" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F177" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G177" s="10" t="inlineStr"/>
+      <c r="H177" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="12" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B178" s="12" t="inlineStr">
+        <is>
+          <t>CNC-HTA-10</t>
+        </is>
+      </c>
+      <c r="C178" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D178" s="12" t="inlineStr">
+        <is>
+          <t>Compression connector H-Tap Assembly 1/0</t>
+        </is>
+      </c>
+      <c r="E178" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F178" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G178" s="13" t="inlineStr"/>
+      <c r="H178" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="9" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B179" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-D-S-C</t>
+        </is>
+      </c>
+      <c r="C179" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D179" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E179" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F179" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G179" s="10" t="inlineStr"/>
+      <c r="H179" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="12" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B180" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C180" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D180" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E180" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F180" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G180" s="13" t="inlineStr"/>
+      <c r="H180" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="9" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B181" s="9" t="inlineStr">
+        <is>
+          <t>PLA-CUT</t>
+        </is>
+      </c>
+      <c r="C181" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D181" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Cut Off Pole Top</t>
+        </is>
+      </c>
+      <c r="E181" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F181" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G181" s="10" t="inlineStr"/>
+      <c r="H181" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="12" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B182" s="12" t="inlineStr">
+        <is>
+          <t>PLD-EYE</t>
+        </is>
+      </c>
+      <c r="C182" s="12" t="n"/>
+      <c r="D182" s="12" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend</t>
+        </is>
+      </c>
+      <c r="E182" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F182" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G182" s="13" t="inlineStr"/>
+      <c r="H182" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="9" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B183" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C183" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D183" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E183" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F183" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G183" s="10" t="inlineStr"/>
+      <c r="H183" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="12" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B184" s="12" t="inlineStr">
+        <is>
+          <t>SAA-3-CV</t>
+        </is>
+      </c>
+      <c r="C184" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D184" s="12" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis</t>
+        </is>
+      </c>
+      <c r="E184" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F184" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G184" s="13" t="inlineStr"/>
+      <c r="H184" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="9" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B185" s="9" t="inlineStr">
+        <is>
+          <t>SAA-DE-20</t>
+        </is>
+      </c>
+      <c r="C185" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D185" s="9" t="inlineStr">
+        <is>
+          <t>SAA,DE Clamp #4-2/0</t>
+        </is>
+      </c>
+      <c r="E185" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F185" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G185" s="10" t="inlineStr"/>
+      <c r="H185" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="12" t="inlineStr">
+        <is>
+          <t>Point 02</t>
+        </is>
+      </c>
+      <c r="B186" s="12" t="inlineStr">
+        <is>
+          <t>DEG-4-SPA</t>
+        </is>
+      </c>
+      <c r="C186" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D186" s="12" t="inlineStr">
+        <is>
+          <t>DEG,#4,Slack Span Alum</t>
+        </is>
+      </c>
+      <c r="E186" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F186" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G186" s="13" t="inlineStr"/>
+      <c r="H186" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="9" t="inlineStr">
+        <is>
+          <t>Point 02</t>
+        </is>
+      </c>
+      <c r="B187" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C187" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D187" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E187" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F187" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G187" s="10" t="inlineStr"/>
+      <c r="H187" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="12" t="inlineStr">
+        <is>
+          <t>Point 02</t>
+        </is>
+      </c>
+      <c r="B188" s="12" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-K</t>
+        </is>
+      </c>
+      <c r="C188" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D188" s="12" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Contaminated</t>
+        </is>
+      </c>
+      <c r="E188" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F188" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G188" s="13" t="inlineStr"/>
+      <c r="H188" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="9" t="inlineStr">
+        <is>
+          <t>Point 02</t>
+        </is>
+      </c>
+      <c r="B189" s="9" t="inlineStr">
+        <is>
+          <t>PLD-EYE</t>
+        </is>
+      </c>
+      <c r="C189" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D189" s="9" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend</t>
+        </is>
+      </c>
+      <c r="E189" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F189" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G189" s="10" t="inlineStr"/>
+      <c r="H189" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="12" t="inlineStr">
+        <is>
+          <t>Point 02</t>
+        </is>
+      </c>
+      <c r="B190" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-5</t>
+        </is>
+      </c>
+      <c r="C190" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D190" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 5</t>
+        </is>
+      </c>
+      <c r="E190" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F190" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G190" s="13" t="inlineStr"/>
+      <c r="H190" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="9" t="inlineStr">
+        <is>
+          <t>Point 02</t>
+        </is>
+      </c>
+      <c r="B191" s="9" t="inlineStr">
+        <is>
+          <t>SAA-3-CV</t>
+        </is>
+      </c>
+      <c r="C191" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D191" s="9" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis</t>
+        </is>
+      </c>
+      <c r="E191" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F191" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G191" s="10" t="inlineStr"/>
+      <c r="H191" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="12" t="inlineStr">
+        <is>
+          <t>Point 02</t>
+        </is>
+      </c>
+      <c r="B192" s="12" t="inlineStr">
+        <is>
+          <t>SAA-DE-20</t>
+        </is>
+      </c>
+      <c r="C192" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D192" s="12" t="inlineStr">
+        <is>
+          <t>SAA,DE Clamp #4-2/0</t>
+        </is>
+      </c>
+      <c r="E192" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F192" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G192" s="13" t="inlineStr"/>
+      <c r="H192" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="9" t="inlineStr">
+        <is>
+          <t>Point 02</t>
+        </is>
+      </c>
+      <c r="B193" s="9" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C193" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D193" s="9" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E193" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F193" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="G193" s="10" t="inlineStr"/>
+      <c r="H193" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="12" t="inlineStr">
         <is>
           <t>Point 05</t>
         </is>
       </c>
-      <c r="B160" s="9" t="inlineStr">
+      <c r="B194" s="12" t="inlineStr">
+        <is>
+          <t>ALB-W-30-S-1-A</t>
+        </is>
+      </c>
+      <c r="C194" s="12" t="inlineStr">
+        <is>
+          <t>Tran</t>
+        </is>
+      </c>
+      <c r="D194" s="12" t="inlineStr">
+        <is>
+          <t>ALB,Wood,30in,Steel,1P,Area</t>
+        </is>
+      </c>
+      <c r="E194" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F194" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G194" s="13" t="inlineStr"/>
+      <c r="H194" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="9" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B195" s="9" t="inlineStr">
+        <is>
+          <t>ALT-LED-DD-T5-5L-SF</t>
+        </is>
+      </c>
+      <c r="C195" s="9" t="inlineStr">
+        <is>
+          <t>Tran</t>
+        </is>
+      </c>
+      <c r="D195" s="9" t="inlineStr">
+        <is>
+          <t>5200L LED, Type 5, Dusk to Dawn</t>
+        </is>
+      </c>
+      <c r="E195" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F195" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G195" s="10" t="inlineStr"/>
+      <c r="H195" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="12" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B196" s="12" t="inlineStr">
+        <is>
+          <t>CNC-HTA-10</t>
+        </is>
+      </c>
+      <c r="C196" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D196" s="12" t="inlineStr">
+        <is>
+          <t>Compression connector H-Tap Assembly 1/0</t>
+        </is>
+      </c>
+      <c r="E196" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F196" s="13" t="n">
+        <v>13</v>
+      </c>
+      <c r="G196" s="13" t="inlineStr"/>
+      <c r="H196" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="9" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B197" s="9" t="inlineStr">
+        <is>
+          <t>BKT-AC18-F</t>
+        </is>
+      </c>
+      <c r="C197" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D197" s="9" t="inlineStr">
+        <is>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+        </is>
+      </c>
+      <c r="E197" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F197" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G197" s="10" t="inlineStr"/>
+      <c r="H197" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="12" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B198" s="12" t="inlineStr">
+        <is>
+          <t>CNC-SNB-40</t>
+        </is>
+      </c>
+      <c r="C198" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D198" s="12" t="inlineStr">
+        <is>
+          <t>CNC,Splice Non-Tension Bare,#1/0-#4/0</t>
+        </is>
+      </c>
+      <c r="E198" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F198" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G198" s="13" t="inlineStr"/>
+      <c r="H198" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="9" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B199" s="9" t="inlineStr">
+        <is>
+          <t>CND-HLC2</t>
+        </is>
+      </c>
+      <c r="C199" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D199" s="9" t="inlineStr">
+        <is>
+          <t>CND,Hot Line clamp #6-#2</t>
+        </is>
+      </c>
+      <c r="E199" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F199" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G199" s="10" t="inlineStr"/>
+      <c r="H199" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="12" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B200" s="12" t="inlineStr">
+        <is>
+          <t>CND-S2O</t>
+        </is>
+      </c>
+      <c r="C200" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D200" s="12" t="inlineStr">
+        <is>
+          <t>CND,Stirrup #2 Open</t>
+        </is>
+      </c>
+      <c r="E200" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F200" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G200" s="13" t="inlineStr"/>
+      <c r="H200" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="9" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B201" s="9" t="inlineStr">
+        <is>
+          <t>DEC-20AL</t>
+        </is>
+      </c>
+      <c r="C201" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D201" s="9" t="inlineStr">
+        <is>
+          <t>DEC,#4 - #2/0 AA,AL,AS</t>
+        </is>
+      </c>
+      <c r="E201" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F201" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G201" s="10" t="inlineStr"/>
+      <c r="H201" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="12" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B202" s="12" t="inlineStr">
+        <is>
+          <t>DEG-10-SPA</t>
+        </is>
+      </c>
+      <c r="C202" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D202" s="12" t="inlineStr">
+        <is>
+          <t>DEG,1/0,Slack Span Alum</t>
+        </is>
+      </c>
+      <c r="E202" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F202" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G202" s="13" t="inlineStr"/>
+      <c r="H202" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="9" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B203" s="9" t="inlineStr">
+        <is>
+          <t>DEG-10-SPAJ</t>
+        </is>
+      </c>
+      <c r="C203" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D203" s="9" t="inlineStr">
+        <is>
+          <t>DEG, 1/0,Slack Span Alum for J-Neck Ins</t>
+        </is>
+      </c>
+      <c r="E203" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F203" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G203" s="10" t="inlineStr"/>
+      <c r="H203" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="12" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B204" s="12" t="inlineStr">
         <is>
           <t>EQL-1-4-C-2-S-X</t>
         </is>
       </c>
-      <c r="C160" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D160" s="9" t="inlineStr">
+      <c r="C204" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D204" s="12" t="inlineStr">
         <is>
           <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
         </is>
       </c>
-      <c r="E160" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F160" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G160" s="10" t="inlineStr"/>
-      <c r="H160" s="11" t="n">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="12" t="inlineStr">
+      <c r="E204" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F204" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G204" s="13" t="inlineStr"/>
+      <c r="H204" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="9" t="inlineStr">
         <is>
           <t>Point 05</t>
         </is>
       </c>
-      <c r="B161" s="12" t="inlineStr">
+      <c r="B205" s="9" t="inlineStr">
         <is>
           <t>GND-CR-4</t>
         </is>
       </c>
-      <c r="C161" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D161" s="12" t="inlineStr">
+      <c r="C205" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D205" s="9" t="inlineStr">
         <is>
           <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
-      <c r="E161" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F161" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G161" s="13" t="inlineStr"/>
-      <c r="H161" s="14" t="n">
-        <v>110.74</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="9" t="inlineStr">
+      <c r="E205" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F205" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G205" s="10" t="inlineStr"/>
+      <c r="H205" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="12" t="inlineStr">
         <is>
           <t>Point 05</t>
         </is>
       </c>
-      <c r="B162" s="9" t="inlineStr">
+      <c r="B206" s="12" t="inlineStr">
+        <is>
+          <t>GND-LG-AL</t>
+        </is>
+      </c>
+      <c r="C206" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D206" s="12" t="inlineStr">
+        <is>
+          <t>GND,Lug,Area Lt</t>
+        </is>
+      </c>
+      <c r="E206" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F206" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G206" s="13" t="inlineStr"/>
+      <c r="H206" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="9" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B207" s="9" t="inlineStr">
+        <is>
+          <t>GND-MD</t>
+        </is>
+      </c>
+      <c r="C207" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D207" s="9" t="inlineStr">
+        <is>
+          <t>GND,Wire Mldg Only</t>
+        </is>
+      </c>
+      <c r="E207" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F207" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G207" s="10" t="inlineStr"/>
+      <c r="H207" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="12" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B208" s="12" t="inlineStr">
+        <is>
+          <t>GYD-MPY</t>
+        </is>
+      </c>
+      <c r="C208" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D208" s="12" t="inlineStr">
+        <is>
+          <t>GYD,Marker-Plastic-Yellow</t>
+        </is>
+      </c>
+      <c r="E208" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F208" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G208" s="13" t="inlineStr"/>
+      <c r="H208" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="9" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B209" s="9" t="inlineStr">
         <is>
           <t>GYF-38-D-78P-EP</t>
         </is>
       </c>
-      <c r="C162" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D162" s="9" t="inlineStr">
+      <c r="C209" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D209" s="9" t="inlineStr">
         <is>
           <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
         </is>
       </c>
-      <c r="E162" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F162" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G162" s="10" t="inlineStr"/>
-      <c r="H162" s="11" t="n">
-        <v>79.34999999999999</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="12" t="inlineStr">
+      <c r="E209" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F209" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G209" s="10" t="inlineStr"/>
+      <c r="H209" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="12" t="inlineStr">
         <is>
           <t>Point 05</t>
         </is>
       </c>
-      <c r="B163" s="12" t="inlineStr">
+      <c r="B210" s="12" t="inlineStr">
+        <is>
+          <t>GYW-38</t>
+        </is>
+      </c>
+      <c r="C210" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D210" s="12" t="inlineStr">
+        <is>
+          <t>GYW,3/8 in. EHS (15,400 lbs)</t>
+        </is>
+      </c>
+      <c r="E210" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F210" s="13" t="n">
+        <v>40</v>
+      </c>
+      <c r="G210" s="13" t="inlineStr"/>
+      <c r="H210" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="9" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B211" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-D-S-C</t>
+        </is>
+      </c>
+      <c r="C211" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D211" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E211" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F211" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G211" s="10" t="inlineStr"/>
+      <c r="H211" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="12" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B212" s="12" t="inlineStr">
         <is>
           <t>INS-15-P-S-C</t>
         </is>
       </c>
-      <c r="C163" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D163" s="12" t="inlineStr">
+      <c r="C212" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D212" s="12" t="inlineStr">
         <is>
           <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
-      <c r="E163" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F163" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G163" s="13" t="inlineStr"/>
-      <c r="H163" s="14" t="n">
-        <v>94.17</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="9" t="inlineStr">
+      <c r="E212" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F212" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G212" s="13" t="inlineStr"/>
+      <c r="H212" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="9" t="inlineStr">
         <is>
           <t>Point 05</t>
         </is>
       </c>
-      <c r="B164" s="9" t="inlineStr">
+      <c r="B213" s="9" t="inlineStr">
         <is>
           <t>PIN-15-PTP-K</t>
         </is>
       </c>
-      <c r="C164" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D164" s="9" t="inlineStr">
+      <c r="C213" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D213" s="9" t="inlineStr">
         <is>
           <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
-      <c r="E164" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F164" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G164" s="10" t="inlineStr"/>
-      <c r="H164" s="11" t="n">
-        <v>94.17</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="12" t="inlineStr">
+      <c r="E213" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F213" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G213" s="10" t="inlineStr"/>
+      <c r="H213" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="12" t="inlineStr">
         <is>
           <t>Point 05</t>
         </is>
       </c>
-      <c r="B165" s="12" t="inlineStr">
+      <c r="B214" s="12" t="inlineStr">
+        <is>
+          <t>PLD-EYE</t>
+        </is>
+      </c>
+      <c r="C214" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D214" s="12" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend</t>
+        </is>
+      </c>
+      <c r="E214" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F214" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G214" s="13" t="inlineStr"/>
+      <c r="H214" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="9" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B215" s="9" t="inlineStr">
         <is>
           <t>POL-40-2</t>
         </is>
       </c>
-      <c r="C165" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D165" s="12" t="inlineStr">
+      <c r="C215" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D215" s="9" t="inlineStr">
         <is>
           <t>Pole,40ft,Class 2</t>
         </is>
       </c>
-      <c r="E165" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F165" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G165" s="13" t="inlineStr"/>
-      <c r="H165" s="14" t="n">
-        <v>478.55</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="9" t="inlineStr">
+      <c r="E215" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F215" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G215" s="10" t="inlineStr"/>
+      <c r="H215" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="12" t="inlineStr">
         <is>
           <t>Point 05</t>
         </is>
       </c>
-      <c r="B166" s="9" t="inlineStr">
+      <c r="B216" s="12" t="inlineStr">
         <is>
           <t>SAA-3-CV</t>
         </is>
       </c>
-      <c r="C166" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D166" s="9" t="inlineStr">
+      <c r="C216" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D216" s="12" t="inlineStr">
         <is>
           <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
-      <c r="E166" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F166" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G166" s="10" t="inlineStr"/>
-      <c r="H166" s="11" t="n">
-        <v>55.18</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="12" t="inlineStr">
+      <c r="E216" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F216" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G216" s="13" t="inlineStr"/>
+      <c r="H216" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="9" t="inlineStr">
         <is>
           <t>Point 05</t>
         </is>
       </c>
-      <c r="B167" s="12" t="inlineStr">
+      <c r="B217" s="9" t="inlineStr">
         <is>
           <t>SAA-DE-20</t>
         </is>
       </c>
-      <c r="C167" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D167" s="12" t="inlineStr">
+      <c r="C217" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D217" s="9" t="inlineStr">
         <is>
           <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
-      <c r="E167" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F167" s="13" t="n">
+      <c r="E217" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F217" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="G167" s="13" t="inlineStr"/>
-      <c r="H167" s="14" t="n">
-        <v>110.36</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="9" t="inlineStr">
+      <c r="G217" s="10" t="inlineStr"/>
+      <c r="H217" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="12" t="inlineStr">
         <is>
           <t>Point 05</t>
         </is>
       </c>
-      <c r="B168" s="9" t="inlineStr">
+      <c r="B218" s="12" t="inlineStr">
         <is>
           <t>SVC-2-TP-ALA-RS</t>
         </is>
       </c>
-      <c r="C168" s="9" t="inlineStr">
+      <c r="C218" s="12" t="inlineStr">
         <is>
           <t>Tran</t>
         </is>
       </c>
-      <c r="D168" s="9" t="inlineStr">
+      <c r="D218" s="12" t="inlineStr">
         <is>
           <t>SVC,#2 AWG,Trip,Alum/Aly Neut,Res</t>
         </is>
       </c>
-      <c r="E168" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F168" s="10" t="n">
+      <c r="E218" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F218" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="G168" s="10" t="inlineStr"/>
-      <c r="H168" s="11" t="n">
-        <v>391.66</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="12" t="inlineStr">
+      <c r="G218" s="13" t="inlineStr"/>
+      <c r="H218" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="9" t="inlineStr">
         <is>
           <t>Point 05</t>
         </is>
       </c>
-      <c r="B169" s="12" t="inlineStr">
+      <c r="B219" s="9" t="inlineStr">
+        <is>
+          <t>SVC-VA</t>
+        </is>
+      </c>
+      <c r="C219" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D219" s="9" t="inlineStr">
+        <is>
+          <t>SVC-Virtual Asset Capitalization</t>
+        </is>
+      </c>
+      <c r="E219" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F219" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G219" s="10" t="inlineStr"/>
+      <c r="H219" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="12" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B220" s="12" t="inlineStr">
         <is>
           <t>PLA-CUT</t>
         </is>
       </c>
-      <c r="C169" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D169" s="12" t="inlineStr">
+      <c r="C220" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D220" s="12" t="inlineStr">
         <is>
           <t>PLA,Cut Off Pole Top</t>
         </is>
       </c>
-      <c r="E169" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F169" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G169" s="13" t="inlineStr"/>
-      <c r="H169" s="14" t="n">
-        <v>216.17</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="9" t="inlineStr">
+      <c r="E220" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F220" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G220" s="13" t="inlineStr"/>
+      <c r="H220" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="9" t="inlineStr">
         <is>
           <t>Point 05</t>
         </is>
       </c>
-      <c r="B170" s="9" t="inlineStr">
+      <c r="B221" s="9" t="inlineStr">
         <is>
           <t>PLA-HDIG</t>
         </is>
       </c>
-      <c r="C170" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D170" s="9" t="inlineStr">
+      <c r="C221" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D221" s="9" t="inlineStr">
         <is>
           <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
-      <c r="E170" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F170" s="10" t="n">
+      <c r="E221" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F221" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="G170" s="10" t="inlineStr"/>
-      <c r="H170" s="11" t="n">
-        <v>1297.06</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="12" t="inlineStr">
+      <c r="G221" s="10" t="inlineStr"/>
+      <c r="H221" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="12" t="inlineStr">
         <is>
           <t>Point 05</t>
         </is>
       </c>
-      <c r="B171" s="12" t="inlineStr">
+      <c r="B222" s="12" t="inlineStr">
         <is>
           <t>XCO-15-100-7</t>
         </is>
       </c>
-      <c r="C171" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D171" s="12" t="inlineStr">
+      <c r="C222" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D222" s="12" t="inlineStr">
         <is>
           <t>XCO,15kVPolymer,100 Amp,7kA</t>
         </is>
       </c>
-      <c r="E171" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F171" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G171" s="13" t="inlineStr"/>
-      <c r="H171" s="14" t="n">
-        <v>62.42</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="9" t="inlineStr">
+      <c r="E222" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F222" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G222" s="13" t="inlineStr"/>
+      <c r="H222" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="9" t="inlineStr">
         <is>
           <t>Point 05</t>
         </is>
       </c>
-      <c r="B172" s="9" t="inlineStr">
+      <c r="B223" s="9" t="inlineStr">
         <is>
           <t>XFR-25-72-120-1B</t>
         </is>
       </c>
-      <c r="C172" s="9" t="inlineStr">
+      <c r="C223" s="9" t="inlineStr">
         <is>
           <t>Tran</t>
         </is>
       </c>
-      <c r="D172" s="9" t="inlineStr">
+      <c r="D223" s="9" t="inlineStr">
         <is>
           <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG</t>
         </is>
       </c>
-      <c r="E172" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F172" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G172" s="10" t="inlineStr"/>
-      <c r="H172" s="11" t="n">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="12" t="inlineStr">
+      <c r="E223" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F223" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G223" s="10" t="inlineStr"/>
+      <c r="H223" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="12" t="inlineStr">
         <is>
           <t>Point 06</t>
         </is>
       </c>
-      <c r="B173" s="12" t="inlineStr">
+      <c r="B224" s="12" t="inlineStr">
         <is>
           <t>ANC-DHM-10-84-D1</t>
         </is>
       </c>
-      <c r="C173" s="12" t="inlineStr">
+      <c r="C224" s="12" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D173" s="12" t="inlineStr">
+      <c r="D224" s="12" t="inlineStr">
         <is>
           <t>ANC,Dbl Hlx Mach,10in,84in,Db Eye 1in</t>
         </is>
       </c>
-      <c r="E173" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F173" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G173" s="13" t="inlineStr"/>
-      <c r="H173" s="14" t="n">
-        <v>28.6</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="9" t="inlineStr">
+      <c r="E224" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F224" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G224" s="13" t="inlineStr"/>
+      <c r="H224" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="9" t="inlineStr">
         <is>
           <t>Point 06</t>
         </is>
       </c>
-      <c r="B174" s="9" t="inlineStr">
+      <c r="B225" s="9" t="inlineStr">
         <is>
           <t>BKT-AC18-F</t>
         </is>
       </c>
-      <c r="C174" s="9" t="inlineStr">
+      <c r="C225" s="9" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D174" s="9" t="inlineStr">
+      <c r="D225" s="9" t="inlineStr">
         <is>
           <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
         </is>
       </c>
-      <c r="E174" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F174" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G174" s="10" t="inlineStr"/>
-      <c r="H174" s="11" t="n">
-        <v>17.37</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="12" t="inlineStr">
+      <c r="E225" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F225" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G225" s="10" t="inlineStr"/>
+      <c r="H225" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="12" t="inlineStr">
         <is>
           <t>Point 06</t>
         </is>
       </c>
-      <c r="B175" s="12" t="inlineStr">
+      <c r="B226" s="12" t="inlineStr">
+        <is>
+          <t>CND-HLC2</t>
+        </is>
+      </c>
+      <c r="C226" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D226" s="12" t="inlineStr">
+        <is>
+          <t>CND,Hot Line clamp #6-#2</t>
+        </is>
+      </c>
+      <c r="E226" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F226" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G226" s="13" t="inlineStr"/>
+      <c r="H226" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="9" t="inlineStr">
+        <is>
+          <t>Point 06</t>
+        </is>
+      </c>
+      <c r="B227" s="9" t="inlineStr">
         <is>
           <t>CND-S2O</t>
         </is>
       </c>
-      <c r="C175" s="12" t="inlineStr">
+      <c r="C227" s="9" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D175" s="12" t="inlineStr">
+      <c r="D227" s="9" t="inlineStr">
         <is>
           <t>CND,Stirrup #2 Open</t>
         </is>
       </c>
-      <c r="E175" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F175" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G175" s="13" t="inlineStr"/>
-      <c r="H175" s="14" t="n">
-        <v>6.17</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="9" t="inlineStr">
+      <c r="E227" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F227" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G227" s="10" t="inlineStr"/>
+      <c r="H227" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="12" t="inlineStr">
         <is>
           <t>Point 06</t>
         </is>
       </c>
-      <c r="B176" s="9" t="inlineStr">
+      <c r="B228" s="12" t="inlineStr">
         <is>
           <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
-      <c r="C176" s="9" t="inlineStr">
+      <c r="C228" s="12" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D176" s="9" t="inlineStr">
+      <c r="D228" s="12" t="inlineStr">
         <is>
           <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
-      <c r="E176" s="9" t="inlineStr">
+      <c r="E228" s="12" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="F176" s="10" t="n">
+      <c r="F228" s="13" t="n">
         <v>72</v>
       </c>
-      <c r="G176" s="10" t="inlineStr"/>
-      <c r="H176" s="11" t="n">
-        <v>66.95999999999999</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="12" t="inlineStr">
+      <c r="G228" s="13" t="inlineStr"/>
+      <c r="H228" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="9" t="inlineStr">
         <is>
           <t>Point 06</t>
         </is>
       </c>
-      <c r="B177" s="12" t="inlineStr">
+      <c r="B229" s="9" t="inlineStr">
         <is>
           <t>DEC-20AL</t>
         </is>
       </c>
-      <c r="C177" s="12" t="inlineStr">
+      <c r="C229" s="9" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D177" s="12" t="inlineStr">
+      <c r="D229" s="9" t="inlineStr">
         <is>
           <t>DEC,#4 - #2/0 AA,AL,AS</t>
         </is>
       </c>
-      <c r="E177" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F177" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G177" s="13" t="inlineStr"/>
-      <c r="H177" s="14" t="n">
-        <v>95.15000000000001</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="9" t="inlineStr">
+      <c r="E229" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F229" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G229" s="10" t="inlineStr"/>
+      <c r="H229" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="12" t="inlineStr">
         <is>
           <t>Point 06</t>
         </is>
       </c>
-      <c r="B178" s="9" t="inlineStr">
+      <c r="B230" s="12" t="inlineStr">
         <is>
           <t>DEG-2-SPAJ</t>
         </is>
       </c>
-      <c r="C178" s="9" t="inlineStr">
+      <c r="C230" s="12" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D178" s="9" t="inlineStr">
+      <c r="D230" s="12" t="inlineStr">
         <is>
           <t>DEG,#2,Slack span Alum for J-neck</t>
         </is>
       </c>
-      <c r="E178" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F178" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G178" s="10" t="inlineStr"/>
-      <c r="H178" s="11" t="n">
-        <v>95.15000000000001</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="12" t="inlineStr">
+      <c r="E230" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F230" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G230" s="13" t="inlineStr"/>
+      <c r="H230" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="9" t="inlineStr">
         <is>
           <t>Point 06</t>
         </is>
       </c>
-      <c r="B179" s="12" t="inlineStr">
+      <c r="B231" s="9" t="inlineStr">
         <is>
           <t>DEG-4-SPA</t>
         </is>
       </c>
-      <c r="C179" s="12" t="inlineStr">
+      <c r="C231" s="9" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D179" s="12" t="inlineStr">
+      <c r="D231" s="9" t="inlineStr">
         <is>
           <t>DEG,#4,Slack Span Alum</t>
         </is>
       </c>
-      <c r="E179" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F179" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G179" s="13" t="inlineStr"/>
-      <c r="H179" s="14" t="n">
-        <v>95.15000000000001</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="9" t="inlineStr">
+      <c r="E231" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F231" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G231" s="10" t="inlineStr"/>
+      <c r="H231" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="12" t="inlineStr">
         <is>
           <t>Point 06</t>
         </is>
       </c>
-      <c r="B180" s="9" t="inlineStr">
+      <c r="B232" s="12" t="inlineStr">
         <is>
           <t>EQL-1-4-C-2-S-X</t>
         </is>
       </c>
-      <c r="C180" s="9" t="inlineStr">
+      <c r="C232" s="12" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D180" s="9" t="inlineStr">
+      <c r="D232" s="12" t="inlineStr">
         <is>
           <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
         </is>
       </c>
-      <c r="E180" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F180" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G180" s="10" t="inlineStr"/>
-      <c r="H180" s="11" t="n">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="12" t="inlineStr">
+      <c r="E232" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F232" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G232" s="13" t="inlineStr"/>
+      <c r="H232" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="9" t="inlineStr">
         <is>
           <t>Point 06</t>
         </is>
       </c>
-      <c r="B181" s="12" t="inlineStr">
+      <c r="B233" s="9" t="inlineStr">
+        <is>
+          <t>GYD-MPY</t>
+        </is>
+      </c>
+      <c r="C233" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D233" s="9" t="inlineStr">
+        <is>
+          <t>GYD,Marker-Plastic-Yellow</t>
+        </is>
+      </c>
+      <c r="E233" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F233" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G233" s="10" t="inlineStr"/>
+      <c r="H233" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="12" t="inlineStr">
+        <is>
+          <t>Point 06</t>
+        </is>
+      </c>
+      <c r="B234" s="12" t="inlineStr">
         <is>
           <t>GYF-38-D-78P-EP</t>
         </is>
       </c>
-      <c r="C181" s="12" t="inlineStr">
+      <c r="C234" s="12" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D181" s="12" t="inlineStr">
+      <c r="D234" s="12" t="inlineStr">
         <is>
           <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
         </is>
       </c>
-      <c r="E181" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F181" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G181" s="13" t="inlineStr"/>
-      <c r="H181" s="14" t="n">
-        <v>35.58</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="9" t="inlineStr">
+      <c r="E234" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F234" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G234" s="13" t="inlineStr"/>
+      <c r="H234" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="9" t="inlineStr">
         <is>
           <t>Point 06</t>
         </is>
       </c>
-      <c r="B182" s="9" t="inlineStr">
+      <c r="B235" s="9" t="inlineStr">
+        <is>
+          <t>GYW-38</t>
+        </is>
+      </c>
+      <c r="C235" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D235" s="9" t="inlineStr">
+        <is>
+          <t>GYW,3/8 in. EHS (15,400 lbs)</t>
+        </is>
+      </c>
+      <c r="E235" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F235" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="G235" s="10" t="inlineStr"/>
+      <c r="H235" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="12" t="inlineStr">
+        <is>
+          <t>Point 06</t>
+        </is>
+      </c>
+      <c r="B236" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-D-S-C</t>
+        </is>
+      </c>
+      <c r="C236" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D236" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E236" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F236" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G236" s="13" t="inlineStr"/>
+      <c r="H236" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="9" t="inlineStr">
+        <is>
+          <t>Point 06</t>
+        </is>
+      </c>
+      <c r="B237" s="9" t="inlineStr">
         <is>
           <t>INS-15-P-S-C</t>
         </is>
       </c>
-      <c r="C182" s="9" t="inlineStr">
+      <c r="C237" s="9" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D182" s="9" t="inlineStr">
+      <c r="D237" s="9" t="inlineStr">
         <is>
           <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
-      <c r="E182" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F182" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G182" s="10" t="inlineStr"/>
-      <c r="H182" s="11" t="n">
-        <v>31.08</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="12" t="inlineStr">
+      <c r="E237" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F237" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G237" s="10" t="inlineStr"/>
+      <c r="H237" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="12" t="inlineStr">
         <is>
           <t>Point 06</t>
         </is>
       </c>
-      <c r="B183" s="12" t="inlineStr">
+      <c r="B238" s="12" t="inlineStr">
         <is>
           <t>PIN-15-PTP-K</t>
         </is>
       </c>
-      <c r="C183" s="12" t="inlineStr">
+      <c r="C238" s="12" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D183" s="12" t="inlineStr">
+      <c r="D238" s="12" t="inlineStr">
         <is>
           <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
-      <c r="E183" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F183" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G183" s="13" t="inlineStr"/>
-      <c r="H183" s="14" t="n">
-        <v>31.08</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="9" t="inlineStr">
+      <c r="E238" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F238" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G238" s="13" t="inlineStr"/>
+      <c r="H238" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="9" t="inlineStr">
         <is>
           <t>Point 06</t>
         </is>
       </c>
-      <c r="B184" s="9" t="inlineStr">
+      <c r="B239" s="9" t="inlineStr">
+        <is>
+          <t>PLD-EYE</t>
+        </is>
+      </c>
+      <c r="C239" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D239" s="9" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend</t>
+        </is>
+      </c>
+      <c r="E239" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F239" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G239" s="10" t="inlineStr"/>
+      <c r="H239" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="12" t="inlineStr">
+        <is>
+          <t>Point 06</t>
+        </is>
+      </c>
+      <c r="B240" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-5</t>
+        </is>
+      </c>
+      <c r="C240" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D240" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 5</t>
+        </is>
+      </c>
+      <c r="E240" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F240" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G240" s="13" t="inlineStr"/>
+      <c r="H240" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="9" t="inlineStr">
+        <is>
+          <t>Point 06</t>
+        </is>
+      </c>
+      <c r="B241" s="9" t="inlineStr">
         <is>
           <t>SAA-3-CV</t>
         </is>
       </c>
-      <c r="C184" s="9" t="inlineStr">
+      <c r="C241" s="9" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D184" s="9" t="inlineStr">
+      <c r="D241" s="9" t="inlineStr">
         <is>
           <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
-      <c r="E184" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F184" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G184" s="10" t="inlineStr"/>
-      <c r="H184" s="11" t="n">
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="12" t="inlineStr">
+      <c r="E241" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F241" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G241" s="10" t="inlineStr"/>
+      <c r="H241" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="12" t="inlineStr">
         <is>
           <t>Point 06</t>
         </is>
       </c>
-      <c r="B185" s="12" t="inlineStr">
+      <c r="B242" s="12" t="inlineStr">
         <is>
           <t>SAA-DE-20</t>
         </is>
       </c>
-      <c r="C185" s="12" t="inlineStr">
+      <c r="C242" s="12" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D185" s="12" t="inlineStr">
+      <c r="D242" s="12" t="inlineStr">
         <is>
           <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
-      <c r="E185" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F185" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G185" s="13" t="inlineStr"/>
-      <c r="H185" s="14" t="n">
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="9" t="inlineStr">
+      <c r="E242" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F242" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G242" s="13" t="inlineStr"/>
+      <c r="H242" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="9" t="inlineStr">
         <is>
           <t>Point 06</t>
         </is>
       </c>
-      <c r="B186" s="9" t="inlineStr">
+      <c r="B243" s="9" t="inlineStr">
         <is>
           <t>XCO-15-100-7</t>
         </is>
       </c>
-      <c r="C186" s="9" t="inlineStr">
+      <c r="C243" s="9" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D186" s="9" t="inlineStr">
+      <c r="D243" s="9" t="inlineStr">
         <is>
           <t>XCO,15kVPolymer,100 Amp,7kA</t>
         </is>
       </c>
-      <c r="E186" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F186" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G186" s="10" t="inlineStr"/>
-      <c r="H186" s="11" t="n">
-        <v>26.52</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="15" t="inlineStr">
+      <c r="E243" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F243" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G243" s="10" t="inlineStr"/>
+      <c r="H243" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H187" s="16" t="n">
-        <v>9610.820000000002</v>
+      <c r="H244" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A163:H163"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A244:G244"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A60:H60"/>
     <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A125:G125"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="A128:H128"/>
-    <mergeCell ref="A57:G57"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A187:G187"/>
+    <mergeCell ref="A71:G71"/>
+    <mergeCell ref="A160:G160"/>
+    <mergeCell ref="A74:H74"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>

--- a/generated_docs/WR_89830464_WeekEnding_080325.xlsx
+++ b/generated_docs/WR_89830464_WeekEnding_080325.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I244"/>
+  <dimension ref="A2:I187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:48 PM</t>
+          <t>Report Generated On: 08/26/2025 10:01 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>32318.87</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>218</v>
+        <v>161</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P146</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -765,7 +761,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>124.41</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +795,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>0</v>
+        <v>181.83</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +829,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>0</v>
+        <v>20.29</v>
       </c>
     </row>
     <row r="19">
@@ -867,7 +863,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="20">
@@ -878,7 +874,7 @@
       </c>
       <c r="B20" s="9" t="inlineStr">
         <is>
-          <t>GND-MD</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C20" s="9" t="inlineStr">
@@ -888,7 +884,7 @@
       </c>
       <c r="D20" s="9" t="inlineStr">
         <is>
-          <t>GND,Wire Mldg Only</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E20" s="9" t="inlineStr">
@@ -897,11 +893,11 @@
         </is>
       </c>
       <c r="F20" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="21">
@@ -912,7 +908,7 @@
       </c>
       <c r="B21" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C21" s="12" t="inlineStr">
@@ -922,7 +918,7 @@
       </c>
       <c r="D21" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E21" s="12" t="inlineStr">
@@ -935,7 +931,7 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="22">
@@ -946,7 +942,7 @@
       </c>
       <c r="B22" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C22" s="9" t="inlineStr">
@@ -956,7 +952,7 @@
       </c>
       <c r="D22" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E22" s="9" t="inlineStr">
@@ -969,7 +965,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="23">
@@ -980,7 +976,7 @@
       </c>
       <c r="B23" s="12" t="inlineStr">
         <is>
-          <t>PLD-EYE</t>
+          <t>SAA-DE-20</t>
         </is>
       </c>
       <c r="C23" s="12" t="inlineStr">
@@ -990,7 +986,7 @@
       </c>
       <c r="D23" s="12" t="inlineStr">
         <is>
-          <t>PLD,Eyebolt Deadend</t>
+          <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
       <c r="E23" s="12" t="inlineStr">
@@ -999,11 +995,11 @@
         </is>
       </c>
       <c r="F23" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>0</v>
+        <v>165.54</v>
       </c>
     </row>
     <row r="24">
@@ -1014,17 +1010,17 @@
       </c>
       <c r="B24" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>SVC-2-TP-ALA-RS</t>
         </is>
       </c>
       <c r="C24" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D24" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>SVC,#2 AWG,Trip,Alum/Aly Neut,Res</t>
         </is>
       </c>
       <c r="E24" s="9" t="inlineStr">
@@ -1033,11 +1029,11 @@
         </is>
       </c>
       <c r="F24" s="10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>0</v>
+        <v>1174.98</v>
       </c>
     </row>
     <row r="25">
@@ -1048,7 +1044,7 @@
       </c>
       <c r="B25" s="12" t="inlineStr">
         <is>
-          <t>SAA-DE-20</t>
+          <t>SVD-3-CV-C</t>
         </is>
       </c>
       <c r="C25" s="12" t="inlineStr">
@@ -1058,7 +1054,7 @@
       </c>
       <c r="D25" s="12" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0</t>
+          <t>SVD,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E25" s="12" t="inlineStr">
@@ -1067,11 +1063,11 @@
         </is>
       </c>
       <c r="F25" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="26">
@@ -1082,17 +1078,17 @@
       </c>
       <c r="B26" s="9" t="inlineStr">
         <is>
-          <t>SVC-2-TP-ALA-RS</t>
+          <t>SVD-SG2</t>
         </is>
       </c>
       <c r="C26" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D26" s="9" t="inlineStr">
         <is>
-          <t>SVC,#2 AWG,Trip,Alum/Aly Neut,Res</t>
+          <t>SVD,Service Grip,#2</t>
         </is>
       </c>
       <c r="E26" s="9" t="inlineStr">
@@ -1101,11 +1097,11 @@
         </is>
       </c>
       <c r="F26" s="10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>0</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="27">
@@ -1116,7 +1112,7 @@
       </c>
       <c r="B27" s="12" t="inlineStr">
         <is>
-          <t>SVC-VA</t>
+          <t>PLA-CUT</t>
         </is>
       </c>
       <c r="C27" s="12" t="inlineStr">
@@ -1126,7 +1122,7 @@
       </c>
       <c r="D27" s="12" t="inlineStr">
         <is>
-          <t>SVC-Virtual Asset Capitalization</t>
+          <t>PLA,Cut Off Pole Top</t>
         </is>
       </c>
       <c r="E27" s="12" t="inlineStr">
@@ -1135,32 +1131,32 @@
         </is>
       </c>
       <c r="F27" s="13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>0</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="9" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B28" s="9" t="inlineStr">
         <is>
-          <t>SVD-3-CV-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C28" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D28" s="9" t="inlineStr">
         <is>
-          <t>SVD,3 inch,Clevis,Corr</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E28" s="9" t="inlineStr">
@@ -1173,28 +1169,28 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="12" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B29" s="12" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C29" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E29" s="12" t="inlineStr">
@@ -1203,32 +1199,32 @@
         </is>
       </c>
       <c r="F29" s="13" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>PLA-CUT</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D30" s="9" t="inlineStr">
         <is>
-          <t>PLA,Cut Off Pole Top</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E30" s="9" t="inlineStr">
@@ -1237,11 +1233,11 @@
         </is>
       </c>
       <c r="F30" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>0</v>
+        <v>51.6</v>
       </c>
     </row>
     <row r="31">
@@ -1252,7 +1248,7 @@
       </c>
       <c r="B31" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SAA-DE-20</t>
         </is>
       </c>
       <c r="C31" s="12" t="inlineStr">
@@ -1262,7 +1258,7 @@
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
       <c r="E31" s="12" t="inlineStr">
@@ -1275,28 +1271,28 @@
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="9" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>ALB-W-18-A-1-F</t>
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D32" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>ALB,Wood mnt,18 in ,Alum,1Pos, Flood</t>
         </is>
       </c>
       <c r="E32" s="9" t="inlineStr">
@@ -1309,28 +1305,28 @@
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>0</v>
+        <v>118.38</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="12" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B33" s="12" t="inlineStr">
         <is>
-          <t>PLD-EYE</t>
+          <t>ALT-400-HFMSGL</t>
         </is>
       </c>
       <c r="C33" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>PLD,Eyebolt Deadend</t>
+          <t>400W MultiVolt MH Fldlt,Slipfit,Grey,Pul</t>
         </is>
       </c>
       <c r="E33" s="12" t="inlineStr">
@@ -1343,28 +1339,28 @@
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>0</v>
+        <v>128.82</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="9" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>POL-40-5</t>
+          <t>BKT-AC18-F</t>
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D34" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 5</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
         </is>
       </c>
       <c r="E34" s="9" t="inlineStr">
@@ -1373,32 +1369,32 @@
         </is>
       </c>
       <c r="F34" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>0</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="12" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B35" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>CND-S2O</t>
         </is>
       </c>
       <c r="C35" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D35" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>CND,Stirrup #2 Open</t>
         </is>
       </c>
       <c r="E35" s="12" t="inlineStr">
@@ -1407,32 +1403,32 @@
         </is>
       </c>
       <c r="F35" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G35" s="13" t="inlineStr"/>
       <c r="H35" s="14" t="n">
-        <v>0</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="9" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B36" s="9" t="inlineStr">
         <is>
-          <t>SAA-DE-20</t>
+          <t>EQL-1-4-C-2-S-X</t>
         </is>
       </c>
       <c r="C36" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D36" s="9" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
         </is>
       </c>
       <c r="E36" s="9" t="inlineStr">
@@ -1445,28 +1441,28 @@
       </c>
       <c r="G36" s="10" t="inlineStr"/>
       <c r="H36" s="11" t="n">
-        <v>0</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="12" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B37" s="12" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C37" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D37" s="12" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E37" s="12" t="inlineStr">
@@ -1475,11 +1471,11 @@
         </is>
       </c>
       <c r="F37" s="13" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G37" s="13" t="inlineStr"/>
       <c r="H37" s="14" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="38">
@@ -1490,17 +1486,17 @@
       </c>
       <c r="B38" s="9" t="inlineStr">
         <is>
-          <t>ALB-W-18-A-1-F</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C38" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D38" s="9" t="inlineStr">
         <is>
-          <t>ALB,Wood mnt,18 in ,Alum,1Pos, Flood</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E38" s="9" t="inlineStr">
@@ -1513,7 +1509,7 @@
       </c>
       <c r="G38" s="10" t="inlineStr"/>
       <c r="H38" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="39">
@@ -1524,17 +1520,17 @@
       </c>
       <c r="B39" s="12" t="inlineStr">
         <is>
-          <t>ALT-400-HFMSGL</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C39" s="12" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D39" s="12" t="inlineStr">
         <is>
-          <t>400W MultiVolt MH Fldlt,Slipfit,Grey,Pul</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E39" s="12" t="inlineStr">
@@ -1547,7 +1543,7 @@
       </c>
       <c r="G39" s="13" t="inlineStr"/>
       <c r="H39" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="40">
@@ -1558,7 +1554,7 @@
       </c>
       <c r="B40" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C40" s="9" t="inlineStr">
@@ -1568,7 +1564,7 @@
       </c>
       <c r="D40" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E40" s="9" t="inlineStr">
@@ -1581,7 +1577,7 @@
       </c>
       <c r="G40" s="10" t="inlineStr"/>
       <c r="H40" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="41">
@@ -1592,7 +1588,7 @@
       </c>
       <c r="B41" s="12" t="inlineStr">
         <is>
-          <t>CND-HLC2</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C41" s="12" t="inlineStr">
@@ -1602,7 +1598,7 @@
       </c>
       <c r="D41" s="12" t="inlineStr">
         <is>
-          <t>CND,Hot Line clamp #6-#2</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E41" s="12" t="inlineStr">
@@ -1611,11 +1607,11 @@
         </is>
       </c>
       <c r="F41" s="13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G41" s="13" t="inlineStr"/>
       <c r="H41" s="14" t="n">
-        <v>0</v>
+        <v>220.72</v>
       </c>
     </row>
     <row r="42">
@@ -1626,17 +1622,17 @@
       </c>
       <c r="B42" s="9" t="inlineStr">
         <is>
-          <t>CND-S2O</t>
+          <t>SVC-2-TP-ALA-RS</t>
         </is>
       </c>
       <c r="C42" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D42" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2 Open</t>
+          <t>SVC,#2 AWG,Trip,Alum/Aly Neut,Res</t>
         </is>
       </c>
       <c r="E42" s="9" t="inlineStr">
@@ -1645,11 +1641,11 @@
         </is>
       </c>
       <c r="F42" s="10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G42" s="10" t="inlineStr"/>
       <c r="H42" s="11" t="n">
-        <v>0</v>
+        <v>783.3200000000001</v>
       </c>
     </row>
     <row r="43">
@@ -1660,7 +1656,7 @@
       </c>
       <c r="B43" s="12" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X</t>
+          <t>SVD-3-CV-C</t>
         </is>
       </c>
       <c r="C43" s="12" t="inlineStr">
@@ -1670,7 +1666,7 @@
       </c>
       <c r="D43" s="12" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
+          <t>SVD,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E43" s="12" t="inlineStr">
@@ -1683,7 +1679,7 @@
       </c>
       <c r="G43" s="13" t="inlineStr"/>
       <c r="H43" s="14" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="44">
@@ -1694,7 +1690,7 @@
       </c>
       <c r="B44" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>PLA-CUT</t>
         </is>
       </c>
       <c r="C44" s="9" t="inlineStr">
@@ -1704,7 +1700,7 @@
       </c>
       <c r="D44" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>PLA,Cut Off Pole Top</t>
         </is>
       </c>
       <c r="E44" s="9" t="inlineStr">
@@ -1717,7 +1713,7 @@
       </c>
       <c r="G44" s="10" t="inlineStr"/>
       <c r="H44" s="11" t="n">
-        <v>0</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="45">
@@ -1728,7 +1724,7 @@
       </c>
       <c r="B45" s="12" t="inlineStr">
         <is>
-          <t>GND-MD</t>
+          <t>DEG-2-SNA</t>
         </is>
       </c>
       <c r="C45" s="12" t="inlineStr">
@@ -1738,7 +1734,7 @@
       </c>
       <c r="D45" s="12" t="inlineStr">
         <is>
-          <t>GND,Wire Mldg Only</t>
+          <t>DEG,#2,Secondary Neutral Al</t>
         </is>
       </c>
       <c r="E45" s="12" t="inlineStr">
@@ -1747,11 +1743,11 @@
         </is>
       </c>
       <c r="F45" s="13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G45" s="13" t="inlineStr"/>
       <c r="H45" s="14" t="n">
-        <v>0</v>
+        <v>1717.5</v>
       </c>
     </row>
     <row r="46">
@@ -1762,7 +1758,7 @@
       </c>
       <c r="B46" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>XCO-15-100-7</t>
         </is>
       </c>
       <c r="C46" s="9" t="inlineStr">
@@ -1772,7 +1768,7 @@
       </c>
       <c r="D46" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
         </is>
       </c>
       <c r="E46" s="9" t="inlineStr">
@@ -1785,7 +1781,7 @@
       </c>
       <c r="G46" s="10" t="inlineStr"/>
       <c r="H46" s="11" t="n">
-        <v>0</v>
+        <v>62.42</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1792,7 @@
       </c>
       <c r="B47" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>XFR-25-72-120-1B</t>
         </is>
       </c>
       <c r="C47" s="12" t="inlineStr">
@@ -1806,7 +1802,7 @@
       </c>
       <c r="D47" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG</t>
         </is>
       </c>
       <c r="E47" s="12" t="inlineStr">
@@ -1819,28 +1815,28 @@
       </c>
       <c r="G47" s="13" t="inlineStr"/>
       <c r="H47" s="14" t="n">
-        <v>0</v>
+        <v>234</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B48" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>BKT-AC18-F</t>
         </is>
       </c>
       <c r="C48" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D48" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
         </is>
       </c>
       <c r="E48" s="9" t="inlineStr">
@@ -1853,28 +1849,28 @@
       </c>
       <c r="G48" s="10" t="inlineStr"/>
       <c r="H48" s="11" t="n">
-        <v>0</v>
+        <v>17.37</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B49" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>CND-S2O</t>
         </is>
       </c>
       <c r="C49" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D49" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>CND,Stirrup #2 Open</t>
         </is>
       </c>
       <c r="E49" s="12" t="inlineStr">
@@ -1883,32 +1879,32 @@
         </is>
       </c>
       <c r="F49" s="13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G49" s="13" t="inlineStr"/>
       <c r="H49" s="14" t="n">
-        <v>0</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B50" s="9" t="inlineStr">
         <is>
-          <t>SVC-2-TP-ALA-RS</t>
+          <t>DEC-20AL</t>
         </is>
       </c>
       <c r="C50" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D50" s="9" t="inlineStr">
         <is>
-          <t>SVC,#2 AWG,Trip,Alum/Aly Neut,Res</t>
+          <t>DEC,#4 - #2/0 AA,AL,AS</t>
         </is>
       </c>
       <c r="E50" s="9" t="inlineStr">
@@ -1917,32 +1913,32 @@
         </is>
       </c>
       <c r="F50" s="10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G50" s="10" t="inlineStr"/>
       <c r="H50" s="11" t="n">
-        <v>0</v>
+        <v>190.3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B51" s="12" t="inlineStr">
         <is>
-          <t>SVC-VA</t>
+          <t>EQL-1-4-C-2-S-X</t>
         </is>
       </c>
       <c r="C51" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D51" s="12" t="inlineStr">
         <is>
-          <t>SVC-Virtual Asset Capitalization</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
         </is>
       </c>
       <c r="E51" s="12" t="inlineStr">
@@ -1951,32 +1947,32 @@
         </is>
       </c>
       <c r="F51" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G51" s="13" t="inlineStr"/>
       <c r="H51" s="14" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B52" s="9" t="inlineStr">
         <is>
-          <t>SVD-3-CV-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C52" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D52" s="9" t="inlineStr">
         <is>
-          <t>SVD,3 inch,Clevis,Corr</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E52" s="9" t="inlineStr">
@@ -1989,28 +1985,28 @@
       </c>
       <c r="G52" s="10" t="inlineStr"/>
       <c r="H52" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B53" s="12" t="inlineStr">
         <is>
-          <t>PLA-CUT</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C53" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D53" s="12" t="inlineStr">
         <is>
-          <t>PLA,Cut Off Pole Top</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E53" s="12" t="inlineStr">
@@ -2023,28 +2019,28 @@
       </c>
       <c r="G53" s="13" t="inlineStr"/>
       <c r="H53" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B54" s="9" t="inlineStr">
         <is>
-          <t>DEG-2-SNA</t>
+          <t>SAA-DE-20</t>
         </is>
       </c>
       <c r="C54" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D54" s="9" t="inlineStr">
         <is>
-          <t>DEG,#2,Secondary Neutral Al</t>
+          <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
       <c r="E54" s="9" t="inlineStr">
@@ -2053,17 +2049,17 @@
         </is>
       </c>
       <c r="F54" s="10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G54" s="10" t="inlineStr"/>
       <c r="H54" s="11" t="n">
-        <v>0</v>
+        <v>68.8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B55" s="12" t="inlineStr">
@@ -2073,7 +2069,7 @@
       </c>
       <c r="C55" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D55" s="12" t="inlineStr">
@@ -2091,13 +2087,13 @@
       </c>
       <c r="G55" s="13" t="inlineStr"/>
       <c r="H55" s="14" t="n">
-        <v>0</v>
+        <v>26.52</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B56" s="9" t="inlineStr">
@@ -2107,7 +2103,7 @@
       </c>
       <c r="C56" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D56" s="9" t="inlineStr">
@@ -2125,198 +2121,87 @@
       </c>
       <c r="G56" s="10" t="inlineStr"/>
       <c r="H56" s="11" t="n">
-        <v>0</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="12" t="inlineStr">
-        <is>
-          <t>Point 12</t>
-        </is>
-      </c>
-      <c r="B57" s="12" t="inlineStr">
-        <is>
-          <t>BKT-AC18-F</t>
-        </is>
-      </c>
-      <c r="C57" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D57" s="12" t="inlineStr">
-        <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
-        </is>
-      </c>
-      <c r="E57" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F57" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G57" s="13" t="inlineStr"/>
-      <c r="H57" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="9" t="inlineStr">
-        <is>
-          <t>Point 12</t>
-        </is>
-      </c>
-      <c r="B58" s="9" t="inlineStr">
-        <is>
-          <t>CND-HLC2</t>
-        </is>
-      </c>
-      <c r="C58" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D58" s="9" t="inlineStr">
-        <is>
-          <t>CND,Hot Line clamp #6-#2</t>
-        </is>
-      </c>
-      <c r="E58" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F58" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G58" s="10" t="inlineStr"/>
-      <c r="H58" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="12" t="inlineStr">
-        <is>
-          <t>Point 12</t>
-        </is>
-      </c>
-      <c r="B59" s="12" t="inlineStr">
-        <is>
-          <t>CND-S2O</t>
-        </is>
-      </c>
-      <c r="C59" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D59" s="12" t="inlineStr">
-        <is>
-          <t>CND,Stirrup #2 Open</t>
-        </is>
-      </c>
-      <c r="E59" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F59" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G59" s="13" t="inlineStr"/>
-      <c r="H59" s="14" t="n">
-        <v>0</v>
+      <c r="A57" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H57" s="16" t="n">
+        <v>10379.77</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="9" t="inlineStr">
-        <is>
-          <t>Point 12</t>
-        </is>
-      </c>
-      <c r="B60" s="9" t="inlineStr">
-        <is>
-          <t>DEC-20AL</t>
-        </is>
-      </c>
-      <c r="C60" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D60" s="9" t="inlineStr">
-        <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS</t>
-        </is>
-      </c>
-      <c r="E60" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F60" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G60" s="10" t="inlineStr"/>
-      <c r="H60" s="11" t="n">
-        <v>0</v>
+      <c r="A60" s="7" t="inlineStr">
+        <is>
+          <t>Tuesday (07/29/2025)</t>
+        </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="12" t="inlineStr">
-        <is>
-          <t>Point 12</t>
-        </is>
-      </c>
-      <c r="B61" s="12" t="inlineStr">
-        <is>
-          <t>EQL-1-4-C-2-S-X</t>
-        </is>
-      </c>
-      <c r="C61" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D61" s="12" t="inlineStr">
-        <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
-        </is>
-      </c>
-      <c r="E61" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F61" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G61" s="13" t="inlineStr"/>
-      <c r="H61" s="14" t="n">
-        <v>0</v>
+      <c r="A61" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B61" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D61" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E61" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F61" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G61" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H61" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="9" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B62" s="9" t="inlineStr">
         <is>
-          <t>INS-15-D-S-C</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C62" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D62" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Deadend,Polymer,Corr</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E62" s="9" t="inlineStr">
@@ -2325,32 +2210,32 @@
         </is>
       </c>
       <c r="F62" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G62" s="10" t="inlineStr"/>
       <c r="H62" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="12" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B63" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SVC-2-TP-ALA-RS</t>
         </is>
       </c>
       <c r="C63" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Trans</t>
         </is>
       </c>
       <c r="D63" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SVC,#2 AWG,Trip,Alum/Aly Neut,Res</t>
         </is>
       </c>
       <c r="E63" s="12" t="inlineStr">
@@ -2359,32 +2244,32 @@
         </is>
       </c>
       <c r="F63" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G63" s="13" t="inlineStr"/>
       <c r="H63" s="14" t="n">
-        <v>0</v>
+        <v>391.66</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="9" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B64" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>SVC-10-TP-AAA-RS</t>
         </is>
       </c>
       <c r="C64" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Trans</t>
         </is>
       </c>
       <c r="D64" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>SVC,1/0,Trip,All Alum,Res</t>
         </is>
       </c>
       <c r="E64" s="9" t="inlineStr">
@@ -2397,28 +2282,28 @@
       </c>
       <c r="G64" s="10" t="inlineStr"/>
       <c r="H64" s="11" t="n">
-        <v>0</v>
+        <v>195.83</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="12" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B65" s="12" t="inlineStr">
         <is>
-          <t>PLD-EYE</t>
+          <t>CNC-HTA-10</t>
         </is>
       </c>
       <c r="C65" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D65" s="12" t="inlineStr">
         <is>
-          <t>PLD,Eyebolt Deadend</t>
+          <t>Compression connector H-Tap Assembly 1/0</t>
         </is>
       </c>
       <c r="E65" s="12" t="inlineStr">
@@ -2427,32 +2312,32 @@
         </is>
       </c>
       <c r="F65" s="13" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G65" s="13" t="inlineStr"/>
       <c r="H65" s="14" t="n">
-        <v>0</v>
+        <v>162.69</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="9" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B66" s="9" t="inlineStr">
         <is>
-          <t>POL-40-5</t>
+          <t>SVC-2-TP-AAA-RS</t>
         </is>
       </c>
       <c r="C66" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Trans</t>
         </is>
       </c>
       <c r="D66" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 5</t>
+          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
         </is>
       </c>
       <c r="E66" s="9" t="inlineStr">
@@ -2461,32 +2346,32 @@
         </is>
       </c>
       <c r="F66" s="10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G66" s="10" t="inlineStr"/>
       <c r="H66" s="11" t="n">
-        <v>0</v>
+        <v>587.49</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="12" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B67" s="12" t="inlineStr">
         <is>
-          <t>SAA-DE-20</t>
+          <t>SVC-10-TP-AAA-RS</t>
         </is>
       </c>
       <c r="C67" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Trans</t>
         </is>
       </c>
       <c r="D67" s="12" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0</t>
+          <t>SVC,1/0,Trip,All Alum,Res</t>
         </is>
       </c>
       <c r="E67" s="12" t="inlineStr">
@@ -2495,32 +2380,32 @@
         </is>
       </c>
       <c r="F67" s="13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G67" s="13" t="inlineStr"/>
       <c r="H67" s="14" t="n">
-        <v>0</v>
+        <v>195.83</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="9" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B68" s="9" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>CNC-HTA-10</t>
         </is>
       </c>
       <c r="C68" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D68" s="9" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>Compression connector H-Tap Assembly 1/0</t>
         </is>
       </c>
       <c r="E68" s="9" t="inlineStr">
@@ -2529,32 +2414,32 @@
         </is>
       </c>
       <c r="F68" s="10" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G68" s="10" t="inlineStr"/>
       <c r="H68" s="11" t="n">
-        <v>0</v>
+        <v>172.26</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="12" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B69" s="12" t="inlineStr">
         <is>
-          <t>XCO-15-100-7</t>
+          <t>CNC-HTA-10</t>
         </is>
       </c>
       <c r="C69" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D69" s="12" t="inlineStr">
         <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+          <t>Compression connector H-Tap Assembly 1/0</t>
         </is>
       </c>
       <c r="E69" s="12" t="inlineStr">
@@ -2563,32 +2448,32 @@
         </is>
       </c>
       <c r="F69" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G69" s="13" t="inlineStr"/>
       <c r="H69" s="14" t="n">
-        <v>0</v>
+        <v>28.71</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="9" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B70" s="9" t="inlineStr">
         <is>
-          <t>XFR-25-72-120-1B</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C70" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D70" s="9" t="inlineStr">
         <is>
-          <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E70" s="9" t="inlineStr">
@@ -2601,87 +2486,198 @@
       </c>
       <c r="G70" s="10" t="inlineStr"/>
       <c r="H70" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H71" s="16" t="n">
-        <v>0</v>
+      <c r="A71" s="12" t="inlineStr">
+        <is>
+          <t>Point 03</t>
+        </is>
+      </c>
+      <c r="B71" s="12" t="inlineStr">
+        <is>
+          <t>PLA-CUT</t>
+        </is>
+      </c>
+      <c r="C71" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D71" s="12" t="inlineStr">
+        <is>
+          <t>PLA,Cut Off Pole Top</t>
+        </is>
+      </c>
+      <c r="E71" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F71" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" s="13" t="inlineStr"/>
+      <c r="H71" s="14" t="n">
+        <v>216.17</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="9" t="inlineStr">
+        <is>
+          <t>Point 03</t>
+        </is>
+      </c>
+      <c r="B72" s="9" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C72" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D72" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E72" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F72" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G72" s="10" t="inlineStr"/>
+      <c r="H72" s="11" t="n">
+        <v>648.53</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="12" t="inlineStr">
+        <is>
+          <t>Point 03</t>
+        </is>
+      </c>
+      <c r="B73" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C73" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D73" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E73" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F73" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" s="13" t="inlineStr"/>
+      <c r="H73" s="14" t="n">
+        <v>478.55</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="7" t="inlineStr">
-        <is>
-          <t>Tuesday (07/29/2025)</t>
-        </is>
+      <c r="A74" s="9" t="inlineStr">
+        <is>
+          <t>Point 03</t>
+        </is>
+      </c>
+      <c r="B74" s="9" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C74" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D74" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E74" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F74" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" s="10" t="inlineStr"/>
+      <c r="H74" s="11" t="n">
+        <v>648.53</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B75" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C75" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D75" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E75" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F75" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G75" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H75" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
+      <c r="A75" s="12" t="inlineStr">
+        <is>
+          <t>Point 04</t>
+        </is>
+      </c>
+      <c r="B75" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C75" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D75" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E75" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F75" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" s="13" t="inlineStr"/>
+      <c r="H75" s="14" t="n">
+        <v>31.08</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="9" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 04</t>
         </is>
       </c>
       <c r="B76" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C76" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D76" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E76" s="9" t="inlineStr">
@@ -2694,28 +2690,28 @@
       </c>
       <c r="G76" s="10" t="inlineStr"/>
       <c r="H76" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="12" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 04</t>
         </is>
       </c>
       <c r="B77" s="12" t="inlineStr">
         <is>
-          <t>SVC-2-TP-ALA-RS</t>
+          <t>SAA-CL-336</t>
         </is>
       </c>
       <c r="C77" s="12" t="inlineStr">
         <is>
-          <t>Trans</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D77" s="12" t="inlineStr">
         <is>
-          <t>SVC,#2 AWG,Trip,Alum/Aly Neut,Res</t>
+          <t>SAA,Susp Clamp Light Angle,336</t>
         </is>
       </c>
       <c r="E77" s="12" t="inlineStr">
@@ -2724,32 +2720,32 @@
         </is>
       </c>
       <c r="F77" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G77" s="13" t="inlineStr"/>
       <c r="H77" s="14" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 04</t>
         </is>
       </c>
       <c r="B78" s="9" t="inlineStr">
         <is>
-          <t>SVC-10-TP-AAA-RS</t>
+          <t>SAA-DE-20</t>
         </is>
       </c>
       <c r="C78" s="9" t="inlineStr">
         <is>
-          <t>Trans</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D78" s="9" t="inlineStr">
         <is>
-          <t>SVC,1/0,Trip,All Alum,Res</t>
+          <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
       <c r="E78" s="9" t="inlineStr">
@@ -2762,7 +2758,7 @@
       </c>
       <c r="G78" s="10" t="inlineStr"/>
       <c r="H78" s="11" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="79">
@@ -2773,7 +2769,7 @@
       </c>
       <c r="B79" s="12" t="inlineStr">
         <is>
-          <t>CNC-HTA-10</t>
+          <t>DEG-2-SNA</t>
         </is>
       </c>
       <c r="C79" s="12" t="inlineStr">
@@ -2783,7 +2779,7 @@
       </c>
       <c r="D79" s="12" t="inlineStr">
         <is>
-          <t>Compression connector H-Tap Assembly 1/0</t>
+          <t>DEG,#2,Secondary Neutral Al</t>
         </is>
       </c>
       <c r="E79" s="12" t="inlineStr">
@@ -2792,32 +2788,32 @@
         </is>
       </c>
       <c r="F79" s="13" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G79" s="13" t="inlineStr"/>
       <c r="H79" s="14" t="n">
-        <v>0</v>
+        <v>858.75</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="9" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B80" s="9" t="inlineStr">
         <is>
-          <t>SVC-2-TP-AAA-RS</t>
+          <t>ALT-LED-DD-T5-5L-SF</t>
         </is>
       </c>
       <c r="C80" s="9" t="inlineStr">
         <is>
-          <t>Trans</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D80" s="9" t="inlineStr">
         <is>
-          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
+          <t>5200L LED, Type 5, Dusk to Dawn</t>
         </is>
       </c>
       <c r="E80" s="9" t="inlineStr">
@@ -2826,32 +2822,32 @@
         </is>
       </c>
       <c r="F80" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G80" s="10" t="inlineStr"/>
       <c r="H80" s="11" t="n">
-        <v>0</v>
+        <v>128.82</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="12" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B81" s="12" t="inlineStr">
         <is>
-          <t>SVC-10-TP-AAA-RS</t>
+          <t>BKT-AC18-F</t>
         </is>
       </c>
       <c r="C81" s="12" t="inlineStr">
         <is>
-          <t>Trans</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D81" s="12" t="inlineStr">
         <is>
-          <t>SVC,1/0,Trip,All Alum,Res</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
         </is>
       </c>
       <c r="E81" s="12" t="inlineStr">
@@ -2864,18 +2860,18 @@
       </c>
       <c r="G81" s="13" t="inlineStr"/>
       <c r="H81" s="14" t="n">
-        <v>0</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="9" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B82" s="9" t="inlineStr">
         <is>
-          <t>CNC-HTA-10</t>
+          <t>CND-S2O</t>
         </is>
       </c>
       <c r="C82" s="9" t="inlineStr">
@@ -2885,7 +2881,7 @@
       </c>
       <c r="D82" s="9" t="inlineStr">
         <is>
-          <t>Compression connector H-Tap Assembly 1/0</t>
+          <t>CND,Stirrup #2 Open</t>
         </is>
       </c>
       <c r="E82" s="9" t="inlineStr">
@@ -2894,22 +2890,22 @@
         </is>
       </c>
       <c r="F82" s="10" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G82" s="10" t="inlineStr"/>
       <c r="H82" s="11" t="n">
-        <v>0</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="12" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B83" s="12" t="inlineStr">
         <is>
-          <t>CNC-HTA-10</t>
+          <t>EQL-1-4-C-20-S-X</t>
         </is>
       </c>
       <c r="C83" s="12" t="inlineStr">
@@ -2919,7 +2915,7 @@
       </c>
       <c r="D83" s="12" t="inlineStr">
         <is>
-          <t>Compression connector H-Tap Assembly 1/0</t>
+          <t>EQL,1 Ph,#4,CU Sol,2/0,CU Str,Xfr</t>
         </is>
       </c>
       <c r="E83" s="12" t="inlineStr">
@@ -2928,22 +2924,22 @@
         </is>
       </c>
       <c r="F83" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G83" s="13" t="inlineStr"/>
       <c r="H83" s="14" t="n">
-        <v>0</v>
+        <v>223</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="9" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B84" s="9" t="inlineStr">
         <is>
-          <t>GND-MD</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C84" s="9" t="inlineStr">
@@ -2953,7 +2949,7 @@
       </c>
       <c r="D84" s="9" t="inlineStr">
         <is>
-          <t>GND,Wire Mldg Only</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E84" s="9" t="inlineStr">
@@ -2962,17 +2958,17 @@
         </is>
       </c>
       <c r="F84" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G84" s="10" t="inlineStr"/>
       <c r="H84" s="11" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="12" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B85" s="12" t="inlineStr">
@@ -3000,18 +2996,18 @@
       </c>
       <c r="G85" s="13" t="inlineStr"/>
       <c r="H85" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="9" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B86" s="9" t="inlineStr">
         <is>
-          <t>PLA-CUT</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C86" s="9" t="inlineStr">
@@ -3021,7 +3017,7 @@
       </c>
       <c r="D86" s="9" t="inlineStr">
         <is>
-          <t>PLA,Cut Off Pole Top</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E86" s="9" t="inlineStr">
@@ -3034,18 +3030,18 @@
       </c>
       <c r="G86" s="10" t="inlineStr"/>
       <c r="H86" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="12" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B87" s="12" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C87" s="12" t="inlineStr">
@@ -3055,7 +3051,7 @@
       </c>
       <c r="D87" s="12" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E87" s="12" t="inlineStr">
@@ -3068,18 +3064,18 @@
       </c>
       <c r="G87" s="13" t="inlineStr"/>
       <c r="H87" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="9" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B88" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>PLA-CUT</t>
         </is>
       </c>
       <c r="C88" s="9" t="inlineStr">
@@ -3089,7 +3085,7 @@
       </c>
       <c r="D88" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>PLA,Cut Off Pole Top</t>
         </is>
       </c>
       <c r="E88" s="9" t="inlineStr">
@@ -3102,18 +3098,18 @@
       </c>
       <c r="G88" s="10" t="inlineStr"/>
       <c r="H88" s="11" t="n">
-        <v>0</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="12" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B89" s="12" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>SAA-DE-20</t>
         </is>
       </c>
       <c r="C89" s="12" t="inlineStr">
@@ -3123,7 +3119,7 @@
       </c>
       <c r="D89" s="12" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
       <c r="E89" s="12" t="inlineStr">
@@ -3132,22 +3128,22 @@
         </is>
       </c>
       <c r="F89" s="13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G89" s="13" t="inlineStr"/>
       <c r="H89" s="14" t="n">
-        <v>0</v>
+        <v>220.72</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="9" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B90" s="9" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C90" s="9" t="inlineStr">
@@ -3157,7 +3153,7 @@
       </c>
       <c r="D90" s="9" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E90" s="9" t="inlineStr">
@@ -3166,32 +3162,32 @@
         </is>
       </c>
       <c r="F90" s="10" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G90" s="10" t="inlineStr"/>
       <c r="H90" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="12" t="inlineStr">
         <is>
-          <t>Point 04</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B91" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>XCO-15-100-7</t>
         </is>
       </c>
       <c r="C91" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D91" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
         </is>
       </c>
       <c r="E91" s="12" t="inlineStr">
@@ -3204,28 +3200,28 @@
       </c>
       <c r="G91" s="13" t="inlineStr"/>
       <c r="H91" s="14" t="n">
-        <v>0</v>
+        <v>62.42</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="9" t="inlineStr">
         <is>
-          <t>Point 04</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B92" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>XFR-50-72-120-1B</t>
         </is>
       </c>
       <c r="C92" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D92" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>XFR,50KVA,7.2/12.4kVY,120/240,1BG</t>
         </is>
       </c>
       <c r="E92" s="9" t="inlineStr">
@@ -3238,18 +3234,18 @@
       </c>
       <c r="G92" s="10" t="inlineStr"/>
       <c r="H92" s="11" t="n">
-        <v>0</v>
+        <v>203</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="12" t="inlineStr">
         <is>
-          <t>Point 04</t>
+          <t>Point 20</t>
         </is>
       </c>
       <c r="B93" s="12" t="inlineStr">
         <is>
-          <t>PLD-EYE</t>
+          <t>BKT-AC18-F</t>
         </is>
       </c>
       <c r="C93" s="12" t="inlineStr">
@@ -3259,7 +3255,7 @@
       </c>
       <c r="D93" s="12" t="inlineStr">
         <is>
-          <t>PLD,Eyebolt Deadend</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
         </is>
       </c>
       <c r="E93" s="12" t="inlineStr">
@@ -3268,22 +3264,22 @@
         </is>
       </c>
       <c r="F93" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G93" s="13" t="inlineStr"/>
       <c r="H93" s="14" t="n">
-        <v>0</v>
+        <v>17.37</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="9" t="inlineStr">
         <is>
-          <t>Point 04</t>
+          <t>Point 20</t>
         </is>
       </c>
       <c r="B94" s="9" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>CND-S2O</t>
         </is>
       </c>
       <c r="C94" s="9" t="inlineStr">
@@ -3293,7 +3289,7 @@
       </c>
       <c r="D94" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>CND,Stirrup #2 Open</t>
         </is>
       </c>
       <c r="E94" s="9" t="inlineStr">
@@ -3302,22 +3298,22 @@
         </is>
       </c>
       <c r="F94" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" s="10" t="inlineStr"/>
       <c r="H94" s="11" t="n">
-        <v>0</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="12" t="inlineStr">
         <is>
-          <t>Point 04</t>
+          <t>Point 20</t>
         </is>
       </c>
       <c r="B95" s="12" t="inlineStr">
         <is>
-          <t>SAA-CL-336</t>
+          <t>DEC-20AL</t>
         </is>
       </c>
       <c r="C95" s="12" t="inlineStr">
@@ -3327,7 +3323,7 @@
       </c>
       <c r="D95" s="12" t="inlineStr">
         <is>
-          <t>SAA,Susp Clamp Light Angle,336</t>
+          <t>DEC,#4 - #2/0 AA,AL,AS</t>
         </is>
       </c>
       <c r="E95" s="12" t="inlineStr">
@@ -3336,22 +3332,22 @@
         </is>
       </c>
       <c r="F95" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G95" s="13" t="inlineStr"/>
       <c r="H95" s="14" t="n">
-        <v>0</v>
+        <v>190.3</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="9" t="inlineStr">
         <is>
-          <t>Point 04</t>
+          <t>Point 20</t>
         </is>
       </c>
       <c r="B96" s="9" t="inlineStr">
         <is>
-          <t>SAA-DE-20</t>
+          <t>DEG-10-SNA</t>
         </is>
       </c>
       <c r="C96" s="9" t="inlineStr">
@@ -3361,7 +3357,7 @@
       </c>
       <c r="D96" s="9" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0</t>
+          <t>DEG,1/0,Secondary Neutral Al</t>
         </is>
       </c>
       <c r="E96" s="9" t="inlineStr">
@@ -3370,22 +3366,22 @@
         </is>
       </c>
       <c r="F96" s="10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G96" s="10" t="inlineStr"/>
       <c r="H96" s="11" t="n">
-        <v>0</v>
+        <v>380.6</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="12" t="inlineStr">
         <is>
-          <t>Point 04</t>
+          <t>Point 20</t>
         </is>
       </c>
       <c r="B97" s="12" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>EQL-1-4-C-2-S-X</t>
         </is>
       </c>
       <c r="C97" s="12" t="inlineStr">
@@ -3395,7 +3391,7 @@
       </c>
       <c r="D97" s="12" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
         </is>
       </c>
       <c r="E97" s="12" t="inlineStr">
@@ -3404,32 +3400,32 @@
         </is>
       </c>
       <c r="F97" s="13" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G97" s="13" t="inlineStr"/>
       <c r="H97" s="14" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 20</t>
         </is>
       </c>
       <c r="B98" s="9" t="inlineStr">
         <is>
-          <t>DEG-2-SNA</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C98" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D98" s="9" t="inlineStr">
         <is>
-          <t>DEG,#2,Secondary Neutral Al</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E98" s="9" t="inlineStr">
@@ -3438,32 +3434,32 @@
         </is>
       </c>
       <c r="F98" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G98" s="10" t="inlineStr"/>
       <c r="H98" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="12" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 20</t>
         </is>
       </c>
       <c r="B99" s="12" t="inlineStr">
         <is>
-          <t>ALT-LED-DD-T5-5L-SF</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C99" s="12" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D99" s="12" t="inlineStr">
         <is>
-          <t>5200L LED, Type 5, Dusk to Dawn</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E99" s="12" t="inlineStr">
@@ -3476,28 +3472,28 @@
       </c>
       <c r="G99" s="13" t="inlineStr"/>
       <c r="H99" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 20</t>
         </is>
       </c>
       <c r="B100" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C100" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D100" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E100" s="9" t="inlineStr">
@@ -3506,32 +3502,32 @@
         </is>
       </c>
       <c r="F100" s="10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G100" s="10" t="inlineStr"/>
       <c r="H100" s="11" t="n">
-        <v>0</v>
+        <v>68.8</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="12" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 20</t>
         </is>
       </c>
       <c r="B101" s="12" t="inlineStr">
         <is>
-          <t>CND-HLC2</t>
+          <t>XCO-15-100-7</t>
         </is>
       </c>
       <c r="C101" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D101" s="12" t="inlineStr">
         <is>
-          <t>CND,Hot Line clamp #6-#2</t>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
         </is>
       </c>
       <c r="E101" s="12" t="inlineStr">
@@ -3544,28 +3540,28 @@
       </c>
       <c r="G101" s="13" t="inlineStr"/>
       <c r="H101" s="14" t="n">
-        <v>0</v>
+        <v>26.52</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B102" s="9" t="inlineStr">
         <is>
-          <t>CND-S2O</t>
+          <t>BKT-AC18-F</t>
         </is>
       </c>
       <c r="C102" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D102" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2 Open</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
         </is>
       </c>
       <c r="E102" s="9" t="inlineStr">
@@ -3578,18 +3574,18 @@
       </c>
       <c r="G102" s="10" t="inlineStr"/>
       <c r="H102" s="11" t="n">
-        <v>0</v>
+        <v>38.51</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="12" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B103" s="12" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-20-S-X</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C103" s="12" t="inlineStr">
@@ -3599,7 +3595,7 @@
       </c>
       <c r="D103" s="12" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,2/0,CU Str,Xfr</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E103" s="12" t="inlineStr">
@@ -3612,18 +3608,18 @@
       </c>
       <c r="G103" s="13" t="inlineStr"/>
       <c r="H103" s="14" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B104" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>CND-S2O</t>
         </is>
       </c>
       <c r="C104" s="9" t="inlineStr">
@@ -3633,7 +3629,7 @@
       </c>
       <c r="D104" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>CND,Stirrup #2 Open</t>
         </is>
       </c>
       <c r="E104" s="9" t="inlineStr">
@@ -3646,28 +3642,28 @@
       </c>
       <c r="G104" s="10" t="inlineStr"/>
       <c r="H104" s="11" t="n">
-        <v>0</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="12" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B105" s="12" t="inlineStr">
         <is>
-          <t>GND-LG-AL</t>
+          <t>DEG-2-SNA</t>
         </is>
       </c>
       <c r="C105" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D105" s="12" t="inlineStr">
         <is>
-          <t>GND,Lug,Area Lt</t>
+          <t>DEG,#2,Secondary Neutral Al</t>
         </is>
       </c>
       <c r="E105" s="12" t="inlineStr">
@@ -3680,18 +3676,18 @@
       </c>
       <c r="G105" s="13" t="inlineStr"/>
       <c r="H105" s="14" t="n">
-        <v>0</v>
+        <v>72.64</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B106" s="9" t="inlineStr">
         <is>
-          <t>GND-MD</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C106" s="9" t="inlineStr">
@@ -3701,7 +3697,7 @@
       </c>
       <c r="D106" s="9" t="inlineStr">
         <is>
-          <t>GND,Wire Mldg Only</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E106" s="9" t="inlineStr">
@@ -3710,22 +3706,22 @@
         </is>
       </c>
       <c r="F106" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G106" s="10" t="inlineStr"/>
       <c r="H106" s="11" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="12" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B107" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PLA-CUT</t>
         </is>
       </c>
       <c r="C107" s="12" t="inlineStr">
@@ -3735,7 +3731,7 @@
       </c>
       <c r="D107" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>PLA,Cut Off Pole Top</t>
         </is>
       </c>
       <c r="E107" s="12" t="inlineStr">
@@ -3748,18 +3744,18 @@
       </c>
       <c r="G107" s="13" t="inlineStr"/>
       <c r="H107" s="14" t="n">
-        <v>0</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B108" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C108" s="9" t="inlineStr">
@@ -3769,7 +3765,7 @@
       </c>
       <c r="D108" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E108" s="9" t="inlineStr">
@@ -3782,18 +3778,18 @@
       </c>
       <c r="G108" s="10" t="inlineStr"/>
       <c r="H108" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="12" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B109" s="12" t="inlineStr">
         <is>
-          <t>PLD-EYE</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C109" s="12" t="inlineStr">
@@ -3803,7 +3799,7 @@
       </c>
       <c r="D109" s="12" t="inlineStr">
         <is>
-          <t>PLD,Eyebolt Deadend</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E109" s="12" t="inlineStr">
@@ -3816,13 +3812,13 @@
       </c>
       <c r="G109" s="13" t="inlineStr"/>
       <c r="H109" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B110" s="9" t="inlineStr">
@@ -3850,18 +3846,18 @@
       </c>
       <c r="G110" s="10" t="inlineStr"/>
       <c r="H110" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="12" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B111" s="12" t="inlineStr">
         <is>
-          <t>PLA-CUT</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C111" s="12" t="inlineStr">
@@ -3871,7 +3867,7 @@
       </c>
       <c r="D111" s="12" t="inlineStr">
         <is>
-          <t>PLA,Cut Off Pole Top</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E111" s="12" t="inlineStr">
@@ -3880,17 +3876,17 @@
         </is>
       </c>
       <c r="F111" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G111" s="13" t="inlineStr"/>
       <c r="H111" s="14" t="n">
-        <v>0</v>
+        <v>110.36</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B112" s="9" t="inlineStr">
@@ -3914,22 +3910,22 @@
         </is>
       </c>
       <c r="F112" s="10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G112" s="10" t="inlineStr"/>
       <c r="H112" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="12" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B113" s="12" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>SVD-3-CV-C</t>
         </is>
       </c>
       <c r="C113" s="12" t="inlineStr">
@@ -3939,7 +3935,7 @@
       </c>
       <c r="D113" s="12" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>SVD,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E113" s="12" t="inlineStr">
@@ -3952,18 +3948,18 @@
       </c>
       <c r="G113" s="13" t="inlineStr"/>
       <c r="H113" s="14" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B114" s="9" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>SVD-SG2</t>
         </is>
       </c>
       <c r="C114" s="9" t="inlineStr">
@@ -3973,7 +3969,7 @@
       </c>
       <c r="D114" s="9" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>SVD,Service Grip,#2</t>
         </is>
       </c>
       <c r="E114" s="9" t="inlineStr">
@@ -3982,17 +3978,17 @@
         </is>
       </c>
       <c r="F114" s="10" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G114" s="10" t="inlineStr"/>
       <c r="H114" s="11" t="n">
-        <v>0</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="12" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B115" s="12" t="inlineStr">
@@ -4020,18 +4016,18 @@
       </c>
       <c r="G115" s="13" t="inlineStr"/>
       <c r="H115" s="14" t="n">
-        <v>0</v>
+        <v>62.42</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B116" s="9" t="inlineStr">
         <is>
-          <t>XFR-50-72-120-1B</t>
+          <t>XFR-25-72-120-1B</t>
         </is>
       </c>
       <c r="C116" s="9" t="inlineStr">
@@ -4041,7 +4037,7 @@
       </c>
       <c r="D116" s="9" t="inlineStr">
         <is>
-          <t>XFR,50KVA,7.2/12.4kVY,120/240,1BG</t>
+          <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG</t>
         </is>
       </c>
       <c r="E116" s="9" t="inlineStr">
@@ -4054,13 +4050,13 @@
       </c>
       <c r="G116" s="10" t="inlineStr"/>
       <c r="H116" s="11" t="n">
-        <v>0</v>
+        <v>203</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="12" t="inlineStr">
         <is>
-          <t>Point 20</t>
+          <t>Point 22</t>
         </is>
       </c>
       <c r="B117" s="12" t="inlineStr">
@@ -4088,18 +4084,18 @@
       </c>
       <c r="G117" s="13" t="inlineStr"/>
       <c r="H117" s="14" t="n">
-        <v>0</v>
+        <v>17.37</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="9" t="inlineStr">
         <is>
-          <t>Point 20</t>
+          <t>Point 22</t>
         </is>
       </c>
       <c r="B118" s="9" t="inlineStr">
         <is>
-          <t>CND-HLC2</t>
+          <t>CND-S2O</t>
         </is>
       </c>
       <c r="C118" s="9" t="inlineStr">
@@ -4109,7 +4105,7 @@
       </c>
       <c r="D118" s="9" t="inlineStr">
         <is>
-          <t>CND,Hot Line clamp #6-#2</t>
+          <t>CND,Stirrup #2 Open</t>
         </is>
       </c>
       <c r="E118" s="9" t="inlineStr">
@@ -4122,18 +4118,18 @@
       </c>
       <c r="G118" s="10" t="inlineStr"/>
       <c r="H118" s="11" t="n">
-        <v>0</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="12" t="inlineStr">
         <is>
-          <t>Point 20</t>
+          <t>Point 22</t>
         </is>
       </c>
       <c r="B119" s="12" t="inlineStr">
         <is>
-          <t>CND-S2O</t>
+          <t>DEG-10-SNA</t>
         </is>
       </c>
       <c r="C119" s="12" t="inlineStr">
@@ -4143,7 +4139,7 @@
       </c>
       <c r="D119" s="12" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2 Open</t>
+          <t>DEG,1/0,Secondary Neutral Al</t>
         </is>
       </c>
       <c r="E119" s="12" t="inlineStr">
@@ -4152,22 +4148,22 @@
         </is>
       </c>
       <c r="F119" s="13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G119" s="13" t="inlineStr"/>
       <c r="H119" s="14" t="n">
-        <v>0</v>
+        <v>380.6</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="9" t="inlineStr">
         <is>
-          <t>Point 20</t>
+          <t>Point 22</t>
         </is>
       </c>
       <c r="B120" s="9" t="inlineStr">
         <is>
-          <t>DEC-20AL</t>
+          <t>EQL-1-4-C-2-S-X</t>
         </is>
       </c>
       <c r="C120" s="9" t="inlineStr">
@@ -4177,7 +4173,7 @@
       </c>
       <c r="D120" s="9" t="inlineStr">
         <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
         </is>
       </c>
       <c r="E120" s="9" t="inlineStr">
@@ -4186,22 +4182,22 @@
         </is>
       </c>
       <c r="F120" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G120" s="10" t="inlineStr"/>
       <c r="H120" s="11" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="12" t="inlineStr">
         <is>
-          <t>Point 20</t>
+          <t>Point 22</t>
         </is>
       </c>
       <c r="B121" s="12" t="inlineStr">
         <is>
-          <t>DEG-10-SNA</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C121" s="12" t="inlineStr">
@@ -4211,7 +4207,7 @@
       </c>
       <c r="D121" s="12" t="inlineStr">
         <is>
-          <t>DEG,1/0,Secondary Neutral Al</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E121" s="12" t="inlineStr">
@@ -4220,22 +4216,22 @@
         </is>
       </c>
       <c r="F121" s="13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G121" s="13" t="inlineStr"/>
       <c r="H121" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="9" t="inlineStr">
         <is>
-          <t>Point 20</t>
+          <t>Point 22</t>
         </is>
       </c>
       <c r="B122" s="9" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C122" s="9" t="inlineStr">
@@ -4245,7 +4241,7 @@
       </c>
       <c r="D122" s="9" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E122" s="9" t="inlineStr">
@@ -4258,18 +4254,18 @@
       </c>
       <c r="G122" s="10" t="inlineStr"/>
       <c r="H122" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="12" t="inlineStr">
         <is>
-          <t>Point 20</t>
+          <t>Point 22</t>
         </is>
       </c>
       <c r="B123" s="12" t="inlineStr">
         <is>
-          <t>INS-15-D-S-C</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C123" s="12" t="inlineStr">
@@ -4279,7 +4275,7 @@
       </c>
       <c r="D123" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Deadend,Polymer,Corr</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E123" s="12" t="inlineStr">
@@ -4288,22 +4284,22 @@
         </is>
       </c>
       <c r="F123" s="13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G123" s="13" t="inlineStr"/>
       <c r="H123" s="14" t="n">
-        <v>0</v>
+        <v>68.8</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="9" t="inlineStr">
         <is>
-          <t>Point 20</t>
+          <t>Point 22</t>
         </is>
       </c>
       <c r="B124" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>XCO-15-100-7</t>
         </is>
       </c>
       <c r="C124" s="9" t="inlineStr">
@@ -4313,7 +4309,7 @@
       </c>
       <c r="D124" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
         </is>
       </c>
       <c r="E124" s="9" t="inlineStr">
@@ -4326,198 +4322,87 @@
       </c>
       <c r="G124" s="10" t="inlineStr"/>
       <c r="H124" s="11" t="n">
-        <v>0</v>
+        <v>26.52</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="12" t="inlineStr">
-        <is>
-          <t>Point 20</t>
-        </is>
-      </c>
-      <c r="B125" s="12" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-K</t>
-        </is>
-      </c>
-      <c r="C125" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D125" s="12" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
-        </is>
-      </c>
-      <c r="E125" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F125" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G125" s="13" t="inlineStr"/>
-      <c r="H125" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="9" t="inlineStr">
-        <is>
-          <t>Point 20</t>
-        </is>
-      </c>
-      <c r="B126" s="9" t="inlineStr">
-        <is>
-          <t>PLD-EYE</t>
-        </is>
-      </c>
-      <c r="C126" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D126" s="9" t="inlineStr">
-        <is>
-          <t>PLD,Eyebolt Deadend</t>
-        </is>
-      </c>
-      <c r="E126" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F126" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G126" s="10" t="inlineStr"/>
-      <c r="H126" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="12" t="inlineStr">
-        <is>
-          <t>Point 20</t>
-        </is>
-      </c>
-      <c r="B127" s="12" t="inlineStr">
-        <is>
-          <t>POL-40-5</t>
-        </is>
-      </c>
-      <c r="C127" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D127" s="12" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 5</t>
-        </is>
-      </c>
-      <c r="E127" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F127" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G127" s="13" t="inlineStr"/>
-      <c r="H127" s="14" t="n">
-        <v>0</v>
+      <c r="A125" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H125" s="16" t="n">
+        <v>12328.28</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="9" t="inlineStr">
-        <is>
-          <t>Point 20</t>
-        </is>
-      </c>
-      <c r="B128" s="9" t="inlineStr">
-        <is>
-          <t>SAA-3-CV</t>
-        </is>
-      </c>
-      <c r="C128" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D128" s="9" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis</t>
-        </is>
-      </c>
-      <c r="E128" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F128" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="G128" s="10" t="inlineStr"/>
-      <c r="H128" s="11" t="n">
-        <v>0</v>
+      <c r="A128" s="7" t="inlineStr">
+        <is>
+          <t>Wednesday (07/30/2025)</t>
+        </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="12" t="inlineStr">
-        <is>
-          <t>Point 20</t>
-        </is>
-      </c>
-      <c r="B129" s="12" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C129" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D129" s="12" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E129" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F129" s="13" t="n">
-        <v>18</v>
-      </c>
-      <c r="G129" s="13" t="inlineStr"/>
-      <c r="H129" s="14" t="n">
-        <v>0</v>
+      <c r="A129" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B129" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C129" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D129" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E129" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F129" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G129" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H129" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="9" t="inlineStr">
         <is>
-          <t>Point 20</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B130" s="9" t="inlineStr">
         <is>
-          <t>XCO-15-100-7</t>
+          <t>SVC-2-TP-ALA-RS</t>
         </is>
       </c>
       <c r="C130" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Trans</t>
         </is>
       </c>
       <c r="D130" s="9" t="inlineStr">
         <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+          <t>SVC,#2 AWG,Trip,Alum/Aly Neut,Res</t>
         </is>
       </c>
       <c r="E130" s="9" t="inlineStr">
@@ -4530,18 +4415,18 @@
       </c>
       <c r="G130" s="10" t="inlineStr"/>
       <c r="H130" s="11" t="n">
-        <v>0</v>
+        <v>195.83</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="12" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B131" s="12" t="inlineStr">
         <is>
-          <t>BKT-AC18-F</t>
+          <t>ALB-W-30-S-1-A</t>
         </is>
       </c>
       <c r="C131" s="12" t="inlineStr">
@@ -4551,7 +4436,7 @@
       </c>
       <c r="D131" s="12" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+          <t>ALB,Wood,30in,Steel,1P,Area</t>
         </is>
       </c>
       <c r="E131" s="12" t="inlineStr">
@@ -4564,28 +4449,28 @@
       </c>
       <c r="G131" s="13" t="inlineStr"/>
       <c r="H131" s="14" t="n">
-        <v>0</v>
+        <v>118.38</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="9" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B132" s="9" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>ALT-150-SOP</t>
         </is>
       </c>
       <c r="C132" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D132" s="9" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>ALT,100,Sodium,Open,120,SlipFit, pkg</t>
         </is>
       </c>
       <c r="E132" s="9" t="inlineStr">
@@ -4598,18 +4483,18 @@
       </c>
       <c r="G132" s="10" t="inlineStr"/>
       <c r="H132" s="11" t="n">
-        <v>0</v>
+        <v>128.82</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="12" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B133" s="12" t="inlineStr">
         <is>
-          <t>CND-S2O</t>
+          <t>ANC-DHM-10-84-D1</t>
         </is>
       </c>
       <c r="C133" s="12" t="inlineStr">
@@ -4619,7 +4504,7 @@
       </c>
       <c r="D133" s="12" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2 Open</t>
+          <t>ANC,Dbl Hlx Mach,10in,84in,Db Eye 1in</t>
         </is>
       </c>
       <c r="E133" s="12" t="inlineStr">
@@ -4632,28 +4517,28 @@
       </c>
       <c r="G133" s="13" t="inlineStr"/>
       <c r="H133" s="14" t="n">
-        <v>0</v>
+        <v>217.53</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="9" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B134" s="9" t="inlineStr">
         <is>
-          <t>DEG-2-SNA</t>
+          <t>CNC-SNB-40</t>
         </is>
       </c>
       <c r="C134" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D134" s="9" t="inlineStr">
         <is>
-          <t>DEG,#2,Secondary Neutral Al</t>
+          <t>CNC,Splice Non-Tension Bare,#1/0-#4/0</t>
         </is>
       </c>
       <c r="E134" s="9" t="inlineStr">
@@ -4662,22 +4547,22 @@
         </is>
       </c>
       <c r="F134" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G134" s="10" t="inlineStr"/>
       <c r="H134" s="11" t="n">
-        <v>0</v>
+        <v>40.58</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="12" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B135" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>DEC-20AL</t>
         </is>
       </c>
       <c r="C135" s="12" t="inlineStr">
@@ -4687,7 +4572,7 @@
       </c>
       <c r="D135" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>DEC,#4 - #2/0 AA,AL,AS</t>
         </is>
       </c>
       <c r="E135" s="12" t="inlineStr">
@@ -4700,18 +4585,18 @@
       </c>
       <c r="G135" s="13" t="inlineStr"/>
       <c r="H135" s="14" t="n">
-        <v>0</v>
+        <v>286.25</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="9" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B136" s="9" t="inlineStr">
         <is>
-          <t>PLA-CUT</t>
+          <t>DEG-10-SPA</t>
         </is>
       </c>
       <c r="C136" s="9" t="inlineStr">
@@ -4721,7 +4606,7 @@
       </c>
       <c r="D136" s="9" t="inlineStr">
         <is>
-          <t>PLA,Cut Off Pole Top</t>
+          <t>DEG,1/0,Slack Span Alum</t>
         </is>
       </c>
       <c r="E136" s="9" t="inlineStr">
@@ -4730,22 +4615,22 @@
         </is>
       </c>
       <c r="F136" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G136" s="10" t="inlineStr"/>
       <c r="H136" s="11" t="n">
-        <v>0</v>
+        <v>572.5</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="12" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B137" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>DEG-10-SPAJ</t>
         </is>
       </c>
       <c r="C137" s="12" t="inlineStr">
@@ -4755,7 +4640,7 @@
       </c>
       <c r="D137" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>DEG, 1/0,Slack Span Alum for J-Neck Ins</t>
         </is>
       </c>
       <c r="E137" s="12" t="inlineStr">
@@ -4768,18 +4653,18 @@
       </c>
       <c r="G137" s="13" t="inlineStr"/>
       <c r="H137" s="14" t="n">
-        <v>0</v>
+        <v>286.25</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="9" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B138" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C138" s="9" t="inlineStr">
@@ -4789,7 +4674,7 @@
       </c>
       <c r="D138" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E138" s="9" t="inlineStr">
@@ -4802,18 +4687,18 @@
       </c>
       <c r="G138" s="10" t="inlineStr"/>
       <c r="H138" s="11" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="12" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B139" s="12" t="inlineStr">
         <is>
-          <t>PLD-EYE</t>
+          <t>GYF-38-D-78P-EP</t>
         </is>
       </c>
       <c r="C139" s="12" t="inlineStr">
@@ -4823,7 +4708,7 @@
       </c>
       <c r="D139" s="12" t="inlineStr">
         <is>
-          <t>PLD,Eyebolt Deadend</t>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
         </is>
       </c>
       <c r="E139" s="12" t="inlineStr">
@@ -4832,22 +4717,22 @@
         </is>
       </c>
       <c r="F139" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G139" s="13" t="inlineStr"/>
       <c r="H139" s="14" t="n">
-        <v>0</v>
+        <v>158.7</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="9" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B140" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>CNC-HTA-10</t>
         </is>
       </c>
       <c r="C140" s="9" t="inlineStr">
@@ -4857,7 +4742,7 @@
       </c>
       <c r="D140" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>Compression connector H-Tap Assembly 1/0</t>
         </is>
       </c>
       <c r="E140" s="9" t="inlineStr">
@@ -4866,22 +4751,22 @@
         </is>
       </c>
       <c r="F140" s="10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G140" s="10" t="inlineStr"/>
       <c r="H140" s="11" t="n">
-        <v>0</v>
+        <v>47.85</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="12" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B141" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C141" s="12" t="inlineStr">
@@ -4891,7 +4776,7 @@
       </c>
       <c r="D141" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E141" s="12" t="inlineStr">
@@ -4900,32 +4785,32 @@
         </is>
       </c>
       <c r="F141" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G141" s="13" t="inlineStr"/>
       <c r="H141" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="9" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B142" s="9" t="inlineStr">
         <is>
-          <t>SAA-DE-20</t>
+          <t>PLA-CUT</t>
         </is>
       </c>
       <c r="C142" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D142" s="9" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0</t>
+          <t>PLA,Cut Off Pole Top</t>
         </is>
       </c>
       <c r="E142" s="9" t="inlineStr">
@@ -4938,18 +4823,18 @@
       </c>
       <c r="G142" s="10" t="inlineStr"/>
       <c r="H142" s="11" t="n">
-        <v>0</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="12" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B143" s="12" t="inlineStr">
         <is>
-          <t>SVC-VA</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C143" s="12" t="inlineStr">
@@ -4959,7 +4844,7 @@
       </c>
       <c r="D143" s="12" t="inlineStr">
         <is>
-          <t>SVC-Virtual Asset Capitalization</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E143" s="12" t="inlineStr">
@@ -4972,18 +4857,18 @@
       </c>
       <c r="G143" s="13" t="inlineStr"/>
       <c r="H143" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="9" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B144" s="9" t="inlineStr">
         <is>
-          <t>SVD-3-CV-C</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C144" s="9" t="inlineStr">
@@ -4993,7 +4878,7 @@
       </c>
       <c r="D144" s="9" t="inlineStr">
         <is>
-          <t>SVD,3 inch,Clevis,Corr</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E144" s="9" t="inlineStr">
@@ -5006,18 +4891,18 @@
       </c>
       <c r="G144" s="10" t="inlineStr"/>
       <c r="H144" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="12" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B145" s="12" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>SAA-DE-20</t>
         </is>
       </c>
       <c r="C145" s="12" t="inlineStr">
@@ -5027,7 +4912,7 @@
       </c>
       <c r="D145" s="12" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
       <c r="E145" s="12" t="inlineStr">
@@ -5036,32 +4921,32 @@
         </is>
       </c>
       <c r="F145" s="13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G145" s="13" t="inlineStr"/>
       <c r="H145" s="14" t="n">
-        <v>0</v>
+        <v>110.36</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="9" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B146" s="9" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>DEG-4-SPA</t>
         </is>
       </c>
       <c r="C146" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D146" s="9" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>DEG,#4,Slack Span Alum</t>
         </is>
       </c>
       <c r="E146" s="9" t="inlineStr">
@@ -5070,32 +4955,32 @@
         </is>
       </c>
       <c r="F146" s="10" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G146" s="10" t="inlineStr"/>
       <c r="H146" s="11" t="n">
-        <v>0</v>
+        <v>95.15000000000001</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="12" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B147" s="12" t="inlineStr">
         <is>
-          <t>XCO-15-100-7</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C147" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D147" s="12" t="inlineStr">
         <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E147" s="12" t="inlineStr">
@@ -5108,28 +4993,28 @@
       </c>
       <c r="G147" s="13" t="inlineStr"/>
       <c r="H147" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="9" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B148" s="9" t="inlineStr">
         <is>
-          <t>XFR-25-72-120-1B</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C148" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D148" s="9" t="inlineStr">
         <is>
-          <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E148" s="9" t="inlineStr">
@@ -5142,18 +5027,18 @@
       </c>
       <c r="G148" s="10" t="inlineStr"/>
       <c r="H148" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="12" t="inlineStr">
         <is>
-          <t>Point 22</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B149" s="12" t="inlineStr">
         <is>
-          <t>BKT-AC18-F</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C149" s="12" t="inlineStr">
@@ -5163,7 +5048,7 @@
       </c>
       <c r="D149" s="12" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E149" s="12" t="inlineStr">
@@ -5176,18 +5061,18 @@
       </c>
       <c r="G149" s="13" t="inlineStr"/>
       <c r="H149" s="14" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="9" t="inlineStr">
         <is>
-          <t>Point 22</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B150" s="9" t="inlineStr">
         <is>
-          <t>CND-HLC2</t>
+          <t>SAA-DE-20</t>
         </is>
       </c>
       <c r="C150" s="9" t="inlineStr">
@@ -5197,7 +5082,7 @@
       </c>
       <c r="D150" s="9" t="inlineStr">
         <is>
-          <t>CND,Hot Line clamp #6-#2</t>
+          <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
       <c r="E150" s="9" t="inlineStr">
@@ -5206,32 +5091,32 @@
         </is>
       </c>
       <c r="F150" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G150" s="10" t="inlineStr"/>
       <c r="H150" s="11" t="n">
-        <v>0</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="12" t="inlineStr">
         <is>
-          <t>Point 22</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B151" s="12" t="inlineStr">
         <is>
-          <t>CND-S2O</t>
+          <t>ALB-W-30-S-1-A</t>
         </is>
       </c>
       <c r="C151" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D151" s="12" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2 Open</t>
+          <t>ALB,Wood,30in,Steel,1P,Area</t>
         </is>
       </c>
       <c r="E151" s="12" t="inlineStr">
@@ -5244,28 +5129,28 @@
       </c>
       <c r="G151" s="13" t="inlineStr"/>
       <c r="H151" s="14" t="n">
-        <v>0</v>
+        <v>118.38</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="9" t="inlineStr">
         <is>
-          <t>Point 22</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B152" s="9" t="inlineStr">
         <is>
-          <t>DEG-10-SNA</t>
+          <t>ALT-LED-DD-T5-5L-SF</t>
         </is>
       </c>
       <c r="C152" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D152" s="9" t="inlineStr">
         <is>
-          <t>DEG,1/0,Secondary Neutral Al</t>
+          <t>5200L LED, Type 5, Dusk to Dawn</t>
         </is>
       </c>
       <c r="E152" s="9" t="inlineStr">
@@ -5274,32 +5159,32 @@
         </is>
       </c>
       <c r="F152" s="10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G152" s="10" t="inlineStr"/>
       <c r="H152" s="11" t="n">
-        <v>0</v>
+        <v>128.82</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="12" t="inlineStr">
         <is>
-          <t>Point 22</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B153" s="12" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X</t>
+          <t>CNC-HTA-10</t>
         </is>
       </c>
       <c r="C153" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D153" s="12" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
+          <t>Compression connector H-Tap Assembly 1/0</t>
         </is>
       </c>
       <c r="E153" s="12" t="inlineStr">
@@ -5308,32 +5193,32 @@
         </is>
       </c>
       <c r="F153" s="13" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G153" s="13" t="inlineStr"/>
       <c r="H153" s="14" t="n">
-        <v>0</v>
+        <v>124.41</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="9" t="inlineStr">
         <is>
-          <t>Point 22</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B154" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>BKT-AC18-F</t>
         </is>
       </c>
       <c r="C154" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D154" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
         </is>
       </c>
       <c r="E154" s="9" t="inlineStr">
@@ -5346,28 +5231,28 @@
       </c>
       <c r="G154" s="10" t="inlineStr"/>
       <c r="H154" s="11" t="n">
-        <v>0</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="12" t="inlineStr">
         <is>
-          <t>Point 22</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B155" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>CNC-SNB-40</t>
         </is>
       </c>
       <c r="C155" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D155" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>CNC,Splice Non-Tension Bare,#1/0-#4/0</t>
         </is>
       </c>
       <c r="E155" s="12" t="inlineStr">
@@ -5376,32 +5261,32 @@
         </is>
       </c>
       <c r="F155" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G155" s="13" t="inlineStr"/>
       <c r="H155" s="14" t="n">
-        <v>0</v>
+        <v>40.58</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="9" t="inlineStr">
         <is>
-          <t>Point 22</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B156" s="9" t="inlineStr">
         <is>
-          <t>POL-40-3</t>
+          <t>CND-S2O</t>
         </is>
       </c>
       <c r="C156" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D156" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 3</t>
+          <t>CND,Stirrup #2 Open</t>
         </is>
       </c>
       <c r="E156" s="9" t="inlineStr">
@@ -5410,32 +5295,32 @@
         </is>
       </c>
       <c r="F156" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G156" s="10" t="inlineStr"/>
       <c r="H156" s="11" t="n">
-        <v>0</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="12" t="inlineStr">
         <is>
-          <t>Point 22</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B157" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>DEC-20AL</t>
         </is>
       </c>
       <c r="C157" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D157" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>DEC,#4 - #2/0 AA,AL,AS</t>
         </is>
       </c>
       <c r="E157" s="12" t="inlineStr">
@@ -5444,32 +5329,32 @@
         </is>
       </c>
       <c r="F157" s="13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G157" s="13" t="inlineStr"/>
       <c r="H157" s="14" t="n">
-        <v>0</v>
+        <v>286.25</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="9" t="inlineStr">
         <is>
-          <t>Point 22</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B158" s="9" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>DEG-10-SPA</t>
         </is>
       </c>
       <c r="C158" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D158" s="9" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>DEG,1/0,Slack Span Alum</t>
         </is>
       </c>
       <c r="E158" s="9" t="inlineStr">
@@ -5478,32 +5363,32 @@
         </is>
       </c>
       <c r="F158" s="10" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G158" s="10" t="inlineStr"/>
       <c r="H158" s="11" t="n">
-        <v>0</v>
+        <v>286.25</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="12" t="inlineStr">
         <is>
-          <t>Point 22</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B159" s="12" t="inlineStr">
         <is>
-          <t>XCO-15-100-7</t>
+          <t>DEG-10-SPAJ</t>
         </is>
       </c>
       <c r="C159" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D159" s="12" t="inlineStr">
         <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+          <t>DEG, 1/0,Slack Span Alum for J-Neck Ins</t>
         </is>
       </c>
       <c r="E159" s="12" t="inlineStr">
@@ -5512,2781 +5397,958 @@
         </is>
       </c>
       <c r="F159" s="13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G159" s="13" t="inlineStr"/>
       <c r="H159" s="14" t="n">
-        <v>0</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="15" t="inlineStr">
+      <c r="A160" s="9" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B160" s="9" t="inlineStr">
+        <is>
+          <t>EQL-1-4-C-2-S-X</t>
+        </is>
+      </c>
+      <c r="C160" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D160" s="9" t="inlineStr">
+        <is>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
+        </is>
+      </c>
+      <c r="E160" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F160" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G160" s="10" t="inlineStr"/>
+      <c r="H160" s="11" t="n">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="12" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B161" s="12" t="inlineStr">
+        <is>
+          <t>GND-CR-4</t>
+        </is>
+      </c>
+      <c r="C161" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D161" s="12" t="inlineStr">
+        <is>
+          <t>GND,Cu Clad Rod,#4</t>
+        </is>
+      </c>
+      <c r="E161" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F161" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G161" s="13" t="inlineStr"/>
+      <c r="H161" s="14" t="n">
+        <v>110.74</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="9" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B162" s="9" t="inlineStr">
+        <is>
+          <t>GYF-38-D-78P-EP</t>
+        </is>
+      </c>
+      <c r="C162" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D162" s="9" t="inlineStr">
+        <is>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
+        </is>
+      </c>
+      <c r="E162" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F162" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G162" s="10" t="inlineStr"/>
+      <c r="H162" s="11" t="n">
+        <v>79.34999999999999</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="12" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B163" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C163" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D163" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E163" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F163" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G163" s="13" t="inlineStr"/>
+      <c r="H163" s="14" t="n">
+        <v>94.17</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="9" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B164" s="9" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-K</t>
+        </is>
+      </c>
+      <c r="C164" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D164" s="9" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Contaminated</t>
+        </is>
+      </c>
+      <c r="E164" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F164" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G164" s="10" t="inlineStr"/>
+      <c r="H164" s="11" t="n">
+        <v>94.17</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="12" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B165" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C165" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D165" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E165" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F165" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G165" s="13" t="inlineStr"/>
+      <c r="H165" s="14" t="n">
+        <v>478.55</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="9" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B166" s="9" t="inlineStr">
+        <is>
+          <t>SAA-3-CV</t>
+        </is>
+      </c>
+      <c r="C166" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D166" s="9" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis</t>
+        </is>
+      </c>
+      <c r="E166" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F166" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G166" s="10" t="inlineStr"/>
+      <c r="H166" s="11" t="n">
+        <v>55.18</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="12" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B167" s="12" t="inlineStr">
+        <is>
+          <t>SAA-DE-20</t>
+        </is>
+      </c>
+      <c r="C167" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D167" s="12" t="inlineStr">
+        <is>
+          <t>SAA,DE Clamp #4-2/0</t>
+        </is>
+      </c>
+      <c r="E167" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F167" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G167" s="13" t="inlineStr"/>
+      <c r="H167" s="14" t="n">
+        <v>110.36</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="9" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B168" s="9" t="inlineStr">
+        <is>
+          <t>SVC-2-TP-ALA-RS</t>
+        </is>
+      </c>
+      <c r="C168" s="9" t="inlineStr">
+        <is>
+          <t>Tran</t>
+        </is>
+      </c>
+      <c r="D168" s="9" t="inlineStr">
+        <is>
+          <t>SVC,#2 AWG,Trip,Alum/Aly Neut,Res</t>
+        </is>
+      </c>
+      <c r="E168" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F168" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G168" s="10" t="inlineStr"/>
+      <c r="H168" s="11" t="n">
+        <v>391.66</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="12" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B169" s="12" t="inlineStr">
+        <is>
+          <t>PLA-CUT</t>
+        </is>
+      </c>
+      <c r="C169" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D169" s="12" t="inlineStr">
+        <is>
+          <t>PLA,Cut Off Pole Top</t>
+        </is>
+      </c>
+      <c r="E169" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F169" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G169" s="13" t="inlineStr"/>
+      <c r="H169" s="14" t="n">
+        <v>216.17</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="9" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B170" s="9" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C170" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D170" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E170" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F170" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G170" s="10" t="inlineStr"/>
+      <c r="H170" s="11" t="n">
+        <v>1297.06</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="12" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B171" s="12" t="inlineStr">
+        <is>
+          <t>XCO-15-100-7</t>
+        </is>
+      </c>
+      <c r="C171" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D171" s="12" t="inlineStr">
+        <is>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+        </is>
+      </c>
+      <c r="E171" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F171" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G171" s="13" t="inlineStr"/>
+      <c r="H171" s="14" t="n">
+        <v>62.42</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="9" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B172" s="9" t="inlineStr">
+        <is>
+          <t>XFR-25-72-120-1B</t>
+        </is>
+      </c>
+      <c r="C172" s="9" t="inlineStr">
+        <is>
+          <t>Tran</t>
+        </is>
+      </c>
+      <c r="D172" s="9" t="inlineStr">
+        <is>
+          <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG</t>
+        </is>
+      </c>
+      <c r="E172" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F172" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G172" s="10" t="inlineStr"/>
+      <c r="H172" s="11" t="n">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="12" t="inlineStr">
+        <is>
+          <t>Point 06</t>
+        </is>
+      </c>
+      <c r="B173" s="12" t="inlineStr">
+        <is>
+          <t>ANC-DHM-10-84-D1</t>
+        </is>
+      </c>
+      <c r="C173" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D173" s="12" t="inlineStr">
+        <is>
+          <t>ANC,Dbl Hlx Mach,10in,84in,Db Eye 1in</t>
+        </is>
+      </c>
+      <c r="E173" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F173" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G173" s="13" t="inlineStr"/>
+      <c r="H173" s="14" t="n">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="9" t="inlineStr">
+        <is>
+          <t>Point 06</t>
+        </is>
+      </c>
+      <c r="B174" s="9" t="inlineStr">
+        <is>
+          <t>BKT-AC18-F</t>
+        </is>
+      </c>
+      <c r="C174" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D174" s="9" t="inlineStr">
+        <is>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+        </is>
+      </c>
+      <c r="E174" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F174" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G174" s="10" t="inlineStr"/>
+      <c r="H174" s="11" t="n">
+        <v>17.37</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="12" t="inlineStr">
+        <is>
+          <t>Point 06</t>
+        </is>
+      </c>
+      <c r="B175" s="12" t="inlineStr">
+        <is>
+          <t>CND-S2O</t>
+        </is>
+      </c>
+      <c r="C175" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D175" s="12" t="inlineStr">
+        <is>
+          <t>CND,Stirrup #2 Open</t>
+        </is>
+      </c>
+      <c r="E175" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F175" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G175" s="13" t="inlineStr"/>
+      <c r="H175" s="14" t="n">
+        <v>6.17</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="9" t="inlineStr">
+        <is>
+          <t>Point 06</t>
+        </is>
+      </c>
+      <c r="B176" s="9" t="inlineStr">
+        <is>
+          <t>CON-2-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C176" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D176" s="9" t="inlineStr">
+        <is>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+        </is>
+      </c>
+      <c r="E176" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F176" s="10" t="n">
+        <v>72</v>
+      </c>
+      <c r="G176" s="10" t="inlineStr"/>
+      <c r="H176" s="11" t="n">
+        <v>66.95999999999999</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="12" t="inlineStr">
+        <is>
+          <t>Point 06</t>
+        </is>
+      </c>
+      <c r="B177" s="12" t="inlineStr">
+        <is>
+          <t>DEC-20AL</t>
+        </is>
+      </c>
+      <c r="C177" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D177" s="12" t="inlineStr">
+        <is>
+          <t>DEC,#4 - #2/0 AA,AL,AS</t>
+        </is>
+      </c>
+      <c r="E177" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F177" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G177" s="13" t="inlineStr"/>
+      <c r="H177" s="14" t="n">
+        <v>95.15000000000001</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="9" t="inlineStr">
+        <is>
+          <t>Point 06</t>
+        </is>
+      </c>
+      <c r="B178" s="9" t="inlineStr">
+        <is>
+          <t>DEG-2-SPAJ</t>
+        </is>
+      </c>
+      <c r="C178" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D178" s="9" t="inlineStr">
+        <is>
+          <t>DEG,#2,Slack span Alum for J-neck</t>
+        </is>
+      </c>
+      <c r="E178" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F178" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G178" s="10" t="inlineStr"/>
+      <c r="H178" s="11" t="n">
+        <v>95.15000000000001</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="12" t="inlineStr">
+        <is>
+          <t>Point 06</t>
+        </is>
+      </c>
+      <c r="B179" s="12" t="inlineStr">
+        <is>
+          <t>DEG-4-SPA</t>
+        </is>
+      </c>
+      <c r="C179" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D179" s="12" t="inlineStr">
+        <is>
+          <t>DEG,#4,Slack Span Alum</t>
+        </is>
+      </c>
+      <c r="E179" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F179" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G179" s="13" t="inlineStr"/>
+      <c r="H179" s="14" t="n">
+        <v>95.15000000000001</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="9" t="inlineStr">
+        <is>
+          <t>Point 06</t>
+        </is>
+      </c>
+      <c r="B180" s="9" t="inlineStr">
+        <is>
+          <t>EQL-1-4-C-2-S-X</t>
+        </is>
+      </c>
+      <c r="C180" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D180" s="9" t="inlineStr">
+        <is>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
+        </is>
+      </c>
+      <c r="E180" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F180" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G180" s="10" t="inlineStr"/>
+      <c r="H180" s="11" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="12" t="inlineStr">
+        <is>
+          <t>Point 06</t>
+        </is>
+      </c>
+      <c r="B181" s="12" t="inlineStr">
+        <is>
+          <t>GYF-38-D-78P-EP</t>
+        </is>
+      </c>
+      <c r="C181" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D181" s="12" t="inlineStr">
+        <is>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
+        </is>
+      </c>
+      <c r="E181" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F181" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G181" s="13" t="inlineStr"/>
+      <c r="H181" s="14" t="n">
+        <v>35.58</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="9" t="inlineStr">
+        <is>
+          <t>Point 06</t>
+        </is>
+      </c>
+      <c r="B182" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C182" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D182" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E182" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F182" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G182" s="10" t="inlineStr"/>
+      <c r="H182" s="11" t="n">
+        <v>31.08</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="12" t="inlineStr">
+        <is>
+          <t>Point 06</t>
+        </is>
+      </c>
+      <c r="B183" s="12" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-K</t>
+        </is>
+      </c>
+      <c r="C183" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D183" s="12" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Contaminated</t>
+        </is>
+      </c>
+      <c r="E183" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F183" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G183" s="13" t="inlineStr"/>
+      <c r="H183" s="14" t="n">
+        <v>31.08</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="9" t="inlineStr">
+        <is>
+          <t>Point 06</t>
+        </is>
+      </c>
+      <c r="B184" s="9" t="inlineStr">
+        <is>
+          <t>SAA-3-CV</t>
+        </is>
+      </c>
+      <c r="C184" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D184" s="9" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis</t>
+        </is>
+      </c>
+      <c r="E184" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F184" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G184" s="10" t="inlineStr"/>
+      <c r="H184" s="11" t="n">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="12" t="inlineStr">
+        <is>
+          <t>Point 06</t>
+        </is>
+      </c>
+      <c r="B185" s="12" t="inlineStr">
+        <is>
+          <t>SAA-DE-20</t>
+        </is>
+      </c>
+      <c r="C185" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D185" s="12" t="inlineStr">
+        <is>
+          <t>SAA,DE Clamp #4-2/0</t>
+        </is>
+      </c>
+      <c r="E185" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F185" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G185" s="13" t="inlineStr"/>
+      <c r="H185" s="14" t="n">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="9" t="inlineStr">
+        <is>
+          <t>Point 06</t>
+        </is>
+      </c>
+      <c r="B186" s="9" t="inlineStr">
+        <is>
+          <t>XCO-15-100-7</t>
+        </is>
+      </c>
+      <c r="C186" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D186" s="9" t="inlineStr">
+        <is>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+        </is>
+      </c>
+      <c r="E186" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F186" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G186" s="10" t="inlineStr"/>
+      <c r="H186" s="11" t="n">
+        <v>26.52</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H160" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="7" t="inlineStr">
-        <is>
-          <t>Wednesday (07/30/2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B164" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C164" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D164" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E164" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F164" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G164" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H164" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="9" t="inlineStr">
-        <is>
-          <t>Point 01</t>
-        </is>
-      </c>
-      <c r="B165" s="9" t="inlineStr">
-        <is>
-          <t>SVC-2-TP-ALA-RS</t>
-        </is>
-      </c>
-      <c r="C165" s="9" t="inlineStr">
-        <is>
-          <t>Trans</t>
-        </is>
-      </c>
-      <c r="D165" s="9" t="inlineStr">
-        <is>
-          <t>SVC,#2 AWG,Trip,Alum/Aly Neut,Res</t>
-        </is>
-      </c>
-      <c r="E165" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F165" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G165" s="10" t="inlineStr"/>
-      <c r="H165" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="12" t="inlineStr">
-        <is>
-          <t>Point 01</t>
-        </is>
-      </c>
-      <c r="B166" s="12" t="inlineStr">
-        <is>
-          <t>ALB-W-30-S-1-A</t>
-        </is>
-      </c>
-      <c r="C166" s="12" t="inlineStr">
-        <is>
-          <t>Tran</t>
-        </is>
-      </c>
-      <c r="D166" s="12" t="inlineStr">
-        <is>
-          <t>ALB,Wood,30in,Steel,1P,Area</t>
-        </is>
-      </c>
-      <c r="E166" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F166" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G166" s="13" t="inlineStr"/>
-      <c r="H166" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="9" t="inlineStr">
-        <is>
-          <t>Point 01</t>
-        </is>
-      </c>
-      <c r="B167" s="9" t="inlineStr">
-        <is>
-          <t>ALT-150-SOP</t>
-        </is>
-      </c>
-      <c r="C167" s="9" t="inlineStr">
-        <is>
-          <t>Tran</t>
-        </is>
-      </c>
-      <c r="D167" s="9" t="inlineStr">
-        <is>
-          <t>ALT,100,Sodium,Open,120,SlipFit, pkg</t>
-        </is>
-      </c>
-      <c r="E167" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F167" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G167" s="10" t="inlineStr"/>
-      <c r="H167" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="12" t="inlineStr">
-        <is>
-          <t>Point 01</t>
-        </is>
-      </c>
-      <c r="B168" s="12" t="inlineStr">
-        <is>
-          <t>ANC-DHM-10-84-D1</t>
-        </is>
-      </c>
-      <c r="C168" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D168" s="12" t="inlineStr">
-        <is>
-          <t>ANC,Dbl Hlx Mach,10in,84in,Db Eye 1in</t>
-        </is>
-      </c>
-      <c r="E168" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F168" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G168" s="13" t="inlineStr"/>
-      <c r="H168" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="9" t="inlineStr">
-        <is>
-          <t>Point 01</t>
-        </is>
-      </c>
-      <c r="B169" s="9" t="inlineStr">
-        <is>
-          <t>CNC-SNB-40</t>
-        </is>
-      </c>
-      <c r="C169" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D169" s="9" t="inlineStr">
-        <is>
-          <t>CNC,Splice Non-Tension Bare,#1/0-#4/0</t>
-        </is>
-      </c>
-      <c r="E169" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F169" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G169" s="10" t="inlineStr"/>
-      <c r="H169" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="12" t="inlineStr">
-        <is>
-          <t>Point 01</t>
-        </is>
-      </c>
-      <c r="B170" s="12" t="inlineStr">
-        <is>
-          <t>DEC-20AL</t>
-        </is>
-      </c>
-      <c r="C170" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D170" s="12" t="inlineStr">
-        <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS</t>
-        </is>
-      </c>
-      <c r="E170" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F170" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G170" s="13" t="inlineStr"/>
-      <c r="H170" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="9" t="inlineStr">
-        <is>
-          <t>Point 01</t>
-        </is>
-      </c>
-      <c r="B171" s="9" t="inlineStr">
-        <is>
-          <t>DEG-10-SPA</t>
-        </is>
-      </c>
-      <c r="C171" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D171" s="9" t="inlineStr">
-        <is>
-          <t>DEG,1/0,Slack Span Alum</t>
-        </is>
-      </c>
-      <c r="E171" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F171" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G171" s="10" t="inlineStr"/>
-      <c r="H171" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="12" t="inlineStr">
-        <is>
-          <t>Point 01</t>
-        </is>
-      </c>
-      <c r="B172" s="12" t="inlineStr">
-        <is>
-          <t>DEG-10-SPAJ</t>
-        </is>
-      </c>
-      <c r="C172" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D172" s="12" t="inlineStr">
-        <is>
-          <t>DEG, 1/0,Slack Span Alum for J-Neck Ins</t>
-        </is>
-      </c>
-      <c r="E172" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F172" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G172" s="13" t="inlineStr"/>
-      <c r="H172" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="9" t="inlineStr">
-        <is>
-          <t>Point 01</t>
-        </is>
-      </c>
-      <c r="B173" s="9" t="inlineStr">
-        <is>
-          <t>GND-CR-4</t>
-        </is>
-      </c>
-      <c r="C173" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D173" s="9" t="inlineStr">
-        <is>
-          <t>GND,Cu Clad Rod,#4</t>
-        </is>
-      </c>
-      <c r="E173" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F173" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G173" s="10" t="inlineStr"/>
-      <c r="H173" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="12" t="inlineStr">
-        <is>
-          <t>Point 01</t>
-        </is>
-      </c>
-      <c r="B174" s="12" t="inlineStr">
-        <is>
-          <t>GND-LG-AL</t>
-        </is>
-      </c>
-      <c r="C174" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D174" s="12" t="inlineStr">
-        <is>
-          <t>GND,Lug,Area Lt</t>
-        </is>
-      </c>
-      <c r="E174" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F174" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G174" s="13" t="inlineStr"/>
-      <c r="H174" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="9" t="inlineStr">
-        <is>
-          <t>Point 01</t>
-        </is>
-      </c>
-      <c r="B175" s="9" t="inlineStr">
-        <is>
-          <t>GND-MD</t>
-        </is>
-      </c>
-      <c r="C175" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D175" s="9" t="inlineStr">
-        <is>
-          <t>GND,Wire Mldg Only</t>
-        </is>
-      </c>
-      <c r="E175" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F175" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G175" s="10" t="inlineStr"/>
-      <c r="H175" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="12" t="inlineStr">
-        <is>
-          <t>Point 01</t>
-        </is>
-      </c>
-      <c r="B176" s="12" t="inlineStr">
-        <is>
-          <t>GYD-MPY</t>
-        </is>
-      </c>
-      <c r="C176" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D176" s="12" t="inlineStr">
-        <is>
-          <t>GYD,Marker-Plastic-Yellow</t>
-        </is>
-      </c>
-      <c r="E176" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F176" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G176" s="13" t="inlineStr"/>
-      <c r="H176" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="9" t="inlineStr">
-        <is>
-          <t>Point 01</t>
-        </is>
-      </c>
-      <c r="B177" s="9" t="inlineStr">
-        <is>
-          <t>GYF-38-D-78P-EP</t>
-        </is>
-      </c>
-      <c r="C177" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D177" s="9" t="inlineStr">
-        <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
-        </is>
-      </c>
-      <c r="E177" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F177" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G177" s="10" t="inlineStr"/>
-      <c r="H177" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="12" t="inlineStr">
-        <is>
-          <t>Point 01</t>
-        </is>
-      </c>
-      <c r="B178" s="12" t="inlineStr">
-        <is>
-          <t>CNC-HTA-10</t>
-        </is>
-      </c>
-      <c r="C178" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D178" s="12" t="inlineStr">
-        <is>
-          <t>Compression connector H-Tap Assembly 1/0</t>
-        </is>
-      </c>
-      <c r="E178" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F178" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G178" s="13" t="inlineStr"/>
-      <c r="H178" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="9" t="inlineStr">
-        <is>
-          <t>Point 01</t>
-        </is>
-      </c>
-      <c r="B179" s="9" t="inlineStr">
-        <is>
-          <t>INS-15-D-S-C</t>
-        </is>
-      </c>
-      <c r="C179" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D179" s="9" t="inlineStr">
-        <is>
-          <t>INS,15kV,Deadend,Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E179" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F179" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G179" s="10" t="inlineStr"/>
-      <c r="H179" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="12" t="inlineStr">
-        <is>
-          <t>Point 01</t>
-        </is>
-      </c>
-      <c r="B180" s="12" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C180" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D180" s="12" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E180" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F180" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G180" s="13" t="inlineStr"/>
-      <c r="H180" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="9" t="inlineStr">
-        <is>
-          <t>Point 01</t>
-        </is>
-      </c>
-      <c r="B181" s="9" t="inlineStr">
-        <is>
-          <t>PLA-CUT</t>
-        </is>
-      </c>
-      <c r="C181" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D181" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Cut Off Pole Top</t>
-        </is>
-      </c>
-      <c r="E181" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F181" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G181" s="10" t="inlineStr"/>
-      <c r="H181" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="12" t="inlineStr">
-        <is>
-          <t>Point 01</t>
-        </is>
-      </c>
-      <c r="B182" s="12" t="inlineStr">
-        <is>
-          <t>PLD-EYE</t>
-        </is>
-      </c>
-      <c r="C182" s="12" t="n"/>
-      <c r="D182" s="12" t="inlineStr">
-        <is>
-          <t>PLD,Eyebolt Deadend</t>
-        </is>
-      </c>
-      <c r="E182" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F182" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G182" s="13" t="inlineStr"/>
-      <c r="H182" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="9" t="inlineStr">
-        <is>
-          <t>Point 01</t>
-        </is>
-      </c>
-      <c r="B183" s="9" t="inlineStr">
-        <is>
-          <t>POL-40-2</t>
-        </is>
-      </c>
-      <c r="C183" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D183" s="9" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 2</t>
-        </is>
-      </c>
-      <c r="E183" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F183" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G183" s="10" t="inlineStr"/>
-      <c r="H183" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="12" t="inlineStr">
-        <is>
-          <t>Point 01</t>
-        </is>
-      </c>
-      <c r="B184" s="12" t="inlineStr">
-        <is>
-          <t>SAA-3-CV</t>
-        </is>
-      </c>
-      <c r="C184" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D184" s="12" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis</t>
-        </is>
-      </c>
-      <c r="E184" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F184" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G184" s="13" t="inlineStr"/>
-      <c r="H184" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="9" t="inlineStr">
-        <is>
-          <t>Point 01</t>
-        </is>
-      </c>
-      <c r="B185" s="9" t="inlineStr">
-        <is>
-          <t>SAA-DE-20</t>
-        </is>
-      </c>
-      <c r="C185" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D185" s="9" t="inlineStr">
-        <is>
-          <t>SAA,DE Clamp #4-2/0</t>
-        </is>
-      </c>
-      <c r="E185" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F185" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G185" s="10" t="inlineStr"/>
-      <c r="H185" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="12" t="inlineStr">
-        <is>
-          <t>Point 02</t>
-        </is>
-      </c>
-      <c r="B186" s="12" t="inlineStr">
-        <is>
-          <t>DEG-4-SPA</t>
-        </is>
-      </c>
-      <c r="C186" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D186" s="12" t="inlineStr">
-        <is>
-          <t>DEG,#4,Slack Span Alum</t>
-        </is>
-      </c>
-      <c r="E186" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F186" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G186" s="13" t="inlineStr"/>
-      <c r="H186" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="9" t="inlineStr">
-        <is>
-          <t>Point 02</t>
-        </is>
-      </c>
-      <c r="B187" s="9" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C187" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D187" s="9" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E187" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F187" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G187" s="10" t="inlineStr"/>
-      <c r="H187" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="12" t="inlineStr">
-        <is>
-          <t>Point 02</t>
-        </is>
-      </c>
-      <c r="B188" s="12" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-K</t>
-        </is>
-      </c>
-      <c r="C188" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D188" s="12" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
-        </is>
-      </c>
-      <c r="E188" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F188" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G188" s="13" t="inlineStr"/>
-      <c r="H188" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="9" t="inlineStr">
-        <is>
-          <t>Point 02</t>
-        </is>
-      </c>
-      <c r="B189" s="9" t="inlineStr">
-        <is>
-          <t>PLD-EYE</t>
-        </is>
-      </c>
-      <c r="C189" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D189" s="9" t="inlineStr">
-        <is>
-          <t>PLD,Eyebolt Deadend</t>
-        </is>
-      </c>
-      <c r="E189" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F189" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G189" s="10" t="inlineStr"/>
-      <c r="H189" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="12" t="inlineStr">
-        <is>
-          <t>Point 02</t>
-        </is>
-      </c>
-      <c r="B190" s="12" t="inlineStr">
-        <is>
-          <t>POL-40-5</t>
-        </is>
-      </c>
-      <c r="C190" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D190" s="12" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 5</t>
-        </is>
-      </c>
-      <c r="E190" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F190" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G190" s="13" t="inlineStr"/>
-      <c r="H190" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="9" t="inlineStr">
-        <is>
-          <t>Point 02</t>
-        </is>
-      </c>
-      <c r="B191" s="9" t="inlineStr">
-        <is>
-          <t>SAA-3-CV</t>
-        </is>
-      </c>
-      <c r="C191" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D191" s="9" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis</t>
-        </is>
-      </c>
-      <c r="E191" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F191" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G191" s="10" t="inlineStr"/>
-      <c r="H191" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="12" t="inlineStr">
-        <is>
-          <t>Point 02</t>
-        </is>
-      </c>
-      <c r="B192" s="12" t="inlineStr">
-        <is>
-          <t>SAA-DE-20</t>
-        </is>
-      </c>
-      <c r="C192" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D192" s="12" t="inlineStr">
-        <is>
-          <t>SAA,DE Clamp #4-2/0</t>
-        </is>
-      </c>
-      <c r="E192" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F192" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G192" s="13" t="inlineStr"/>
-      <c r="H192" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="9" t="inlineStr">
-        <is>
-          <t>Point 02</t>
-        </is>
-      </c>
-      <c r="B193" s="9" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C193" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D193" s="9" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E193" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F193" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="G193" s="10" t="inlineStr"/>
-      <c r="H193" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="12" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B194" s="12" t="inlineStr">
-        <is>
-          <t>ALB-W-30-S-1-A</t>
-        </is>
-      </c>
-      <c r="C194" s="12" t="inlineStr">
-        <is>
-          <t>Tran</t>
-        </is>
-      </c>
-      <c r="D194" s="12" t="inlineStr">
-        <is>
-          <t>ALB,Wood,30in,Steel,1P,Area</t>
-        </is>
-      </c>
-      <c r="E194" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F194" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G194" s="13" t="inlineStr"/>
-      <c r="H194" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="9" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B195" s="9" t="inlineStr">
-        <is>
-          <t>ALT-LED-DD-T5-5L-SF</t>
-        </is>
-      </c>
-      <c r="C195" s="9" t="inlineStr">
-        <is>
-          <t>Tran</t>
-        </is>
-      </c>
-      <c r="D195" s="9" t="inlineStr">
-        <is>
-          <t>5200L LED, Type 5, Dusk to Dawn</t>
-        </is>
-      </c>
-      <c r="E195" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F195" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G195" s="10" t="inlineStr"/>
-      <c r="H195" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="12" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B196" s="12" t="inlineStr">
-        <is>
-          <t>CNC-HTA-10</t>
-        </is>
-      </c>
-      <c r="C196" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D196" s="12" t="inlineStr">
-        <is>
-          <t>Compression connector H-Tap Assembly 1/0</t>
-        </is>
-      </c>
-      <c r="E196" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F196" s="13" t="n">
-        <v>13</v>
-      </c>
-      <c r="G196" s="13" t="inlineStr"/>
-      <c r="H196" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="9" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B197" s="9" t="inlineStr">
-        <is>
-          <t>BKT-AC18-F</t>
-        </is>
-      </c>
-      <c r="C197" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D197" s="9" t="inlineStr">
-        <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
-        </is>
-      </c>
-      <c r="E197" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F197" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G197" s="10" t="inlineStr"/>
-      <c r="H197" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="12" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B198" s="12" t="inlineStr">
-        <is>
-          <t>CNC-SNB-40</t>
-        </is>
-      </c>
-      <c r="C198" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D198" s="12" t="inlineStr">
-        <is>
-          <t>CNC,Splice Non-Tension Bare,#1/0-#4/0</t>
-        </is>
-      </c>
-      <c r="E198" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F198" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G198" s="13" t="inlineStr"/>
-      <c r="H198" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="9" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B199" s="9" t="inlineStr">
-        <is>
-          <t>CND-HLC2</t>
-        </is>
-      </c>
-      <c r="C199" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D199" s="9" t="inlineStr">
-        <is>
-          <t>CND,Hot Line clamp #6-#2</t>
-        </is>
-      </c>
-      <c r="E199" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F199" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G199" s="10" t="inlineStr"/>
-      <c r="H199" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="12" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B200" s="12" t="inlineStr">
-        <is>
-          <t>CND-S2O</t>
-        </is>
-      </c>
-      <c r="C200" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D200" s="12" t="inlineStr">
-        <is>
-          <t>CND,Stirrup #2 Open</t>
-        </is>
-      </c>
-      <c r="E200" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F200" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G200" s="13" t="inlineStr"/>
-      <c r="H200" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="9" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B201" s="9" t="inlineStr">
-        <is>
-          <t>DEC-20AL</t>
-        </is>
-      </c>
-      <c r="C201" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D201" s="9" t="inlineStr">
-        <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS</t>
-        </is>
-      </c>
-      <c r="E201" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F201" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G201" s="10" t="inlineStr"/>
-      <c r="H201" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="12" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B202" s="12" t="inlineStr">
-        <is>
-          <t>DEG-10-SPA</t>
-        </is>
-      </c>
-      <c r="C202" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D202" s="12" t="inlineStr">
-        <is>
-          <t>DEG,1/0,Slack Span Alum</t>
-        </is>
-      </c>
-      <c r="E202" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F202" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G202" s="13" t="inlineStr"/>
-      <c r="H202" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="9" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B203" s="9" t="inlineStr">
-        <is>
-          <t>DEG-10-SPAJ</t>
-        </is>
-      </c>
-      <c r="C203" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D203" s="9" t="inlineStr">
-        <is>
-          <t>DEG, 1/0,Slack Span Alum for J-Neck Ins</t>
-        </is>
-      </c>
-      <c r="E203" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F203" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="G203" s="10" t="inlineStr"/>
-      <c r="H203" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="12" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B204" s="12" t="inlineStr">
-        <is>
-          <t>EQL-1-4-C-2-S-X</t>
-        </is>
-      </c>
-      <c r="C204" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D204" s="12" t="inlineStr">
-        <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
-        </is>
-      </c>
-      <c r="E204" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F204" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G204" s="13" t="inlineStr"/>
-      <c r="H204" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="9" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B205" s="9" t="inlineStr">
-        <is>
-          <t>GND-CR-4</t>
-        </is>
-      </c>
-      <c r="C205" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D205" s="9" t="inlineStr">
-        <is>
-          <t>GND,Cu Clad Rod,#4</t>
-        </is>
-      </c>
-      <c r="E205" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F205" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G205" s="10" t="inlineStr"/>
-      <c r="H205" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="12" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B206" s="12" t="inlineStr">
-        <is>
-          <t>GND-LG-AL</t>
-        </is>
-      </c>
-      <c r="C206" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D206" s="12" t="inlineStr">
-        <is>
-          <t>GND,Lug,Area Lt</t>
-        </is>
-      </c>
-      <c r="E206" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F206" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G206" s="13" t="inlineStr"/>
-      <c r="H206" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="9" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B207" s="9" t="inlineStr">
-        <is>
-          <t>GND-MD</t>
-        </is>
-      </c>
-      <c r="C207" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D207" s="9" t="inlineStr">
-        <is>
-          <t>GND,Wire Mldg Only</t>
-        </is>
-      </c>
-      <c r="E207" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F207" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G207" s="10" t="inlineStr"/>
-      <c r="H207" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="12" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B208" s="12" t="inlineStr">
-        <is>
-          <t>GYD-MPY</t>
-        </is>
-      </c>
-      <c r="C208" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D208" s="12" t="inlineStr">
-        <is>
-          <t>GYD,Marker-Plastic-Yellow</t>
-        </is>
-      </c>
-      <c r="E208" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F208" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G208" s="13" t="inlineStr"/>
-      <c r="H208" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="9" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B209" s="9" t="inlineStr">
-        <is>
-          <t>GYF-38-D-78P-EP</t>
-        </is>
-      </c>
-      <c r="C209" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D209" s="9" t="inlineStr">
-        <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
-        </is>
-      </c>
-      <c r="E209" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F209" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G209" s="10" t="inlineStr"/>
-      <c r="H209" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="12" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B210" s="12" t="inlineStr">
-        <is>
-          <t>GYW-38</t>
-        </is>
-      </c>
-      <c r="C210" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D210" s="12" t="inlineStr">
-        <is>
-          <t>GYW,3/8 in. EHS (15,400 lbs)</t>
-        </is>
-      </c>
-      <c r="E210" s="12" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F210" s="13" t="n">
-        <v>40</v>
-      </c>
-      <c r="G210" s="13" t="inlineStr"/>
-      <c r="H210" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="9" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B211" s="9" t="inlineStr">
-        <is>
-          <t>INS-15-D-S-C</t>
-        </is>
-      </c>
-      <c r="C211" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D211" s="9" t="inlineStr">
-        <is>
-          <t>INS,15kV,Deadend,Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E211" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F211" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G211" s="10" t="inlineStr"/>
-      <c r="H211" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="12" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B212" s="12" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C212" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D212" s="12" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E212" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F212" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G212" s="13" t="inlineStr"/>
-      <c r="H212" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="9" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B213" s="9" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-K</t>
-        </is>
-      </c>
-      <c r="C213" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D213" s="9" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
-        </is>
-      </c>
-      <c r="E213" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F213" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G213" s="10" t="inlineStr"/>
-      <c r="H213" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="12" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B214" s="12" t="inlineStr">
-        <is>
-          <t>PLD-EYE</t>
-        </is>
-      </c>
-      <c r="C214" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D214" s="12" t="inlineStr">
-        <is>
-          <t>PLD,Eyebolt Deadend</t>
-        </is>
-      </c>
-      <c r="E214" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F214" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G214" s="13" t="inlineStr"/>
-      <c r="H214" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="9" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B215" s="9" t="inlineStr">
-        <is>
-          <t>POL-40-2</t>
-        </is>
-      </c>
-      <c r="C215" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D215" s="9" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 2</t>
-        </is>
-      </c>
-      <c r="E215" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F215" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G215" s="10" t="inlineStr"/>
-      <c r="H215" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="12" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B216" s="12" t="inlineStr">
-        <is>
-          <t>SAA-3-CV</t>
-        </is>
-      </c>
-      <c r="C216" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D216" s="12" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis</t>
-        </is>
-      </c>
-      <c r="E216" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F216" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G216" s="13" t="inlineStr"/>
-      <c r="H216" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="9" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B217" s="9" t="inlineStr">
-        <is>
-          <t>SAA-DE-20</t>
-        </is>
-      </c>
-      <c r="C217" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D217" s="9" t="inlineStr">
-        <is>
-          <t>SAA,DE Clamp #4-2/0</t>
-        </is>
-      </c>
-      <c r="E217" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F217" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G217" s="10" t="inlineStr"/>
-      <c r="H217" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="12" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B218" s="12" t="inlineStr">
-        <is>
-          <t>SVC-2-TP-ALA-RS</t>
-        </is>
-      </c>
-      <c r="C218" s="12" t="inlineStr">
-        <is>
-          <t>Tran</t>
-        </is>
-      </c>
-      <c r="D218" s="12" t="inlineStr">
-        <is>
-          <t>SVC,#2 AWG,Trip,Alum/Aly Neut,Res</t>
-        </is>
-      </c>
-      <c r="E218" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F218" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G218" s="13" t="inlineStr"/>
-      <c r="H218" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="9" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B219" s="9" t="inlineStr">
-        <is>
-          <t>SVC-VA</t>
-        </is>
-      </c>
-      <c r="C219" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D219" s="9" t="inlineStr">
-        <is>
-          <t>SVC-Virtual Asset Capitalization</t>
-        </is>
-      </c>
-      <c r="E219" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F219" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G219" s="10" t="inlineStr"/>
-      <c r="H219" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="12" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B220" s="12" t="inlineStr">
-        <is>
-          <t>PLA-CUT</t>
-        </is>
-      </c>
-      <c r="C220" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D220" s="12" t="inlineStr">
-        <is>
-          <t>PLA,Cut Off Pole Top</t>
-        </is>
-      </c>
-      <c r="E220" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F220" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G220" s="13" t="inlineStr"/>
-      <c r="H220" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="9" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B221" s="9" t="inlineStr">
-        <is>
-          <t>PLA-HDIG</t>
-        </is>
-      </c>
-      <c r="C221" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D221" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
-        </is>
-      </c>
-      <c r="E221" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F221" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G221" s="10" t="inlineStr"/>
-      <c r="H221" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="12" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B222" s="12" t="inlineStr">
-        <is>
-          <t>XCO-15-100-7</t>
-        </is>
-      </c>
-      <c r="C222" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D222" s="12" t="inlineStr">
-        <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
-        </is>
-      </c>
-      <c r="E222" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F222" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G222" s="13" t="inlineStr"/>
-      <c r="H222" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="9" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B223" s="9" t="inlineStr">
-        <is>
-          <t>XFR-25-72-120-1B</t>
-        </is>
-      </c>
-      <c r="C223" s="9" t="inlineStr">
-        <is>
-          <t>Tran</t>
-        </is>
-      </c>
-      <c r="D223" s="9" t="inlineStr">
-        <is>
-          <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG</t>
-        </is>
-      </c>
-      <c r="E223" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F223" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G223" s="10" t="inlineStr"/>
-      <c r="H223" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="12" t="inlineStr">
-        <is>
-          <t>Point 06</t>
-        </is>
-      </c>
-      <c r="B224" s="12" t="inlineStr">
-        <is>
-          <t>ANC-DHM-10-84-D1</t>
-        </is>
-      </c>
-      <c r="C224" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D224" s="12" t="inlineStr">
-        <is>
-          <t>ANC,Dbl Hlx Mach,10in,84in,Db Eye 1in</t>
-        </is>
-      </c>
-      <c r="E224" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F224" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G224" s="13" t="inlineStr"/>
-      <c r="H224" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="9" t="inlineStr">
-        <is>
-          <t>Point 06</t>
-        </is>
-      </c>
-      <c r="B225" s="9" t="inlineStr">
-        <is>
-          <t>BKT-AC18-F</t>
-        </is>
-      </c>
-      <c r="C225" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D225" s="9" t="inlineStr">
-        <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
-        </is>
-      </c>
-      <c r="E225" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F225" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G225" s="10" t="inlineStr"/>
-      <c r="H225" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="12" t="inlineStr">
-        <is>
-          <t>Point 06</t>
-        </is>
-      </c>
-      <c r="B226" s="12" t="inlineStr">
-        <is>
-          <t>CND-HLC2</t>
-        </is>
-      </c>
-      <c r="C226" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D226" s="12" t="inlineStr">
-        <is>
-          <t>CND,Hot Line clamp #6-#2</t>
-        </is>
-      </c>
-      <c r="E226" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F226" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G226" s="13" t="inlineStr"/>
-      <c r="H226" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="9" t="inlineStr">
-        <is>
-          <t>Point 06</t>
-        </is>
-      </c>
-      <c r="B227" s="9" t="inlineStr">
-        <is>
-          <t>CND-S2O</t>
-        </is>
-      </c>
-      <c r="C227" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D227" s="9" t="inlineStr">
-        <is>
-          <t>CND,Stirrup #2 Open</t>
-        </is>
-      </c>
-      <c r="E227" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F227" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G227" s="10" t="inlineStr"/>
-      <c r="H227" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="12" t="inlineStr">
-        <is>
-          <t>Point 06</t>
-        </is>
-      </c>
-      <c r="B228" s="12" t="inlineStr">
-        <is>
-          <t>CON-2-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C228" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D228" s="12" t="inlineStr">
-        <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
-        </is>
-      </c>
-      <c r="E228" s="12" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F228" s="13" t="n">
-        <v>72</v>
-      </c>
-      <c r="G228" s="13" t="inlineStr"/>
-      <c r="H228" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="9" t="inlineStr">
-        <is>
-          <t>Point 06</t>
-        </is>
-      </c>
-      <c r="B229" s="9" t="inlineStr">
-        <is>
-          <t>DEC-20AL</t>
-        </is>
-      </c>
-      <c r="C229" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D229" s="9" t="inlineStr">
-        <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS</t>
-        </is>
-      </c>
-      <c r="E229" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F229" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G229" s="10" t="inlineStr"/>
-      <c r="H229" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="12" t="inlineStr">
-        <is>
-          <t>Point 06</t>
-        </is>
-      </c>
-      <c r="B230" s="12" t="inlineStr">
-        <is>
-          <t>DEG-2-SPAJ</t>
-        </is>
-      </c>
-      <c r="C230" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D230" s="12" t="inlineStr">
-        <is>
-          <t>DEG,#2,Slack span Alum for J-neck</t>
-        </is>
-      </c>
-      <c r="E230" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F230" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G230" s="13" t="inlineStr"/>
-      <c r="H230" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="9" t="inlineStr">
-        <is>
-          <t>Point 06</t>
-        </is>
-      </c>
-      <c r="B231" s="9" t="inlineStr">
-        <is>
-          <t>DEG-4-SPA</t>
-        </is>
-      </c>
-      <c r="C231" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D231" s="9" t="inlineStr">
-        <is>
-          <t>DEG,#4,Slack Span Alum</t>
-        </is>
-      </c>
-      <c r="E231" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F231" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G231" s="10" t="inlineStr"/>
-      <c r="H231" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="12" t="inlineStr">
-        <is>
-          <t>Point 06</t>
-        </is>
-      </c>
-      <c r="B232" s="12" t="inlineStr">
-        <is>
-          <t>EQL-1-4-C-2-S-X</t>
-        </is>
-      </c>
-      <c r="C232" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D232" s="12" t="inlineStr">
-        <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
-        </is>
-      </c>
-      <c r="E232" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F232" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G232" s="13" t="inlineStr"/>
-      <c r="H232" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="9" t="inlineStr">
-        <is>
-          <t>Point 06</t>
-        </is>
-      </c>
-      <c r="B233" s="9" t="inlineStr">
-        <is>
-          <t>GYD-MPY</t>
-        </is>
-      </c>
-      <c r="C233" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D233" s="9" t="inlineStr">
-        <is>
-          <t>GYD,Marker-Plastic-Yellow</t>
-        </is>
-      </c>
-      <c r="E233" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F233" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G233" s="10" t="inlineStr"/>
-      <c r="H233" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="12" t="inlineStr">
-        <is>
-          <t>Point 06</t>
-        </is>
-      </c>
-      <c r="B234" s="12" t="inlineStr">
-        <is>
-          <t>GYF-38-D-78P-EP</t>
-        </is>
-      </c>
-      <c r="C234" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D234" s="12" t="inlineStr">
-        <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
-        </is>
-      </c>
-      <c r="E234" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F234" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G234" s="13" t="inlineStr"/>
-      <c r="H234" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="9" t="inlineStr">
-        <is>
-          <t>Point 06</t>
-        </is>
-      </c>
-      <c r="B235" s="9" t="inlineStr">
-        <is>
-          <t>GYW-38</t>
-        </is>
-      </c>
-      <c r="C235" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D235" s="9" t="inlineStr">
-        <is>
-          <t>GYW,3/8 in. EHS (15,400 lbs)</t>
-        </is>
-      </c>
-      <c r="E235" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F235" s="10" t="n">
-        <v>40</v>
-      </c>
-      <c r="G235" s="10" t="inlineStr"/>
-      <c r="H235" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="12" t="inlineStr">
-        <is>
-          <t>Point 06</t>
-        </is>
-      </c>
-      <c r="B236" s="12" t="inlineStr">
-        <is>
-          <t>INS-15-D-S-C</t>
-        </is>
-      </c>
-      <c r="C236" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D236" s="12" t="inlineStr">
-        <is>
-          <t>INS,15kV,Deadend,Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E236" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F236" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G236" s="13" t="inlineStr"/>
-      <c r="H236" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="9" t="inlineStr">
-        <is>
-          <t>Point 06</t>
-        </is>
-      </c>
-      <c r="B237" s="9" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C237" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D237" s="9" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E237" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F237" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G237" s="10" t="inlineStr"/>
-      <c r="H237" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="12" t="inlineStr">
-        <is>
-          <t>Point 06</t>
-        </is>
-      </c>
-      <c r="B238" s="12" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-K</t>
-        </is>
-      </c>
-      <c r="C238" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D238" s="12" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
-        </is>
-      </c>
-      <c r="E238" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F238" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G238" s="13" t="inlineStr"/>
-      <c r="H238" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="9" t="inlineStr">
-        <is>
-          <t>Point 06</t>
-        </is>
-      </c>
-      <c r="B239" s="9" t="inlineStr">
-        <is>
-          <t>PLD-EYE</t>
-        </is>
-      </c>
-      <c r="C239" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D239" s="9" t="inlineStr">
-        <is>
-          <t>PLD,Eyebolt Deadend</t>
-        </is>
-      </c>
-      <c r="E239" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F239" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G239" s="10" t="inlineStr"/>
-      <c r="H239" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="12" t="inlineStr">
-        <is>
-          <t>Point 06</t>
-        </is>
-      </c>
-      <c r="B240" s="12" t="inlineStr">
-        <is>
-          <t>POL-40-5</t>
-        </is>
-      </c>
-      <c r="C240" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D240" s="12" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 5</t>
-        </is>
-      </c>
-      <c r="E240" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F240" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G240" s="13" t="inlineStr"/>
-      <c r="H240" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="9" t="inlineStr">
-        <is>
-          <t>Point 06</t>
-        </is>
-      </c>
-      <c r="B241" s="9" t="inlineStr">
-        <is>
-          <t>SAA-3-CV</t>
-        </is>
-      </c>
-      <c r="C241" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D241" s="9" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis</t>
-        </is>
-      </c>
-      <c r="E241" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F241" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G241" s="10" t="inlineStr"/>
-      <c r="H241" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="12" t="inlineStr">
-        <is>
-          <t>Point 06</t>
-        </is>
-      </c>
-      <c r="B242" s="12" t="inlineStr">
-        <is>
-          <t>SAA-DE-20</t>
-        </is>
-      </c>
-      <c r="C242" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D242" s="12" t="inlineStr">
-        <is>
-          <t>SAA,DE Clamp #4-2/0</t>
-        </is>
-      </c>
-      <c r="E242" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F242" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G242" s="13" t="inlineStr"/>
-      <c r="H242" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="9" t="inlineStr">
-        <is>
-          <t>Point 06</t>
-        </is>
-      </c>
-      <c r="B243" s="9" t="inlineStr">
-        <is>
-          <t>XCO-15-100-7</t>
-        </is>
-      </c>
-      <c r="C243" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D243" s="9" t="inlineStr">
-        <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
-        </is>
-      </c>
-      <c r="E243" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F243" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G243" s="10" t="inlineStr"/>
-      <c r="H243" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H244" s="16" t="n">
-        <v>0</v>
+      <c r="H187" s="16" t="n">
+        <v>9610.820000000002</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A163:H163"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A244:G244"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A60:H60"/>
     <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A125:G125"/>
     <mergeCell ref="G12:I12"/>
+    <mergeCell ref="A128:H128"/>
+    <mergeCell ref="A57:G57"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A71:G71"/>
-    <mergeCell ref="A160:G160"/>
-    <mergeCell ref="A74:H74"/>
+    <mergeCell ref="A187:G187"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
